--- a/deuChatbot/research_result/version_2(2500_300).xlsx
+++ b/deuChatbot/research_result/version_2(2500_300).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13745,6 +13745,7220 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기시험의 모집단위, 종목, 준비물, 실기주제, 화지크기 및 시험시간에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 주제를 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.8391775489093668</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 분야에서 각각 진행되며, 주요 내용은 다음과 같습니다:
+1. **모집단위 및 종목**:
+   - 모집단위: 시각디자인 / 산업디자인 / 공예디자인
+   - 종목: 기초디자인, 사고의 전환
+2. **준비물**:
+   - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+3. **실기주제 및 화지크기**:
+   - **기초디자인**:
+     - 주제: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨
+       - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+     - 화지크기: 켄트지3절
+     - 시간: 5시간
+   - **사고의 전환**:
+     - 주제: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨
+       - 예시: 콜라병과 계절 (주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼 / 주제B: 바이러스, 자유, 여행, 계절, 꿈)
+     - 화지크기: 켄트지2절
+     - 시간: 5시간
+4. **주의사항**:
+   - 제공된 사물과 이미지 이외의 형상은 표현하지 마세요.
+   - 제공된 사물은 모두 1회 이상 표현해야 합니다.
+   - 제공된 사물의 색상은 변경하지 마세요.
+이러한 실기시험을 준비하면서, 다양한 주제와 상황에 대한 창의적인 접근법과 표현 능력을 키우는 것이 중요합니다. 또한 시간 관리와 효율적인 작업 방법도 함께 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기종목과 준비물, 실기주제, 화지크기, 시간에 대한 정보를 포함하고 있지만, "시각디자인 / 산업디자인 / 공예디자인"이라는 추가적인 정보는 원본 텍스트에 명시되어 있지 않으며, 이는 사실과 다릅니다. 따라서 일부 사실이 정확하지 않다고 평가할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, "시각디자인 / 산업디자인 / 공예디자인"이라는 내용이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트와의 일관성이 부족하다고 볼 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있지만, 추가된 정보가 원본 텍스트와의 관련성을 약간 떨어뜨립니다. 그러나 여전히 주요 내용은 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 중복된 표현이 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 사실을 정확하게 반영하고 있지만, 추가된 정보로 인해 정확성이 떨어집니다. 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점이 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 정보로 인해 의미가 왜곡될 수 있습니다. 따라서 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.7354255454942759</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 시각디자인 / 산업디자인 / 공예디자인이 있으며, 각 종목별로 다음과 같은 특징이 있습니다:
+1. **실기종목**: 기초디자인, 사고의 전환
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+   - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 맥가이버 칼
+4. **화지크기**: 켄트지3절
+5. **시간**: 5시간
+이는 시각디자인 / 산업디자인 / 공예디자인 모두에 적용되는 규칙입니다.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 요청된 정보에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.9247009883968684</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 다음과 같습니다:
+1. **배드민턴(남)**:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. **축구(남)**:
+   - 춘계한국고등학교축구연맹전
+   - 추계한국고등학교축구연맹전
+   - 대한축구협회장배전국고등학교축구대회
+   - 문화체육관광부장관기전국고등학교축구대회
+   - 문화체육관광부장관배전국고등학교축구대회
+   - 백운기전국고등학교축구대회
+   - 전국고등축구리그(권역별고교축구리그)
+   - 전국고등축구리그왕중왕전
+   - 무학기전국고등학교축구대회
+   - 청룡기전국고등학교축구대회
+   - 백록기전국고등학교축구대회
+   - 금강대기전국고등학교축구대회
+   - 대통령금배전국고등학교축구대회
+   - 금석배전국고등학생축구대회
+   - 부산MBC전국고등학생축구대회
+   - K리그 U18 챔피언십
+   - K리그 U18 챔피언십왕중왕전
+이러한 대회들 중 일부는 특정 리그나 권역별 대회를 포함하고 있으며, 축구의 경우 리그 실적증명서도 함께 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 주제B의 내용이 원본 텍스트와 다릅니다. 원본 텍스트의 주제B는 "악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음"인데, 생성된 응답에서는 "콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼"로 잘못 기재되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 주제B의 내용이 다르기 때문에, 주제 선정 과정에 대한 설명도 일관되지 않게 됩니다. 주제B의 내용이 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있습니다. 실기시험의 주제 선정 과정과 주제 목록을 모두 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제 선정 과정에 대한 설명이 명확합니다. 그러나 주제B의 내용이 잘못되어 있어 전체적인 일관성에 영향을 미칠 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 주제B의 내용이 원본 텍스트와 다르기 때문에 정확성이 낮습니다. 주제A는 정확하지만, 주제B의 오류로 인해 전체적인 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 관련성은 높지만 사실성과 일관성이 낮아 전체적인 품질이 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 주제B의 오류로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 주제B의 오류로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.7631741624829579</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 중 각각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 주제들은 다음과 같습니다:
+주제A:
+- 잠자리
+- 무궁화
+- 피망 (파프리카)
+- 고양이 
+- 양파
+- 달팽이
+- 오렌지
+주제B:
+- 콜라병
+- 포카리스웨트(캔)
+- 마스크
+- 시계
+- 맥가이버 칼
+당일에는 주제A와 주제B 중에서 각각 1개씩 추첨하여 연결된 주제를 만드는 것이므로, 실제 시험에서는 선정되는 주제가 다를 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 "일반적으로"라는 표현은 다소 모호할 수 있으며, 모든 경우에 해당하지 않을 수 있습니다. 따라서 완전한 정확성에는 약간의 부족함이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 주장을 일관되게 유지하고 있으며, 추가적인 예시를 통해 이를 뒷받침하고 있습니다. 그러나 "일반적으로"라는 표현이 다소 일관성을 떨어뜨릴 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 직접적으로 관련된 정보를 제공하고 있으며, 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 주제를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 예시가 주제와 관련이 있습니다. 그러나 예시 간의 연결이 조금 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 전달하고 있으며, 예시를 통해 이를 보강하고 있습니다. 그러나 "일반적으로"라는 표현이 정확성을 약간 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다. 그러나 약간의 모호함이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절합니다. 그러나 "일반적으로"라는 표현이 의미의 명확성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다. 따라서 명확성에서 약간의 개선이 필요합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.6836791196078955</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 학생부교과 전형에서 출결 점수는 일반적으로 반영되지 않습니다. 
+예를 들어:
+- 가군 수능(일반학생전형), 실기/실적(일반학생전형)의 경우, 전형요소 반영비율에서는 출결이 0%로 표시되어 있습니다.
+- 나군 학생부교과(평생학습자전형)의 경우, 전형요소 반영비율에서 출결은 0%입니다.
+- 나군 학생부종합(성인학습자(정원내)전형)의 경우, 전형요소 반영비율에서 출결은 30%로 표시되지만, 이는 주로 실기/실적 위주 전형에서의 비율이며 교과에서는 0%입니다.
+따라서, 학생부교과 전형인 대부분의 경우 출결 점수는 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 모집 인원 수와 전형에 대한 정보를 정확하게 반영하고 있으며, 연도만 추가되었을 뿐 사실적인 내용은 변하지 않았습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.9301294051326514</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 28명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.6570547406404946</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 영어영문학과 - 교직은 다군 수능(일반학생전형) 모집단위이며, 해당 모집단위의 모집인원은 28입니다.</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원에 대한 잘못된 정보를 제공하고 있습니다. 원본 텍스트에서는 22명의 신입생을 선발한다고 명시하고 있지만, 생성된 응답에서는 110명이라고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 포함하고 있습니다. 원본의 내용과 일치하지 않기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 간호학과의 모집 인원에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 "110명입니다."라는 문장은 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 110명이라는 정보가 원본과 연결되지 않기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 큰 문제를 가지고 있지만, 관련성은 높습니다. 그러나 다른 차원에서의 성과가 낮아 전체 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 일치하지 않으며, 잘못된 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.653368472765705</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>110명입니다. 의료보건생활대학 간호학과 나군 일반 학생의 정원 내 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 등급에 대한 점수를 올바르게 나열하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 요청된 정보에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.6025352242428224</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>以下是根据韩语原文整理的英语翻译，以及您所询问的关于英语等级对应分数的信息：
+English Translation:
+The following is the information extracted from the provided Korean text:
+- English grade score corresponding to level 1 is 139.
+- English grade score corresponding to level 2 is 131.
+- English grade score corresponding to level 3 is 123.
+- English grade score corresponding to level 4 is 115.
+- English grade score corresponding to level 5 is 107.
+- English grade score corresponding to level 6 is 99.
+- English grade score corresponding to level 7 is 91.
+- English grade score corresponding to level 8 is 83.
+- English grade score corresponding to level 9 is 75.
+English Grade Score Corresponding to Each Level:
+- Level 1: 139
+- Level 2: 131
+- Level 3: 123
+- Level 4: 115
+- Level 5: 107
+- Level 6: 99
+- Level 7: 91
+- Level 8: 83
+- Level 9: 75</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서의 주장을 완전히 반박하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 관련된 질문에 대한 답변을 제공하고 있으며, 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 상반된 내용으로 인해 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 다르며, 원문에서 명시된 내용을 잘못 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 매우 낮은 점수를 받았지만, 관련성은 높습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하며, 부적절한 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.7257430394544615</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예, 예술고 학생은 나군 학생부교과(농어촌학생전형)로 지원 가능합니다. 
+고교유형별 지원자격에서 다음과 같이 명시되어 있습니다:
+- 모집군은 나군이며,
+- 전형명은 학생부교과(농어촌학생전형)이며, 
+- 고교유형별 지원자격의 특수목적고의 예술고는 지원 가능합니다.
+따라서 예술고 학생도 나군 학생부교과(농어촌학생전형)로 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 "남은 거리가 268～271cm"라는 정보는 원본 텍스트에 명시된 기록 범위인 "218~221 cm"와 일치하지 않으며, 이는 사실과 다릅니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. "남은 거리"라는 표현은 원본 텍스트에 없으며, 이는 혼란을 초래합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보가 포함되어 있어 일부 관련성이 떨어집니다. 그러나 배점에 대한 정보는 정확하게 전달되고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "남은 거리"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 잘 구성되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. "남은 거리"와 "여은 거리"의 구분이 명확하지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 기록 범위에 대한 정확한 정보를 제공하지 않으며, 이는 정확성 점수를 낮춥니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답의 의미는 대체로 적절하지만, 잘못된 정보로 인해 의미 전달이 혼란스러울 수 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 잘못된 정보와 어색한 표현으로 인해 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.8766835098715221</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 남은 거리가 268～271cm, 여은 거리가 218~221cm이며, 해당 등급의 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 모든 사실이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 출결 반영 비율에 대한 정보가 일치합니다. 추가적인 내용도 원본과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.7319019587818147</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서 출결의 반영 비율은 12%입니다.
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 섹션에서 확인할 수 있습니다. 경기지도학과의 경우, 전형요소 반영비율은 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12% (이 질문에 대한 답변)
+- 서류(경기실적): 70%
+따라서, 경기지도학과의 출결 반영 비율은 총 모집인원을 평가할 때 12%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원 수에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보(정원 내 모집 인원)도 원본의 사실과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.9193784551112811</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 정원 내 모집 인원으로 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 일정에 대한 정확한 정보를 제공하고 있으며, 날짜와 요일이 일치합니다. 그러나 추가된 내용(디자인조형학과의 세부 전공 및 대기실 안내 등)은 원본 텍스트에 포함되어 있지 않으므로 완전한 정확성은 다소 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 추가된 정보가 원본과 일치하지 않거나 원본의 맥락을 벗어난 부분이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정에 대한 정보를 명확하게 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본과의 연결성을 약간 약화시킬 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 날짜와 요일에 대한 정보는 정확하지만, 추가된 세부사항이 원본 텍스트에 포함되어 있지 않으므로 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부사항에서의 부정확성이 점수를 낮추는 요소입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 의미를 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.4575888423416314</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 진행됩니다. 
+참고로, 이 일정은 다음과 같습니다:
+- **일정**: 2024년 1월 17일(수)
+- **내용**: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 및 체육학과의 실기고사
+- **비고**: 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 원문 내용을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 일관되며, 수능 최저기준이 없다는 점을 명확히 하고 있습니다. 추가적인 설명도 원문과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 정보를 제공하고 있으며, 수능 최저기준에 대한 설명이 포함되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하며, 사실적으로 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.4754159643568615</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준 정보는 제공된 자료에서 명시되어 있지 않습니다. 
+제공된 정보 중에는 응용화학과에 대한 특정한 수능 최저기준이 언급되지 않았습니다. 일반적으로 수능 최저기준은 대학교나 학과별로 다르게 설정되며, 해당 학과의 홈페이지 또는 입학처 웹사이트를 통해 확인할 수 있습니다.
+따라서 정확한 정보를 얻으시려면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크로 들어가 동의대학교의 공식 입학정보 페이지를 참조하시거나, 직접 학교 입학처에 문의하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과 목록을 정확하게 나열하고 있으며, 신설된 학과에 대한 정보도 포함되어 있습니다. 그러나 "신설"이라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 학과 목록과 일치하지만, "일부 전공이 모집중지 또는 통합/분리되었습니다"라는 내용은 원본 텍스트에 포함되어 있지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신설된 학과에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과에 대한 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받습니다. 그러나 일부 일관성과 정확성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 추가된 정보가 혼란을 줄 수 있는 가능성이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.7380197098974184</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같습니다:
+1. 심리학과 (신설)
+2. 스마트항만물류학과 (신설) 
+3. 창업투자경영학과 (신설)
+이 외에도 일부 전공이 모집중지 또는 통합/분리되었습니다. 자세한 내용은 공식 입시 사이트를 확인하시거나, 제공된 링크(https://ipsi.deu.ac.kr/main.do)를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 정확한 정보를 제공하고 있으며, 서류와 면접의 비율이 정확하게 언급되었습니다. 그러나 "이 비율은 모든 모집단위에 적용되는 일반적인 규칙입니다."라는 문장은 원문에 포함되어 있지 않은 추가 정보로, 이로 인해 약간의 부정확성이 발생합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 전형요소 반영비율을 설명하고 있습니다. 그러나 추가된 문장으로 인해 약간의 일관성 저하가 발생했습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 전형요소 반영비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전형요소 반영비율에 대한 정보는 정확하지만, 추가된 문장이 원문에 없는 정보이므로 완전한 정확성에는 다소 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 보이지만, 추가된 문장으로 인해 약간의 부정확성과 일관성 저하가 발생했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있지만, 추가된 문장이 원문과의 의미적 일치를 약간 저해합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.8571966152233361</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율은 모든 모집단위에 적용되는 일반적인 규칙입니다.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '한의예과'라는 특정 학과를 언급하고 있지만, 원본 텍스트에서는 '의료·보건·생활대학', '공과대학', 'ICT융합공과대학'이라는 모집단위를 명시하고 있습니다. 따라서, 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 모집단위와 다르게 '한의예과'를 언급하고 있으며, 이는 원본 텍스트와 모순됩니다. 또한, '이는 다른 학과에는 적용되지 않습니다.'라는 문장은 원본 텍스트의 내용을 왜곡하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하고 있으나, 특정 학과에 대한 언급이 원본 텍스트와 일치하지 않기 때문에 완전한 관련성을 가지지 않습니다. 그러나 주제는 여전히 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 전체적인 품질이 다소 저하되었습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 한 문장으로 구성되어 있지만, 원본 텍스트와의 연결이 약해 논리적인 흐름이 부족합니다. '이는 다른 학과에는 적용되지 않습니다.'라는 문장은 원본 텍스트의 내용을 왜곡하여 일관성을 떨어뜨립니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, '한의예과'라는 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 의미를 전달하고 있지만, 특정 학과에 대한 언급이 원본 텍스트와 일치하지 않아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.6262667101727777</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 한의예과 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다. 이는 다른 학과에는 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과는 다르게 각 과목의 비율을 25%로 나누어 설명하고 있습니다. 이는 원문에서 제공하는 정보와 상충되며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공하고 있습니다. 원문에서는 수능 성적을 100% 반영한다고 명시했지만, 생성된 응답에서는 각 과목의 비율을 나누어 설명하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 관련이 있지만, 잘못된 정보를 포함하고 있어 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 표현이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 각 과목의 비율을 나누어 설명하는 부분이 원문과의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상충되는 내용을 포함하고 있어 정확성이 낮습니다. 수능 성적 반영 비율에 대한 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.7130045126329121</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서 수능 성적은 다음과 같이 반영됩니다:
+1. **모집단위**: 전 모집단위 (레저스포츠학과, 태권도학과 제외)
+2. **반영 영역 및 비율**:
+   - 국어(화법과작문 또는 언어와매체): 25%
+   - 수학(확률과통계 또는 미적분 또는 기하): 25%
+   - 영어: 25%
+   - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 중 2개 과목 합): 25%
+3. **가산점**: 가산점이 없습니다.
+따라서, 가군에서 수능 성적은 국어, 수학, 영어, 탐구 등 네 가지 영역을 각각 25%씩 반영하며, 이들 영역의 표준점수와 등급 점수를 합산하여 최종 점수를 산출합니다.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 가군 실기고사 날짜에 대한 정보를 제공하지만, 원본 텍스트에 명시된 날짜(2024년 1월 16일) 외에 추가적인 날짜(2024년 1월 17일)를 포함하고 있어 사실적으로 정확하지 않습니다. 따라서 일부 사실이 정확하지만, 전체적으로는 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 추가된 날짜로 인해 일관성이 떨어집니다. 원본 텍스트는 특정 날짜에 대한 정보만을 제공하는 반면, 생성된 응답은 여러 날짜를 언급하여 혼란을 초래합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기고사 날짜에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 날짜에 대한 정보를 명확하게 전달하고 있습니다. 그러나 여러 날짜를 언급함으로써 약간의 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 날짜를 포함하지 않으며, 추가적인 날짜를 제공하여 정확성이 떨어집니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 사실성과 정확성에서 일부 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 실기고사 날짜에 대한 정보를 잘 전달하고 있습니다. 그러나 추가된 날짜로 인해 약간의 혼란이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 여러 날짜를 언급함으로써 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.7228324293149145</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같은 날짜에 진행됩니다:
+- 레저스포츠학과, 태권도학과: 2024. 01. 16.(화)
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과: 2024. 01. 17.(수)
+이 정보는 전형일정에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다고 언급하고 있지만, 레저스포츠학과와 태권도학과가 포함되어 있어 사실과 다릅니다. 원문에서는 경기지도학과가 제외된다고 명시되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 특히 레저스포츠학과와 태권도학과에 대한 언급이 원문과 상충합니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원문에서 제외된 학과에 대한 정확한 정보가 부족하여 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름이 매끄럽지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 여러 가지로 다릅니다. 특히 제외된 학과에 대한 정보가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 적절한 부분이 있지만, 원문과의 불일치로 인해 전체적인 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 정보의 정확성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.6943501091510896</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 실기/실적 전형으로 모집되므로, 이들 모집단위는 일반학생전형 수능만을 반영합니다. 따라서 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 제외됩니다.
+이러한 모집단위들은 나군 실기/실적(경기실적우수자전형)에서만 지원할 수 있으며, 나군 수능(일반학생전형)에서는 일반학생전형 수능 성적으로만 평가받습니다.</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다. 추가적인 정보도 제공되어 있어 사실성을 높이고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 주장을 일관되게 유지하고 있습니다. 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저기준에 대한 정보를 직접적으로 다루고 있습니다. 모든 내용이 원본 텍스트의 핵심 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어져 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 내용을 쉽게 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.8098119323497246</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다.
+이는 "전형요소 반영비율" 항목에서 확인할 수 있습니다. 
+다군 수능(일반학생전형)에 대한 정보는 다음과 같습니다:
+- 전형명: 다군 수능(일반학생전형)
+- 모집단위: 전 모집단위
+- 전형요소 반영비율의 수능: 100%
+- 수능최저기준: 수능최저기준 없음
+이 항목에서 "수능최저기준" 부분이 "수능최저기준 없음"으로 표시되어 있어, 다군 전형에서는 수능 최저기준이 적용되지 않는 것을 알 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교에서 학부에서 학과로 분리된 학과 목록을 정확하게 반영하고 있습니다. 그러나 "이 외에도 여러 학과들이 학과로 재분류되거나 신설되었으나"라는 부분은 구체적인 정보를 제공하지 않아 다소 모호합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 학과 분리 정보를 제공합니다. 그러나 "이 외에도 여러 학과들이"라는 문구는 원본 텍스트에 명시된 내용을 넘어서는 정보로, 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, "이 외에도 여러 학과들이"라는 부분이 추가적인 정보로 인해 약간의 흐름이 끊기는 느낌을 줍니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 추가적인 정보가 구체적이지 않아 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 일부 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.7182459369107885</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+이 외에도 여러 학과들이 학과로 재분류되거나 신설되었으나, 질문에서 언급된 내용은 위와 같습니다.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 원본 텍스트와 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.8191480207209944</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수(인터넷)의 마감일은 2024년 1월 6일(토) 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전형 요소의 변경 사항에 대한 일부 정보를 제공하지만, 원본 텍스트의 중요한 세부 사항을 누락하고 있습니다. 예를 들어, 학생부종합(성인학습자전형)과 반영학기 및 반영과목에 대한 정보가 포함되어 있지 않습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 있습니다. 예를 들어, 학생부종합 평가영역의 변경 사항이 원본 텍스트에 명시된 내용과 다릅니다. 이러한 불일치는 일관성 점수를 낮춥니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교의 전형 요소 변화에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 모든 세부 사항을 다루지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형의 변경 사항을 명확하게 설명하고 있습니다. 따라서 일관성 점수는 높습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많아 정확성 점수가 낮습니다. 특히, 전형 요소의 변경 사항에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서의 품질이 낮습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락을 완전히 반영하지 못하고 있습니다. 따라서 적절성 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.769473827256605</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 주요 전형들은 다음과 같습니다:
+1. **학생부종합 평가영역 변경**
+   - 2023학년도: 인성 | 학업역량 | 전공적합성
+   - 2024학년도: 공동체역량 | 학업역량 | 전공적합성
+2. **전형요소 반영비율 변경**
+   - 2023학년도: 실기/실적(경기실적우수자전형): 학생부교과30% + 서류(실적)70%
+   - 2024학년도: 실기/실적(경기실적우수자전형): 학생부교과18% + 출결12% + 서류(실적)70%
+3. **전형요소 반영비율 변경**
+   - 2023학년도: 학생부종합(조기취업형계약학과전형): 서류(학생부)70% + 면접30%
+   - 2024학년도: 학생부종합(조기취업형계약학과전형): 서류(학생부)60% + 면접40%
+이러한 변경사항들은 전반적으로 평가 요소와 비율을 조정하여 더 공정하고 다각적인 학생들을 선발하려는 의도를 보여줍니다.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일관되게 전달되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보(레저스포츠학과와 태권도학과에 대한 언급)도 원본의 내용을 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기 비중에 대한 정보를 명확하게 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.6915186940869559</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 레저스포츠학과와 태권도학과의 경우 실기가 70%의 비중을 차지합니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율" 섹션에서 확인할 수 있습니다. 해당 내용은 다음과 같습니다:
+- 가군 실기/실적(일반학생전형): 모집단위는 레저스포츠학과, 태권도학과이며, 전형요소 반영비율의 수능은 30%이고, 전형요소 반영비율의 실기는 70%입니다.
+따라서, 가군 실기/실적 전형에서 레저스포츠학과와 태권도학과는 실기가 전체 점수 중 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 라이프융합학부의 세부 전공을 정확하게 나열하고 있으며, 추가적인 정보인 "미래융합대학에 속하며, 인문사회 계열로 분류된다"는 내용은 사실일 가능성이 높지만, 원문에 명시되어 있지 않으므로 완전한 정확성은 아닙니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 세부 전공을 나열하고 있으며, 추가적인 정보도 원문과 충돌하지 않습니다. 그러나 원문에 없는 정보가 포함되어 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요구하는 세부 전공에 대한 정보를 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 세부 전공에 대한 정보는 정확하지만, 추가된 정보가 원문에 포함되어 있지 않기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 높은 품질을 보이지만, 원문에 없는 정보가 포함되어 있어 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞지만, 추가된 정보가 원문에 없기 때문에 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.8334653433540227</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+이 학부는 미래융합대학에 속하며, 인문사회 계열로 분류됩니다.</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '체육학과'와 '레저스포츠학과'만 언급되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, '태권도학과'라는 학과가 추가되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있으나, 잘못된 학과가 포함되어 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 각 학과에 대한 설명이 명확하게 제시되어 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: '태권도학과'라는 잘못된 정보가 포함되어 있어 정확성이 낮습니다. 원본 텍스트의 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 기록하고 있으며, 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 실기고사에 대한 정보를 제공하고 있으나, 잘못된 학과가 포함되어 있어 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으며, 정보 전달이 명확합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.7112701312098634</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (가군 실기/실적(일반학생전형))
+2. 태권도학과 (가군 실기/실적(일반학생전형))
+이 두 학과에서만 실기고사가 진행되며, 다른 학과에서는 실기고사는 없습니다.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 실기/실적 위주 전형 지원 가능한 학과에 대한 정보가 잘못되었습니다. 원본 텍스트에 명시된 학과(레저스포츠학과, 태권도학과, 디자인조형학과, 체육학과, 경기지도학과)와는 전혀 다른 학과(로봇자동화공학과, 건축학과)를 언급하고 있으며, 이는 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트에서 언급된 학과와 생성된 응답에서 언급된 학과가 서로 다르기 때문에, 정보의 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 질문에 대한 답변을 시도하고 있지만, 제공된 정보가 원본 텍스트와 관련이 없고, 잘못된 학과 정보를 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 질문의 맥락에 맞지 않는 정보를 제공하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기는 쉽지만, 내용의 정확성과 관련성 문제로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.6046232206432925</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 시행하는 학과는 다음과 같습니다:
+1. 로봇자동화공학과 (나군 실기/실적(일반학생전형))
+2. 건축학과(5년제) (가군 수능(일반학생전형), 실기/실적(일반학생전형))
+이 두 학과에서 실기/실적 위주 전형을 시행하고 있습니다. 지원하려는 학과에 따라 해당하는 전형 정보를 확인하시면 좋을 것 같습니다.
+추가적으로, 로봇자동화공학과의 경우 실기/실적(일반학생전형)에서는 수능 30%와 실기 70%로 구성되어 있습니다. 건축학과(5년제)는 수능 위주 전형으로 운영되므로 실기/실적 위주의 전형은 해당되지 않습니다.
+자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다: https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공 목록을 정확하게 나열하고 있으며, 신설된 학부라는 사실도 반영하고 있습니다. 그러나 "미래융합대학"이라는 표현은 원문에 없으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 많지만, "미래융합대학"이라는 새로운 명칭이 추가되어 원문과의 일관성이 떨어집니다. 이로 인해 일부 일관성이 결여된 것으로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 전공 목록과 신설 학부에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공 목록과 신설 학부에 대한 설명이 자연스럽게 이어집니다. 그러나 "미래융합대학"이라는 표현이 추가되어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공 목록은 정확하지만, "미래융합대학"이라는 명칭이 원문에 없기 때문에 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 잘 맞지만, "미래융합대학"이라는 표현이 추가되어 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 표현이 혼란을 줄 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.8026564831984696</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 미래융합대학에서 신설되는 라이프융합학부는 다음과 같은 세 가지 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학 
+3. 라이프생활문화학
+이 학부는 2024년부터 신설되어 운영됩니다.</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 마이스터고에 대한 언급이 없고, 농어촌학생전형에 대한 정보가 누락되어 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 특수목적고등학교 학생이 일반학생전형에 지원할 수 있다는 점에서 일관성을 보이지만, 농어촌학생전형에 대한 정보가 누락되어 있어 일부 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 정보를 충분히 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 약간의 중복된 정보가 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 사실적으로 정확하지만, 마이스터고와 농어촌학생전형에 대한 정보가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일부 정보의 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있지만, 일부 세부사항이 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 약간의 중복된 정보로 인해 일부 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.6796583604128951</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교 일반학생전형에 지원이 가능합니다. 
+특수목적고등학교로는 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고 등이 포함되며, 이들 특수목적고등학교의 학생들은 동의대학교의 가군 수능(일반학생전형)과 가군 실기/실적(일반학생전형) 모두 지원이 가능합니다.
+따라서, 특수목적고등학교에 다니는 학생이라면 해당 전형을 통해 지원하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로 언급되었으나, 생성된 응답에서는 일본학과가 가장 많이 모집한다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본에서 언급된 학과와 모집 인원과는 전혀 다른 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않고 다른 학과의 모집 인원에 대한 정보를 나열하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 학과의 모집 인원을 나열하고 있지만, 원본 텍스트의 주제와는 일관성이 떨어집니다. 정보의 흐름이 다소 일관되지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 잘못된 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어나 있으며, 주제와 관련된 정보가 부족합니다. 그러나 일부 정보는 여전히 관련이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.7376504771513498</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인하기 위해 각 학과의 정원 내 모집 인원을 살펴보겠습니다.
+1. 중어중국학과 - 교직: 46명
+2. 일본학과 - 교직: 55명
+3. 영어영문학과 - 교직: 50명
+4. 문헌정보학과 - 교직: 45명
+5. 평생교육·청소년상담학과 - 교직: 40명
+6. 심리학과 (신설): 30명
+7. 아동학과: 10명
+8. 경찰행정학과: 7명
+9. 소방방재행정학과: 5명
+10. 행정학과: 45명
+11. 사회복지학과: 60명
+이 중에서 가장 많은 정원 내 모집 인원을 보이는 학과는 **일본학과 - 교직**으로, 55명을 모집합니다.
+따라서 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **일본학과 - 교직**입니다.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형에 지원할 수 없다는 사실을 무시하고, 지원 자격이 있다고 잘못 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순됩니다. 원본 텍스트는 특수목적고등학교 출신자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원 가능하다고 주장합니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 지원 자격에 대한 정보를 제공하고 있지만, 생성된 응답은 잘못된 정보를 바탕으로 한 내용입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 정확성 문제로 인해 전체적인 의미 전달이 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관성을 유지하고 있으나, 원본 텍스트와의 관계에서 비논리적입니다. 원본의 내용을 반영하지 않기 때문에 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 지원 자격에 대한 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 비교적 이해하기 쉬우나, 잘못된 정보로 인해 전체적인 이해가 방해받습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.4971445116889669</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>你是特教高中学生，根据提供的信息，你符合东义大学学生部课程（农村学生招生类型）的申请资格。
+具体来说，在“高中小学类型别申请资格”部分提到：
+- 模集群是“나군”（Na-goon）
+- 申请类型是“학생부교과(농어촌학생전형)”（学生成绩单科目（农村学生招生类型））
+对于“특수목적고등학교”的学生，该表中说明：
+- 特殊目的高中是可以申请的。
+因此，你是可以申请东义大学的学生部课程（农村学生招生类型）的。请确保你符合其他所有申请要求，并准备相应的申请材料。更多详细信息可以在 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 网站上找到。
+如果有任何具体问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상충하는 내용을 담고 있습니다. 원문에서는 해당 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적 수치를 제공하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 정보를 제공합니다. 원문이 합격자 평균 성적에 대한 정보가 없다고 명시한 반면, 생성된 응답은 구체적인 성적을 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 하였고, 생성된 응답은 전혀 다른 성적 정보를 제공하고 있어 주제와 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충하는 내용을 포함하고 있어 정확성이 매우 낮습니다. 원문이 명시적으로 정보를 제공하지 않는다고 했음에도 불구하고, 생성된 응답은 구체적인 수치를 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 없기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 원문에서 요청한 정보와는 상반된 내용을 담고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 부적절성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.5532115257955547</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2024학년도 ICT융합공과대학 소프트웨어공학부의 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.
+추가로, 영어 등급의 평균은 3.30이며, 수능 4개 영역 등급의 평균은 4.12입니다.
+수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 450.71입니다.
+이러한 정보는 제공된 데이터에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충되는 정보를 제공하고 있어 일관성이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 평균 점수를 제시하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 하였으나, 생성된 응답은 특정 점수를 제시하고 있어 주제와 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공하지 않는 정보를 포함하고 있으며, 이는 사실과 다릅니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 매우 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.5055434586442002</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 최초 합격자 발표 일정과 충원 합격자 1차 및 2차 발표 일정은 정확하게 반영하고 있지만, 최초 합격자 등록 일정과 3차 이후 합격자 통보 방식에 대한 정보는 원본 텍스트에 포함되어 있지 않은 내용입니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 추가된 정보(최초 합격자 등록 및 3차 이후 통보 방식)는 원본과 일치하지 않으므로 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하고 있으나, 원본 텍스트에 없는 추가 정보가 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달되고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 정보가 포함되어 있어 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 낮은 점수를 받아 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트와의 일치성이 떨어져 의미의 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 추가된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.8775959366407136</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>합격자발표 언제</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2024학년도 합격자 발표 일정은 다음과 같습니다:
+- 최초 합격자 발표는 2024년 2월 2일(금) 14:00입니다.
+- 최초 합격자 등록은 2024년 2월 7일(수)부터 2월 13일(화)까지 (은행마감시간 내)입니다.
+- 충원 합격자 발표는 다음과 같습니다:
+  - 1차: 2024년 2월 14일(수) 09:00
+  - 2차: 2024년 2월 15일(목) 09:00
+- 충원 합격자 등록은 각각의 발표 시점에 맞춰 이루어집니다.
+- 3차 이후 합격자는 개별 전화 통보를 통해 안내받습니다.
+이 일정을 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 면접고사가 2024년 1월 20일(토)로 명시되어 있지만, 생성된 응답에서는 2024년 1월 17일(수)로 잘못 언급하고 있습니다. 또한, 실기고사와 관련된 정보도 원본 텍스트와 관련이 없습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 날짜와 내용을 제공하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 면접고사 일정에 대한 질문에 대한 적절한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부적절성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.5029982373296674</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>2024년 1월 17일(수)에 실기고사 중 체육학과와 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)의 면접이 있습니다. 
+면접 일정은 다음과 같습니다:
+- **일시:** 2024년 1월 17일(수)
+- **대기실 및 입실 시간 안내:** 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 확인 가능합니다.
+참고로 면접은 개별면접으로 진행되며, 평균 10분 이내에 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 정확히 반영하지 않고 있습니다. 대신, 한국 대학의 일반적인 입학 요건에 대한 정보를 제공하고 있으며, 이는 원문과 관련이 없습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 최저학력 기준이 없다고 명시하고 있지만, 생성된 응답은 일반적인 입학 요건에 대해 설명하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하려고 하지만, 주제에서 벗어난 내용이 포함되어 있어 관련성이 떨어집니다. 원문에서 요구하는 정보에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원문과는 다른 언어로 작성되어 있어, 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 약합니다. 원문에서 요구하는 정보와의 연관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 원문은 최저학력 기준이 없다고 명시하고 있지만, 생성된 응답은 일반적인 입학 요건에 대한 설명을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 전반적으로 원문과의 관련성이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서 요구하는 정보와는 다른 내용을 다루고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 관련성이 떨어져서 전체적인 이해가 어렵습니다. 원문에 대한 직접적인 답변이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.4494434984738571</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到韩医专业（한의예과）的具体最低学力标准。通常，韩国大学的最低入学要求包括高中毕业或同等学历。对于特定专业的额外要求可能会有所不同。
+如果您需要了解具体的最低学力标准，建议访问以下网站获取最新和详细的信息：
+https://ipsi.deu.ac.kr/main.do
+或者直接联系学校招生办公室以获得最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 추가적인 정보도 제공하고 있어 사실성을 잘 유지하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 일관되게 전달하고 있습니다. 추가적인 설명도 원본과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.5419993978422861</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 보면, 전형요소 반영비율에서 수능최저기준 항목은 대부분 "수능최저기준 없음"으로 표시되어 있습니다. 
+특히, 가군 수능(일반학생전형)과 나군 수능(일반학생전형) 등 주요 전형에서는 수능 최저학력 기준이 없습니다.
+따라서 현재 제공된 정보로는 정시모집에서 수능최저학력기준이 없다고 볼 수 있습니다. 하지만 특정 학과나 전형에 따라 다르게 적용될 수도 있으므로, 가장 정확한 정보를 얻기 위해서는 공식 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하시거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정보를 포함하고 있지만, 1차 및 2차 충원 합격자 등록에 대한 추가 정보가 포함되어 있습니다. 원본 텍스트에는 등록 일정이 명시되어 있지 않으므로, 이 부분은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 일치하지만, 등록 일정이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트에 없는 정보를 포함하고 있어 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 충원합격자 발표 일정에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정과 등록 일정이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 차이로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 발표 일정에 대한 정확한 정보를 제공하지만, 등록 일정이 원본 텍스트에 포함되어 있지 않기 때문에 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 사실성과 일관성에서 약간의 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 원본 텍스트의 맥락과 잘 맞아떨어집니다. 그러나 추가된 정보가 원본과의 일관성을 해치고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 다만, 추가된 정보로 인해 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.8256204975059657</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2024학년도 충원합격자는 다음과 같은 일정에 따라 발표됩니다:
+- **1차 충원 합격자 발표**: 2024. 02. 14.(수) 09:00
+- **1차 충원 합격자 등록**: 2024. 02. 14.(수) 09:00~16:00
+- **2차 충원 합격자 발표**: 2024. 02. 15.(목) 09:00
+- **2차 충원 합격자 등록**: 2024. 02. 15.(목) 09:00~16:00
+이후에는 **3차 이후 충원 합격자 발표**가 있으며, 이는 2024. 02. 15.(목) 19:00부터 2024. 02. 20.(화) 18시까지 이루어집니다.
+발표 및 등록에 대한 자세한 내용은 입학관리팀 또는 학교 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 1차와 2차 충원합격자 발표일을 정확하게 반영하고 있으며, 3차 이후 발표 일정도 언급하고 있습니다. 그러나 "추가합격자 발표가 이루어집니다"라는 표현은 1차 발표일과 혼동될 수 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 일관되게 설명하고 있습니다. 다만, "추가합격자 발표"라는 표현이 원본의 "충원합격자 발표"와 다소 다르게 느껴질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 충원합격자 발표 일정과 관련된 정보를 잘 다루고 있습니다. 모든 정보가 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정과 등록 절차를 명확하게 설명하고 있습니다. 그러나 약간의 중복이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, "추가합격자 발표"라는 표현이 원본의 "충원합격자 발표"와 다소 다르게 해석될 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 약간의 부정확성과 어색함이 존재합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으나, "추가합격자 발표"라는 표현이 원본의 의미와 완전히 일치하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.5597174957736452</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 09:00부터 추가합격자 발표가 이루어집니다. 이날짜에 홈페이지에서 개별적으로 합격자를 확인할 수 있으며, 고지서도 홈페이지에서 출력하거나 입학관리팀에서 받을 수 있습니다.
+추가합격자 등록은 같은 날인 2024년 2월 15일(목) 09:00부터 16:00까지 가능합니다. 이 기간 내에 학교 지정 은행으로 등록금을 납부해야 합니다.
+추가합격자 발표 및 등록은 3차로 이루어질 수 있으며, 마지막 3차는 2024년 2월 20일(화)까지 진행될 예정입니다.</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수시모집 등록자의 결원에 대한 정보를 제공하지 않고, 추가 모집 여부를 확인할 수 없다고 언급하고 있습니다. 그러나 원본 텍스트에서는 추가 모집이 이루어진다는 구체적인 내용이 포함되어 있어, 이 점에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 추가 모집에 대한 구체적인 정보가 누락되어 있어 일관성이 부족합니다. 원본 텍스트는 추가 모집이 이루어진다고 명시하고 있지만, 생성된 응답은 이를 부정하는 듯한 인상을 줍니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 추가 모집 여부에 대한 질문에 대한 답변을 제공하고 있으며, 관련된 정보를 찾는 방법을 제시하고 있습니다. 그러나 원본 텍스트의 구체적인 내용과는 다소 거리가 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결성이 약해 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 추가 모집이 이루어진다는 사실을 간과하고 있습니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 부족함이 있지만, 유창성과 이해 가능성은 높습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서의 역할을 잘 수행하고 있습니다. 그러나 원본 텍스트의 맥락과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 표현으로 작성되어 있어, 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.4438763669095017</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 특정 단과대학이나 학과의 추가 모집 여부를 확인할 수 없습니다. 추가 모집 여부와 관련된 최신 정보는 일반적으로 대학 입학처 웹사이트나 공식 안내서에서 확인할 수 있습니다.
+따라서, "https://ipsi.deu.ac.kr/main.do" 주소로 접속하여 최신 정보를 확인하시거나, 직접 대학 입학처에 문의하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있지만, 일부 세부사항이 원본 텍스트와 일치하지 않거나 추가적인 정보가 포함되어 있습니다. 예를 들어, 모집단위에 대한 설명이 원본 텍스트와 다르게 제시되고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 다른 정보와의 일관성이 부족합니다. 예를 들어, 모집단위와 관련된 세부사항이 원본과 다르게 기술되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 주요 정보를 다루고 있으며, 원본 텍스트의 핵심 주제와 관련이 있습니다. 그러나 일부 추가 정보가 포함되어 있어 약간의 주제 이탈이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 일부 정보가 원본과 다르게 제시되어 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 사실을 정확하게 반영하고 있지만, 일부 세부사항이 잘못되거나 누락되어 있습니다. 예를 들어, 모집단위에 대한 설명이 원본과 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 품질을 보이고 있으며, 일부 강점과 약점이 혼재되어 있습니다. 정보의 정확성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 세부사항에서 차이가 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.7592488690782953</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학교 입시에서 평생교육을 받은 학습자나 성인학습자를 대상으로 하는 특별한 전형입니다. 주요 내용은 다음과 같습니다:
+1. **모집단위 및 모집인원**:
+   - 단과대학: 미래융합대학
+   - 계열: 인문사회
+   - 모집단위: 라이프융합학부 (신설)
+     - 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학
+   - 모집인원:
+     - 학생부종합(평생학습자전형): 11명
+     - 학생부종합(성인학습자(정원내·외)전형): 23명
+     - 학생부종합(재직자전형): 7명
+2. **지원자격**:
+   - 산업체 적용범위: 
+     - 국가·지방자치단체 및 공공단체 (소속 직원의 경우)
+     - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+     - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+   - 재직기간 산정: 
+     - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+     - 중복되는 기간은 이중으로 합산하지 않음
+3. **전형요소 반영비율**:
+   - 서류: 70%
+   - 면접: 30%
+4. **제출서류**:
+   - 고교 졸업(예정)자: 고교 학교생활기록부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+   - 검정고시출신자: 
+     - 검정고시 합격증서 사본 또는 합격증명서
+     - 검정고시 성적증명서
+     - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+   - 외국고교 졸업(예정)자: 
+     - 공증받은 외국고교 졸업(예정)증명서
+     - 공증받은 외국고교 성적증명서
+     - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+5. **평가영역 및 배점**:
+   - 평가영역: 공동체역량, 학업역량, 전공적합성
+   - 평가배점:
+     - 공동체역량: 1등급 140점, 2등급 129.5점, 3등급 119점, 4등급 108.5점, 5등급 98점
+     - 학업역량: 1등급 280점, 2등급 259점, 3등급 238점, 4등급 217점, 5등급 196점
+     - 전공적합성: 1등급 280점, 2등급 259점, 3등급 238점, 4등급 217점, 5등급 196점
+6. **동점자 처리기준**:
+   - 순위 1: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자
+   - 순위 2: 영어교과 전 과목 등급 평균 상위자
+   - 순위 3: 국어교과 전 과목 등급 평균 상위자
+이러한 정보를 바탕으로 평생학습자전형에 지원하려는 학생들은 해당 조건을 충족시키고, 필요한 서류를 준비하여 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직기간에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 구조가 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 모든 평가 기준에서 매우 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 일치하지 않으며, 맥락에 맞지 않는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로는 이해하기 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.6738227465958785</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가·지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+     ※ 단, 4대 보험 가입 대상 사업체가 아닌 1차 산업 종사자는 국가·지방자치단체가 발급하는 공적증명서 확인을 통해 인정할 수 있음
+2. 재직기간:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 각 모집단위별 실기고사 장소에 대한 내용을 담고 있습니다. 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 내용이 전혀 반영되지 않았습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 원본 텍스트의 내용과 상충하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 모집단위에 대한 정보를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 맞지 않으며, 주제와도 관련이 없습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절성으로 인해 전체적인 이해에 방해가 됩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.3751416022696176</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 각각의 모집단위에 따라 다른 장소에서 진행됩니다. 예를 들어:
+1. **체육학과**:
+   - 제자리 멀리뛰기, 메디신볼 던지기, Z-런 등은 체육학과에서 실시될 것입니다.
+2. **레저스포츠학과**:
+   - 제자리 멀리뛰기와 Z-런은 레저스포츠학과에서 실시됩니다.
+3. **태권도학과**:
+   - 품새, 시범, 겨루기는 태권도학과에서 실시될 것입니다.
+具体的来说，你可以根据不同的专业和项目前往相应的学院进行实考。例如：
+1. 体育学系的考生需要去体育学系参加立定跳远、 medicine ball 投掷和 Z-run 等项目的考试。
+2. 娱乐体育学系的考生则需要到娱乐体育学系参加立定跳远和 Z-run 的考试。
+3. 武术系的考生需要到武术学系参加品势、示范和对练等项目的考试。
+建议你查看具体的招生简章或联系学校以获取更详细的信息。</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않고, 일반적인 절차와 준비사항에 대한 설명으로 대체하고 있습니다. 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 내용이 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있습니다. 원본 텍스트는 특정 날짜와 시간에 대한 정보를 제공하지만, 생성된 응답은 일반적인 절차에 대한 설명으로 일관성이 부족합니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 핵심 질문인 대기실 및 입실시간에 대한 정보는 포함되어 있지 않아 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않고, 일반적인 정보로 대체하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.4426272390115962</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+1. **모집단위 및 종목**:
+   - 모집단위: 체육학과
+   - 종목별 배점(비율):
+     - 제자리 멀리뛰기: 240점 (24%)
+     - 메디신볼 던지기: 243점 (23%)
+     - Z-런: 230점 (23%)
+2. **일정**:
+   - 실기고사 일정은 정확히 제공되지 않았지만, 일반적으로 실기고사는 원서접수 후 일정 시간이 경과한 뒤에 진행됩니다.
+3. **준비사항**:
+   - 각 종목별로 필요한 준비물과 규칙을 확인해야 합니다 (예: 제자리 멀리뛰기는 특정 거리를 뛰어야 함, 메디신볼 던지는 정확한 방식으로 던져야 함 등).
+4. **장소**:
+   - 실기고사는 대학 내에서 진행되며, 구체적인 장소는 공지일정에 따라 입학 안내 홈페이지를 통해 확인할 수 있습니다.
+따라서 체육학과의 실기고사를 위해서는 해당 모집단위와 종목을 선택하고, 일정에 맞춰 준비물과 규칙을 숙지한 후, 지정된 장소로 이동하여 시험을 치르게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 전화 통보 여부에 대한 일반적인 정보를 제공하지만, 원본 텍스트에서 명시된 "전화로 개별 연락을 하지 않는다"는 사실을 무시하고 있습니다. 또한, 3차 이후에만 전화 통보가 이루어진다는 점을 간과하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 전화 통보가 이루어지지 않는다고 명확히 언급하고 있지만, 생성된 응답은 전화 통보가 있을 수 있다고 제안하고 있습니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 수시 충원 합격자 발표와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 전화 통보 여부에 대한 직접적인 답변을 제공하지 않고 있습니다. 그러나 관련된 절차에 대한 설명은 유용합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 일관성이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 전화 통보가 이루어질 수 있다고 언급한 부분은 명백한 부정확성입니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하지만, 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용이지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.6135033687633564</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2024년도 수시 충원 합격자 발표 후에 전화 통보 여부는 일반적으로 대학마다 다르므로 정확한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 연락처로 직접 문의하는 것이 좋습니다. 
+일반적인 절차는 다음과 같습니다:
+1. 합격자 발표가 공식적으로 이루어진 후, 대학 입학처 홈페이지에서 합격자 명단을 확인합니다.
+2. 충원 합격자 명단에 포함되어 있다면, 일반적으로 이메일이나 문자 메시지로 먼저 알림이 옵니다.
+3. 일부 대학에서는 추가적인 전화 통보를 통해 합격 사실을 알려주는 경우도 있습니다.
+하지만 특정한 대학의 정책은 공식 홈페이지나 연락처를 통해 확인해야 합니다. 주어진 정보에 따르면, 이 대학에서는 충원 합격자 발표 후 2024년 2월 15일 오후 7시까지 등록금을 납부해야 하며, 이후 일정한 기간 동안 합격 사실을 확인할 수 있습니다. 따라서 전화 통보 여부는 이 시점에서 아직 확실하지 않습니다.
+추가 정보를 얻기 위해서는 다음과 같은 방법을 사용해 보세요:
+- 대학 입학처 웹사이트 확인
+- 대학 입학처 연락처로 직접 문의하기
+이러한 절차를 통해 가장 정확하고 최신의 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 없다는 사실을 언급하고 있지만, 2024학년도 모집 인원과 경쟁률에 대한 구체적인 수치를 제공하고 있습니다. 그러나 이러한 정보는 2023학년도와 직접적인 관련이 없으며, 추론에 기반한 내용이므로 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 2023학년도 수시모집 결과에 대한 정보가 없음을 명확히 하고 있지만, 2024학년도에 대한 정보로 추론을 시도하는 부분에서 일관성이 부족합니다. 2023학년도와 2024학년도 정보를 혼합하여 제시하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 2023학년도 수시모집 결과에 대한 질문에 대해 관련된 정보를 제공하고 있으며, 2024학년도 모집 상황을 통해 추론을 시도하는 점에서 관련성이 높습니다. 그러나 직접적인 정보가 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 여러 정보를 포함하고 있지만, 2023학년도와 2024학년도 정보를 혼합하여 제시함으로써 논리적 흐름이 약간 어색해 보입니다. 정보의 연결성이 부족하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 응답은 2023학년도 수시모집 결과에 대한 정보가 없다는 점을 정확히 반영하고 있지만, 2024학년도에 대한 정보는 사실이 아닐 수 있으며, 추론에 기반한 내용이므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 응답은 여러 차원에서 중간 정도의 품질을 보이고 있습니다. 일부 정보는 유용하지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답은 주제와 관련된 내용을 다루고 있지만, 2024학년도에 대한 정보가 2023학년도와의 관련성을 명확히 하지 않으므로 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.7679983575490088</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 자료에서 직접적으로 확인할 수 없습니다. 하지만, 2024학년도의 모집 상황을 통해 일부 추론이 가능합니다.
+2024학년도 경찰행정학과의 모집 인원은 7명이며, 지원 인원은 29명으로, 경쟁률은 4.14입니다. 충원 합격자는 7명으로 전액 채워졌습니다.
+이 정보를 바탕으로 추론하면:
+- 2023학년도에도 대략 비슷한 수준의 모집 인원과 지원 인원, 경쟁률이 유지되었을 가능성이 높습니다.
+- 충원 합격자 수도 7명으로 전액 채워졌을 것으로 예상됩니다.
+하지만 정확한 2023학년도 수시모집 결과는 공식 발표나 입학처 웹사이트를 참조해야 합니다. 자세한 정보는 https://ipsi.deu.ac.kr/main.do 링크에서 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않은 학생도 지원할 수 있다고 주장하지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 생성된 응답은 원문과 상충되는 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문이 명시적으로 수능 응시를 요구하는 반면, 생성된 응답은 수능을 응시하지 않아도 지원할 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주제의 핵심인 정시모집 지원자의 수능 응시 여부에 대한 질문에 대한 직접적인 답변이 아닙니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하지만, 원문과의 논리적 연결이 부족합니다. 원문이 요구하는 수능 응시 여부와 관련된 정보가 아닌 다른 전형에 대한 설명으로 흐름이 일관되지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 완전히 반대되는 내용을 포함하고 있습니다. 수능에 응시하지 않은 학생이 지원할 수 있다는 주장은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 상충으로 인해 전체적인 맥락에서 부적절한 부분이 많습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.4901880706896666</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2024학년도 입학사정관제와 실기/실적 위주전형에서는 수능을 응시하지 않은 학생도 지원이 가능합니다. 특히, 다음과 같은 전형들은 수능 응시 여부에 관계없이 지원할 수 있습니다:
+1. **학생부종합(평생학습자전형/성인학습자전형/재직자전형)**: 이들 전형은 학생부와 면접을 주요 평가 기준으로 하므로, 수능 응시 여부에 상관없이 지원 가능합니다.
+2. **나군 학생부종합(조기취업형계약학과전형)**: 이 전형도 서류 평가와 면접을 통해 평가되므로 수능 없이 지원할 수 있습니다.
+3. **다군 수능(일반학생전형)의 일부 모집단위**: 예를 들어, 인문사회과학대학, 상경대학 등의 모집단위에서는 수능 성적이 아닌 다른 요소들에 따라 평가되므로 수능 응시 여부에 관계없이 지원 가능합니다.
+따라서, 수능을 응시하지 않은 학생도 이러한 전형들을 통해 지원할 수 있습니다. 하지만 특정 전형이나 모집단위에서는 수능 성적이 반영될 수 있으므로, 해당 전형의 세부 사항을 꼭 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났다면 정시 지원이 어렵다고 주장하고 있지만, 원문에서는 졸업 시기와 상관없이 정시 지원이 가능하다고 명시하고 있습니다. 따라서 사실과 상충하는 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문은 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 지원이 어렵다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지난 경우의 지원 방법에 대한 정보를 제공하고 있지만, 원문에서 질문한 내용과는 다소 벗어난 정보입니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성이 부족하고, 정확성 또한 떨어지기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하는 내용을 담고 있어 적절하지 않습니다. 원문에서의 의미와 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.648930628453095</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 일반적으로 고등학교 졸업 후 10년이 지났다면 정시모집의 경우 지원이 어려울 것으로 보입니다. 대부분의 대학은 고등학교 졸업생을 대상으로 하고 있으며, 성인 학습자 전형이나 특별전형 등에 해당하는 경우가 많습니다.
+만약 10년 이상 경과한 경우에는 다음과 같은 방법들을 고려해볼 수 있습니다:
+1. **성인학습자전형**: 일부 대학에서는 만 30세 이상의 성인 학습자를 대상으로 하는 전형을 운영합니다.
+2. **평생교육전형**: 특정 교육기관에서 제공하는 평생교육 과정을 이수한 후 지원할 수 있는 경우가 있습니다.
+3. **특별전형**: 예를 들어, 경력자 전형이나 재직자 전형 등이 있을 수 있습니다.
+具体的来说，如果你高中毕业已经超过10年，通常情况下你可能无法直接通过常规的高考招生途径申请大学。大多数大学主要面向刚从高中毕业的学生开放。但是，你可以考虑以下几种方式：
+1. **成人学士学位入学**：一些大学设有针对30岁以上成人的特殊入学计划。
+2. **终身教育课程**：参加特定教育机构提供的终身教育课程后可以申请。
+3. **特别招生类型**：例如在职人员招生、工作经验生等。
+建议你访问目标大学的官方网站或直接联系学校的招生办公室，了解是否有适合你的特殊招生途径。此外，也可以咨询教育顾问获取更详细的指导和帮助。</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 비고 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.8170736526114112</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00~16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00~16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+이 일정들은 동의대학교 2024학년도 정시모집의 주요 단계를 포함하고 있으며, 각 단계별로 필요한 준비와 제출 사항을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 포인트를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.8540843782458637</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 
+          제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00~16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00~16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 등록: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+이 일정들은 동의대학교 2024학년도 정시모집의 주요 단계를 포함하고 있으며, 각 단계별로 필요한 준비와 절차가 있습니다.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있다고 주장하고 있지만, 원본 텍스트에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 수능 미응시자가 지원 가능한 전형이 있다고 주장하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 수능 미응시자의 지원 불가능성을 무시하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나름의 흐름을 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 내용이 서로 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있습니다. 수능 미응시자가 지원할 수 있다는 주장은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 수능 미응시자의 지원 가능성을 주장하는 것은 명백히 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성과 관련성이 떨어져 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.5878853545086149</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서는 수능 미응시자도 지원이 가능한 전형으로 "학생부종합(조기취업형계약학과전형)"이 있습니다. 이 전형의 특징은 다음과 같습니다:
+1. **지원 자격**: 고교 졸업(예정)자, 검정고시 출신자 또는 외국고교 졸업(예정)자가 가능합니다.
+2. **제출서류**:
+   - 고교 졸업(예정)자는 고교 학교생활기록부 1부를 제출해야 합니다.
+   - 검정고시 출신자는 검정고시 합격증서 사본 또는 합격증명서, 검정고시 성적증명서를 제출해야 합니다.
+   - 외국고교 졸업(예정)자는 공증받은 외국고교 졸업(예정)증명서와 성적증명서를 제출해야 합니다.
+3. **평가 요소**:
+   - 서류 평가: 학생부 교과성적, 진로 관련 활동 등이 평가됩니다.
+   - 면접 평가: 지원 동기 및 학업 계획, 학업역량, 전공적합성 등을 평가합니다.
+4. **전형 요소 반영 비율**: 서류 60% + 면접 40%
+따라서 수능 미응시자도 이 전형을 통해 지원이 가능하며, 필요한 서류를 준비하여 제출하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 2024학년도에 대한 정보를 제공하고 있지만, 전년도인 2023학년도에 대한 정보는 잘못 해석하고 있습니다. 원문에서는 2023학년도 전자공학과의 충원 합격이 36명까지 이루어졌다고 명시되어 있으나, 생성된 응답에서는 2024학년도에 대한 정보만을 언급하고 있습니다. 이로 인해 사실관계가 왜곡되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 부족합니다. 원문에서는 2023학년도에 대한 구체적인 정보를 제공하고 있지만, 생성된 응답은 2024학년도에 대한 정보로만 초점을 맞추고 있어 원문과의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 2024학년도에 대한 정보를 제공하고 있지만, 질문은 2023학년도에 대한 충원 합격에 대한 것이므로 관련성이 낮습니다. 원문에서 제공된 정보와의 관련성이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 2023학년도와 2024학년도 정보를 혼합하여 제시함으로써 일관된 주제를 유지하지 못하고 있습니다. 이로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 2023학년도에 대한 정확한 정보를 제공하지 않으며, 원문에서 명시된 사실을 왜곡하고 있습니다. 2024학년도에 대한 정보는 있지만, 질문의 맥락과 맞지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실관계, 일관성, 관련성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 질문의 맥락과 맞지 않는 정보가 포함되어 있어 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 정보의 혼합으로 인해 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.6755230563201157</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터만 제공되어 있습니다. 2023학년도의 데이터는 직접 확인할 수 없습니다. 하지만, 2024학년도 전자공학과의 충원 합격 정보를 보면:
+- 최초합격자는 1차에서 모두 충원되었습니다 (충원 합격 (후보순위)은 36).
+- 최종등록자 중에서도 1차에서 25명이 충원되었습니다.
+따라서, 2024학년도의 경우 전자공학과는 최초합격자와 최종등록자의 경우 모두 1차에서 충원 합격이 이루어졌습니다. 하지만 전년도 데이터가 없어 정확한 정보를 제공하기 어렵습니다. 필요하시다면 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 참조해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호를 명시적으로 언급하지 않고 있으며, 제공된 정보와 상충하는 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 전화번호에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 내용과 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 공식 웹사이트를 방문하라는 제안을 포함하고 있지만, 원본 텍스트의 핵심 정보인 전화번호에 대한 직접적인 답변이 없기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 언어가 한국어가 아닌 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 전화번호에 대한 정보가 누락되어 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 전화번호에 대한 정보가 없다는 주장은 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 원본 텍스트와의 관련성이 부족하여 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.6397941128971986</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。建议您访问东义大学官网（https://ipsi.deu.ac.kr/main.do）上的联系方式页面，或者直接在官网上查找联系入学处的具体方式和电话号码。
+如果您需要进一步的帮助或有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통화가 되지 않을 경우의 절차를 설명하고 있지만, 원본 텍스트에서 언급된 '등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다'는 중요한 사실을 누락하고 있습니다. 따라서 일부 사실이 누락되어 점수를 낮추었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 전화 통화가 되지 않을 경우의 처리 방식에 대한 정보가 다소 상충하는 부분이 있습니다. 원본 텍스트의 핵심 내용과 일치하지 않는 부분이 있어 점수를 낮추었습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전화 통화가 되지 않을 경우의 절차에 대한 정보가 추가되어 있어 약간의 주제 확장이 있습니다. 그러나 여전히 관련성이 높아 점수를 부여했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수를 약간 낮추었습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 절차가 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 점수를 낮추었습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 중요한 사실을 누락하고 있어 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 응답의 질이 다소 부족합니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 점수를 낮추었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 내용이 누락되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.6539422923556309</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 19:00부터 20일(화) 18시까지는 합격자 발표 및 등록금 납부 충원합격자 3차 이후 (개별 전화 통보) 발표 기간입니다. 이 기간 동안 학교에서는 개별 전화 통보를 통해 합격자를 알립니다.
+만약 전화 통화가 되지 않는 경우, 다음과 같은 절차로 처리될 수 있습니다:
+1. **홈페이지 확인**: 합격자 발표는 홈페이지에서 개별 조회 가능합니다.
+2. **고지서 출력**: 고지서를 홈페이지에서 직접 출력하거나 입학관리팀에서 받을 수 있습니다.
+3. **등록장소 방문**: 등록장소로 학교 지정은행에 방문하여 등록금을 납부해야 합니다.
+따라서, 전화 통화가 되지 않더라도 위의 방법들을 통해 합격 여부를 확인하고 필요한 절차를 완료할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 농어촌학생전형에 필요한 서류에 대한 정보가 잘못되었거나 누락된 부분이 많습니다. 예를 들어, 검정고시 관련 서류는 원본 소스에 언급되지 않았고, 6년 과정과 12년 과정에 대한 구체적인 서류 목록이 누락되었습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 소스와 일치하지 않는 정보가 포함되어 있으며, 특히 필요한 서류의 종류와 수량에 대한 정보가 상충합니다. 원본 소스의 내용과 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 농어촌학생전형에 대한 서류를 다루고 있지만, 원본 소스에서 요구하는 서류와는 다른 내용을 포함하고 있어 관련성이 떨어집니다. 그러나 여전히 주제와 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 소스와의 불일치로 인해 전체적인 일관성이 떨어집니다. 서류 목록이 명확하게 정리되어 있지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 소스의 사실과 일치하지 않는 정보가 많아 정확성이 낮습니다. 특히, 필요한 서류의 종류와 수량에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 관련성도 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 소스의 맥락과는 다소 어긋나는 부분이 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.6843843543376551</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 다음과 같은 서류를 제출해야 합니다:
+1. 고교 학교생활기록부 1부 (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+2. 검정고시 합격증서 사본 또는 합격증명서 1부 (검정고시출신자만 필요)
+3. 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음, 교육기관, 공공기관, 무인민원발급기, 인터넷 발급 가능) 
+4. 학교생활기록부 대체 서류(제출여부 선택 가능)
+추가적으로, 외국고교 졸업(예정)자는 다음과 같은 추가서류를 제출해야 합니다:
+1. 공증받은 외국고교 졸업(예정)증명서 1부
+2. 공증받은 외국고교 성적증명서 1부 
+3. 학교생활기록부 대체 서류(제출여부 선택 가능)
+위와 같은 서류들은 원본 제출을 원칙으로 합니다. 단, 원본 재발급이 불가능한 유일본의 경우 원본 제시 후 원본대조필이 가능합니다.
+또한, 최종 등록자 중 외국고교 졸업예정자는 2024년 2월 16일까지 졸업증명서(아포스티유 확인서 또는 영사확인 발급)를 추가로 제출해야 합니다.
+위와 같은 서류들을 정확하게 준비하여 제출하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 제출해야 할 서류 목록에서 중요한 서류들을 누락하고 있습니다. 예를 들어, 초등학교, 중학교, 고등학교의 학교생활기록부가 포함되어야 하지만, 생성된 응답에서는 고교 졸업증명서와 주민등록초본만 언급하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공합니다. 원본 텍스트에서는 여러 서류가 필요하다고 명시되어 있지만, 생성된 응답에서는 추가적인 서류가 필요하지 않다고 잘못 언급하고 있습니다. 이로 인해 일관성 점수도 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 필요한 서류의 전체 목록을 제공하지 않기 때문에 완전한 관련성을 갖추지 못했습니다. 그러나 주제에 대한 언급은 적절합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 정보가 누락되어 있어 전체적인 일관성이 떨어집니다. 따라서 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 필요한 서류를 누락하고 있습니다. 이로 인해 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답이 부족하여 전반적인 품질 점수도 낮습니다. 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 필요한 서류의 전체 목록을 제공하지 않기 때문에 의미의 완전성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.8505645363500782</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>12년 과정에서 농어촌학생전형으로 지원시 다음과 같은 서류를 제출해야 합니다:
+- 고교 졸업증명서, 
+- 지원자 본인 초본 1부
+이 외에 추가적인 서류는 필요하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 명확히 반영하지 않고 있으며, 정보가 없다는 점을 강조하고 있습니다. 이는 원문과 상충되는 내용입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 기회균등 전형의 존재 여부에 대한 모호한 언급이 있습니다. 이는 원문에서 명확히 언급된 내용과 상충합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있지만, 기회균등 전형의 존재 여부에 대한 명확한 답변을 제공하지 않아 다소 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원문과는 다른 언어로 작성되어 있어 다소 어색함이 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결이 부족하여 일관성이 떨어집니다. 원문에서의 명확한 사실을 반영하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정확한 정보를 반영하지 않고 있으며, 기회균등 전형의 존재 여부에 대한 잘못된 해석을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 원문과의 일치성이 떨어져 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.5375070813901569</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到2024年在普通入学考试(정시모집)中的低收入机会均等招生类型。因此，根据现有信息无法确定是否取消了该类型的招生。
+不过，如果要获取最准确的信息，建议直接访问以下网站进行确认：
+https://ipsi.deu.ac.kr/main.do
+或者联系学校招生办公室以获得最新的官方通知和政策更新。</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2.5등급이 115점으로 반영된다고 언급하고 있지만, 원문에서는 수능 최저등급의 절사 여부에 대한 정보가 없다고 명시하고 있습니다. 따라서, 응답의 일부 내용은 원문과 일치하지 않으며, 정확한 정보가 아닐 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 2.5등급이 절사되지 않는다고 주장하지만, 원문에서는 절사 여부에 대한 정보가 없다고 명시하고 있습니다. 이로 인해 응답의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있으며, 수능 최저등급과 관련된 정보를 제공합니다. 그러나 원문에서 강조한 절사 여부에 대한 정보는 포함되어 있지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원문과의 연결성이 약간 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 2.5등급이 115점으로 반영된다고 주장하지만, 원문에서 제공된 정보와는 다소 차이가 있습니다. 따라서 정확성 점수가 낮아집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 맞는 정보를 제공합니다. 그러나 원문에서 강조한 절사 여부에 대한 정보가 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하여 약간의 이해도를 떨어뜨릴 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.5623192501161414</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2.5등급은 등급점수로 표현할 때 115점입니다 (평균적으로). 수능 영어영역 등급에 따른 점수 표에서 확인할 수 있습니다.
+만약 사탐(사회탐구 또는 과학탐구 또는 직업탐구 중 2개 과목)의 평균이 2.5등급인 경우, 이는 115점으로 반영됩니다. 절사되는 것은 아닙니다. 즉, 2.5등급은 그대로 115점을 받게 됩니다.
+따라서, 사탐 2 과목의 평균이 2.5등급이라면, 이는 115점으로 반영되어 합격 점수 계산에 사용됩니다.</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시 충원 합격자 발표의 차수와 날짜에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "학생들은 홈페이지에서 개별적으로 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다."라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 일치하지만, 추가된 정보가 원본 텍스트와 일관되지 않아서 일부분에서 일관성이 떨어집니다. 특히, 고지서 수령 방법에 대한 언급은 원본에 없으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 정시 충원 합격자 발표에 대한 정보를 잘 다루고 있습니다. 추가된 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 차수에 대한 정보가 명확하게 나열되어 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 날짜와 발표 차수에 대한 정보는 정확하지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 왜곡할 수 있는 가능성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 추가된 정보가 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.740852017352825</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2024년 정시 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 충원 합격자 발표**: 2024년 2월 14일 (수) 09:00
+2. **2차 충원 합격자 발표**: 2024년 2월 15일 (목) 09:00
+3. **3차 이후 충원 합격자 발표**: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+각 차례별로 합격자 발표가 이루어지고, 학생들은 홈페이지에서 개별적으로 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 성적이 4.6이라는 점수를 기준으로 여러 요소를 고려해야 한다고 언급하고 있지만, 제공된 데이터에서 수능 성적의 평균과 분산에 대한 정보가 잘못 해석되었습니다. 예를 들어, 최초 합격자의 평균 점수와 최종 등록자의 평균 점수를 비교할 때, 4.6이 평균보다 낮다고 언급했으나, 이는 잘못된 정보입니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 수능 성적의 위치에 대한 해석에서 일관성이 부족합니다. 원본 텍스트는 4.6이 평균을 약간 상회한다고 명시했으나, 생성된 응답에서는 이를 반대로 해석하고 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 e-비즈니스학과의 정시 모집에 대한 정보를 제공하며, 관련된 요소들을 고려하고 있습니다. 그러나 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족하여 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 완전한 일관성을 제공하지는 못합니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 성적에 대한 해석에서 오류가 있으며, 원본 텍스트의 사실과 일치하지 않는 부분이 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 여러 차원에서 평가했을 때, 생성된 응답은 유창성과 관련성에서 높은 점수를 받았으나, 사실성과 정확성에서 낮은 점수를 받았습니다. 따라서 다차원 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 해석에서 오류가 있어 완전한 적합성은 아닙니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 따라서 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.6162660162683486</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시 모집에 대한 자세한 정보를 제공하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **모집단위와 경쟁률**: e비즈니스학과의 모집인원, 지원 인원, 그리고 경쟁률을 확인해야 합니다. 예를 들어, 만약 모집인원이 10명이고 지원 인원이 89명이라면 경쟁률은 매우 높습니다.
+2. **성적 평균 및 분산**: 제공된 데이터에서 e비즈니스학과의 최초합격자들의 수능 성적을 확인할 수 있습니다. 예를 들어, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 308.58이며, 표준 편차는 10.96입니다.
+3. **성적 위치**: 제공된 평균과 분산을 바탕으로, 수능 성적이 4.6이면 이 점수는 어느 정도의 위치에 있는지 확인해야 합니다. 예를 들어, 표준 변환 점수가 308.58이고 표준 편차가 10.96이라면, 4.6은 평균보다 상당히 낮습니다.
+4. **전형요소**: e비즈니스학과의 전형요소 반영 비율을 확인해야 합니다. 현재 정보에서는 수능 성적이 100% 반영되는 것으로 보입니다.
+5. **경쟁률 및 충원 합격자**: 최종 등록자의 경쟁률과 충원 합격자를 확인하여, 추가로 지원할 경우의 가능성도 판단해야 합니다.
+따라서, 수능 성적이 4.6이라면 이 점수는 평균보다 상대적으로 낮은 위치에 있으므로, 정시 전형으로 추가 합격하기 위해서는 다음과 같은 조건을 충족해야 할 것입니다:
+- 모집인원이 많지 않아 경쟁률이 낮아야 합니다.
+- 지원자의 수가 적어야 합니다.
+따라서, 현재 정보만으로는 확실한 답변을 드리기 어렵습니다. 정확한 판단을 위해서는 해당 단과대학의 2024학년도 모집요강 및 최종 등록자 성적 등을 확인하시거나, 입학처에 직접 문의하시는 것이 좋습니다.
+[입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)를 참조하여 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 경쟁률, 충원 합격자 수, 지원자의 등급 평균 등을 포함하고 있지만, 이러한 정보는 원본 텍스트에 명시되어 있지 않습니다. 원본 텍스트는 정시 등급 5.3에 대한 합격 가능성을 언급하고 있으며, 생성된 응답은 추가적인 정보를 제공하지만, 원본의 핵심 사실과는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 경쟁률과 충원 합격자 수와 같은 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 주제와는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보가 포함되어 있어 주제에서 약간 벗어날 수 있습니다. 그러나 여전히 e비즈니스학과의 합격 가능성에 대한 논의와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와는 다른 추가적인 사실을 포함하고 있으며, 이는 정확성에 영향을 미칩니다. 원본의 핵심 사실을 반영하지 않기 때문에 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 일관성 및 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 추가적인 정보가 포함되어 있어 약간의 의미적 차이가 발생할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성에는 다소 부족함이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.6144498488724257</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률은 10.56이며, 충원 합격자는 33명입니다. 지원자의 등급 평균은 3.88이고, 표준 편차는 0.14입니다.
+등급 5.3은 등급 평균보다 약간 높습니다. 그러나 e비즈니스학과의 경쟁률이 매우 높기 때문에, 단순히 등급만으로 최초 합격을 보장받기는 어렵습니다. 등급뿐만 아니라 수능 영역별 표준점수, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합 등의 요소도 고려됩니다.
+등급 5.3은 상당히 높은 등급이며, 이는 경쟁률이 높은 e비즈니스학과에서 최초 합격 가능성은 있지만, 확실한 것은 아닙니다. 지원자의 총점이나 다른 평가 요소들이 중요하게 작용할 수 있습니다.
+따라서, 정확한 최초 합격 가능성을 판단하기 위해서는 지원자의 전체 성적을 고려해야 합니다. 만약 등급이 높더라도 경쟁률이 매우 높은 만큼, 추가적인 준비와 노력이 필요할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 38번의 합격 가능성에 대한 여러 요소를 고려하고 있지만, 원본 텍스트에서 명시된 "예비 38번이라면 예비 합격할 가능성이 낮습니다"라는 핵심 사실을 명확히 반영하지 못하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 예비 38번의 합격 가능성에 대한 결론이 원본과 일치하지 않습니다. 원본에서는 가능성이 낮다고 명시했지만, 생성된 응답은 여러 요소를 고려해야 한다고 하여 모호한 결론을 내리고 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 합격 가능성에 대한 질문에 대해 여러 관련 요소를 제시하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 메시지를 직접적으로 다루지 않기 때문에 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 여러 요소를 체계적으로 나열하고 있어 논리적인 흐름이 있습니다. 그러나 원본 텍스트의 핵심 메시지와의 연결이 약해 약간의 일관성 부족이 느껴지므로 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 예비 38번의 합격 가능성에 대한 명확한 판단을 제공하지 않기 때문에 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 사실성과 일관성에서 다소 부족함이 있어 종합적인 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 맥락과 관련된 내용을 다루고 있지만, 예비 38번의 합격 가능성에 대한 명확한 판단이 부족하여 의미적 적절성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉽게 작성되어 있어 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.5496716045109656</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>2024학년도 입시 정보를 바탕으로 분석해보겠습니다. 하지만 정확한 예비합격 가능성 판단을 위해서는 여러 요소들을 고려해야 합니다:
+1. **경쟁률**: e비즈니스학과의 경쟁률은 매우 높습니다. 지원 인원이 많고 모집인원이 적기 때문에, 평균적인 점수보다 더 높은 점수가 필요할 수 있습니다.
+2. **점수 분포**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 308.58
+   - 영어 등급의 평균: 3.66
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 426.25
+3. **자기소개서 및 면접**: e비즈니스학과는 실무 경험이나 관련 활동 경험 등을 중요하게 평가하기 때문에, 자기소개서와 면접에서 좋은 성적을 받는 것이 중요합니다.
+4. **전형별 특성**:
+   - 가군 수능(일반학생전형): 수능 점수가 주요 요인
+   - 나군 수능(일반학생전형): 수능 점수와 서류, 면접 등이 복합적으로 평가됨
+5. **추천서 및 추천사**: 일부 전형에서는 추천서나 추천사를 요구하기 때문에 이도 고려해야 합니다.
+현재 정보만으로 판단하면 38명 중에서 예비합격 가능성은 높지 않을 것으로 보입니다. 평균 점수보다 약간 높아야 할 것 같습니다. 하지만 최종 결정을 내리기 위해서는:
+- 정확한 지원자들의 점수 분포를 확인해야 합니다.
+- 자기소개서와 면접 준비가 잘 되어 있는지 확인해야 합니다.
+추천드리면, 입학사정관의 평균 점수보다 약간 높은 수준에서 지원하는 것이 좋을 것 같습니다. 또한, 자기소개서와 면접 준비를 철저히 해두는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 경쟁률에 대한 정보를 포함하고 있으며, 3.44 등급이 평균 이상의 점수라는 점도 언급하고 있습니다. 그러나 "합격할 확률은 낮지만, 불가능한 것은 아니다"라는 표현은 다소 모호하게 느껴질 수 있습니다. 전반적으로 사실에 기반한 내용이지만, 약간의 주관적인 해석이 포함되어 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 간호학과의 경쟁률과 성적 외 요소의 중요성을 강조하고 있습니다. 다만, "합격할 확률은 낮지만 불가능한 것은 아니다"라는 부분은 원본의 내용과 약간의 차이를 보일 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과에 대한 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 모든 주요 포인트를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름이 잘 유지되고 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다. 전체적으로 일관된 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, "합격할 확률은 낮지만 불가능한 것은 아니다"라는 표현이 다소 주관적일 수 있습니다. 그러나 전반적으로 정확한 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 좋은 성과를 보이고 있습니다. 다만, 약간의 주관적인 해석이 포함되어 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현이 다소 모호하게 느껴질 수 있습니다. 전반적으로 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.5992972724926623</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>3.44 등급으로 동의대학교 간호학과에 합격할 확률은 낮지만, 불가능한 것은 아닙니다. 간호학과는 경쟁률이 높은 곳이므로, 성적 외 요소들이 중요하게 작용합니다.
+1. **성적**: 3.44 등급은 평균 이상의 점수입니다. 하지만 동의대학교 간호학과의 경우, 지원 인원이 많아 경쟁률이 높습니다. 평균적인 성적이지만, 다른 요소들이 잘 보완되면 가능성이 있습니다.
+2. **학생부**: 학생부 종합평가에서 공동체역량, 학업역량, 전공적합성 등 다양한 영역을 평가합니다. 활동 기록이나 진로 탐색 과정이 뛰어나다면 이점이 반영될 수 있습니다.
+3. **면접**: 면접에서도 지원자의 적성을 평가합니다. 자신감 있는 답변과 전공에 대한 열정을 보여주면 긍정적인 점수를 받을 수 있습니다.
+4. **추천서 및 자기소개서**: 추천서나 자기소개서에서 자신의 장점과 특기를 잘 표현하면 도움이 될 수 있습니다.
+5. **기타 활동**: 봉사활동, 동아리 활동 등 다양한 경험을 통해 얻은 역량을 강조할 수 있습니다.
+결론적으로, 3.44 등급으로도 합격 가능성은 있지만, 성적 외 요소들이 중요하게 작용합니다. 지원서 작성 시 각 영역에서 잘 준비하고, 면접에서도 자신감 있게 대응한다면 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 영어 등급과 관련된 정보에서 여러 가지 부정확한 내용을 포함하고 있습니다. 예를 들어, 간호학과의 수능 영어 등급 평균이 1.86이라는 정보는 원본 텍스트에 명시되어 있지 않으며, 수능 4개 영역 등급 평균이 3.12라는 정보도 원본과 일치하지 않습니다. 이러한 부정확성으로 인해 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 예를 들어, 경쟁률, 모집인원, 지원인원 등의 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 원본과의 일관성을 해칩니다. 
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 간호학과의 합격 가능성에 대한 정보를 다루고 있습니다. 그러나 일부 정보는 원본 텍스트와 관련이 없거나 불필요한 세부사항이 포함되어 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 정보의 흐름이 다소 불연속적입니다. 특히, 원본 텍스트의 핵심 내용과의 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 많습니다. 특히, 수능 등급과 관련된 수치들이 원본과 다르며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부정확한 정보가 많아 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 의미를 전달하려고 하지만, 일부 정보가 부정확하여 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 복잡한 문장은 이해를 어렵게 할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.5987398286703635</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 수능 영어 등급으로 보이는데, 동의대학교 간호학과에 대한 정보를 보면 다음과 같습니다:
+- 모집인원: 22명
+- 지원인원: 145명
+- 경쟁률: 6.59
+- 충원 합격 (후보순위): 37명
+수능 4개 영역 등급의 평균은 3.12이며, 표준 편차는 0.21입니다.
+2.52라는 점수가 4등급에 해당합니다. 간호학과의 수능 영어 등급 평균은 1.86이고, 표준 편차는 0.75입니다. 이 점수는 상대적으로 낮은 범위에 속하므로, 경쟁률이 높고 평균점수가 낮은 영어 등급을 가지고 있다면 합격 가능성은 낮아 보입니다.
+하지만 정시 모집에서 성적이 중요한 것은 아니며, 서류평가와 면접 등의 비중도 크기 때문에, 다음과 같은 요소들이 중요합니다:
+1. **서류평가**: 공동체역량, 학업역량, 전공적합성 등이 평가됩니다.
+2. **면접**: 지원동기 및 학업계획, 학업역량, 전공적합성 등을 평가받습니다.
+따라서, 2.52라는 점수만으로는 확실한 합격을 보장할 수 없습니다. 하지만 적극적인 서류 준비와 면접 대비를 통해 합격 가능성은 높일 수 있습니다. 
+추천 사항:
+- **서류 준비**: 학업역량과 전공적합성을 잘 보여줄 수 있는 증거를 첨부하십시오.
+- **면접 준비**: 지원동기와 학업계획, 그리고 간호학과에 대한 열정을 잘 표현할 수 있도록 준비하십시오.
+결론적으로, 2.52라는 점수만으로는 낮은 확률이지만, 적극적인 준비를 통해 합격 가능성은 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3.7의 성적이 간호학과에 합격할 가능성이 낮다고 언급하고 있지만, "합격하는 것은 가능하지만, 확률은 높지 않을 수 있습니다"라는 부분에서 모순이 발생합니다. 원문에서는 3.7이 평균 등급보다 낮다고 명확히 언급하고 있어, 이 부분에서 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 합격 가능성에 대한 언급에서 일관성이 부족합니다. 원문은 3.7이 낮은 성적이라고 명확히 말하고 있으나, 생성된 응답은 가능성을 언급하여 혼란을 초래합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 답변으로서 매우 관련성이 높습니다. 간호학과의 합격 가능성에 대한 다양한 요소를 고려하고 있으며, 원문에서 언급된 정보와 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 문장 간의 연결이 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, 3.7의 성적이 합격 가능성이 낮다고 명확히 언급한 원문과는 다소 차이가 있습니다. 이로 인해 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 관련성, 유창성, 일관성 등에서 좋은 점수를 받았습니다. 그러나 사실성과 정확성에서 약간의 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 내용을 담고 있습니다. 다만, 일부 표현에서 혼란을 줄 수 있는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다. 
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.6330666079806917</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>3.7의 평균적인 성적을 가진 경우에도 간호학과에 합격하는 것은 가능하지만, 확률은 높지 않을 수 있습니다. 간호학과는 일반적으로 높은 경쟁률을 가지고 있으며, 특히 간호학과 교직 인증 과정은 더욱 치열합니다.
+다음은 몇 가지 고려해야 할 사항입니다:
+1. **전형 유형**: 간호학과의 경우, 실기/실적 위주 전형이 일반적으로 많이 사용됩니다. 따라서 수능 점수보다는 실기 성적이 중요할 수 있습니다.
+2. **실기 성적**: 실기 성적을 확인해보세요. 만약 실기가 높다면 이 부분에서 유리한 점을 살릴 수 있습니다.
+3. **추천서 및 자기소개서**: 일부 학교에서는 추천서나 자기소개서를 요구할 수 있으므로, 이러한 자료가 준비되어 있다면 활용해보세요.
+4. **특기사항**: 특기사항이나 활동 경력이 뛰어난 경우 이를 강조하면 도움이 될 수 있습니다.
+5. **출결 및 교과 성적**: 출결 기록과 교과 성적이 좋은 경우, 서류평가에서 유리할 수 있습니다.
+6. **면접 준비**: 면접에서도 긍정적인 인상을 주는 것이 중요합니다. 간호사로서의 역량과 열정을 잘 표현해야 합니다.
+7. **추천서**: 가능하다면 교사나 관련 전문가로부터 추천서를 받는 것도 도움이 될 수 있습니다.
+결론적으로, 3.7의 성적만으로는 어렵게 합격할 가능성은 낮지만, 실기 성적이 높거나 특별한 경험이 있다면 기회는 열려 있을 수 있습니다. 전형 유형과 요구 사항을 잘 파악하고 준비를 철저히 하는 것이 중요합니다.
+추가적으로, 동의대학교 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)에서 최신 정보와 자세한 안내를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 성적에 대한 정보와 경쟁률에 대한 정보를 포함하고 있지만, 원본 텍스트에서 제시된 평균 등급(영어 2.34, 수능 3.37)과 비교할 때, 2.58의 성적이 평균보다 높다고 잘못 해석하고 있습니다. 또한, 평균 성적이 353.48이라는 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 2.58이 평균보다 높은 성적이라고 언급하고 있지만, 생성된 응답에서는 이 성적이 평균보다 낮다고 주장하고 있습니다. 이러한 상반된 정보는 일관성을 해칩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 포인트인 합격 가능성에 대한 직접적인 답변이 부족합니다. 그러나 경쟁률과 개별 평가에 대한 정보는 유용합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요인을 고려하여 합격 가능성을 논의하고 있지만, 정보의 흐름이 다소 불명확합니다. 특히, 성적에 대한 해석이 상반되어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히, 성적 해석과 평균 성적에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 다차원적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다. 특히, 성적 해석에서의 오류가 의미 전달에 영향을 미칩니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 성적 해석의 오류로 인해 혼란을 줄 수 있습니다. 정보가 명확하게 전달되지 않아 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.5974226820569842</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집인원은 110명이며, 지원 인원이 145명으로 경쟁률이 높습니다. 최종등록자의 평균 성적을 보면 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48입니다.
+당신의 성적이 2.58이라면, 이는 표준점수로 환산하면 대략 100점대 중반에서 낮은 110점대 초반 정도가 됩니다. 이 점수가 간호학과의 평균 성적(353.48)에 비해 상당히 낮습니다.
+따라서, 현재 정보만으로는 정시로 합격하기 어려울 것으로 보입니다. 하지만 다음과 같은 요인들을 고려해야 합니다:
+1. **경쟁률**: 6.59의 경쟁률을 감안하면, 성적이 높은 지원자가 많습니다.
+2. **개별 평가**: 서류와 면접 등에서 우수한 평가를 받으면 합격 가능성은 높아질 수 있습니다.
+3. **추천서 및 특기사항**: 추천서나 특기사항 등을 잘 준비하면 점수 외에도 긍정적인 인상을 줄 수 있습니다.
+결론적으로, 현재 성적만으로는 낮은 확률로 합격할 것으로 보입니다. 하지만 서류와 면접 등에서 우수한 평가를 받으면 가능성이 열리게 될 수 있으므로, 준비를 철저히 해보시는 것이 좋겠습니다.
+추천 드리는 조언:
+- **서류 준비**: 지원 자소서와 추천서 등을 잘 작성해 학교생활과 성격을 잘 표현하세요.
+- **면접 준비**: 면접 질문에 대한 답변을 미리 준비하고, 간호사로서의 열정과 적합성을 잘 전달할 수 있도록 하세요.
+더 궁금하신 점이 있으시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 예비 7번의 합격 가능성에 대한 정보가 부족하고, 경쟁률에 대한 구체적인 수치가 제공되지만, 원본 텍스트의 핵심 내용인 예비 7번의 낮은 합격 가능성을 명확히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있으며, 예비 7번의 합격 가능성에 대한 결론이 원본과 상충합니다. 원본에서는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 그에 대한 명확한 언급이 없습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 게임공학과의 모집 인원, 지원자 수, 경쟁률 등 관련 정보를 제공하고 있지만, 예비 7번의 합격 가능성에 대한 직접적인 답변이 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트의 핵심 메시지와의 연결이 부족하여 완전한 일관성을 갖추지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 있으며, 예비 7번의 합격 가능성에 대한 정보가 부정확합니다. 원본에서는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 이를 반영하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 부족한 점이 많으며, 특히 사실성과 일관성에서 큰 문제를 보이고 있습니다. 관련성은 어느 정도 있지만, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과 일치하지 않는 정보가 포함되어 있어 완전한 적절성을 갖추지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트의 핵심 메시지와의 연결이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.4995057572288094</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>2024년도 해당 학과와 모집인원, 지원자 수 등을 고려해보겠습니다.
+- **게임공학과**:
+  - **모집 인원**: 3명
+  - **지원 인원**: 16명
+  - **경쟁률**: 5.33
+이렇게 높은 경쟁률을 보여주고 있습니다. 게임공학과는 인기 학과로, 지원자가 많아 경쟁이 치열합니다.
+**붙을 확률**:
+- 경쟁률이 매우 높기 때문에, 좋은 성적과 서류 준비가 필수입니다.
+- 수능 점수와 면접 성적이 중요할 것입니다. 특히 수능에서 국어 + 수학 + 탐구(2개)의 표준 변환 점수가 평균 303.05이고, 영어 등급이 평균 3.25라는 것을 고려하면, 지원자의 성적도 높아야 합니다.
+- 서류와 면접에서도 학업역량과 전공적합성을 잘 보여줘야 합니다.
+**추천 사항**:
+1. **성적 준비**: 수능을 꼼꼼히 준비하고, 특히 국어 + 수학 + 탐구(2개)의 성적이 높아야 합니다.
+2. **서류 준비**: 학교생활기록부와 서류심사 기준에 맞춰 잘 준비해야 합니다.
+3. **면접 준비**: 지원동기와 학업계획, 전공적합성 등을 잘 준비해 면접에서 좋은 평가를 받도록 하세요.
+이런 점들을 잘 준비한다면 붙을 확률은 높아질 것입니다. 자세한 정보는 입학 안내 홈페이지나 대입 지원 사이트를 확인하시거나, 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 최종등록자의 경쟁률과 충원 합격자 수에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급과 비교할 때 정확한 수치를 제공하지 않으며, 수능 성적의 표준 변환 점수에 대한 언급이 부족합니다. 따라서 일부 사실이 누락되거나 부정확할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가 합격 가능성에 대한 예측이 원본 텍스트의 내용과 다소 상충할 수 있습니다. 원본 텍스트는 합격 가능성이 높다고 언급했으나, 생성된 응답은 추가 합격 가능성이 낮다고 결론짓고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 성적과 추가 합격 가능성에 대한 정보를 제공합니다. 그러나 원본 텍스트의 특정 세부사항에 대한 언급이 부족하여 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 제공하지만, 원본 텍스트의 평균 등급과 비교할 때 정확한 수치가 부족하고, 표준 변환 점수에 대한 정보가 명확하지 않아 정확성에서 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성에서 부족함이 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 관련된 정보를 제공합니다. 그러나 일부 세부사항이 부족하여 완전한 적합성을 보이지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.6571220737724358</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 수능 최종등록자의 경쟁률이 5.33이며, 충원 합격자는 3명입니다. 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 424.05이고, 평균 수능 4개 영역 (가산점 포함) 표준 변환 점수 합은 424.05입니다.
+당신의 수능 성적이 4.16이라면, 이는 표준 변환 점수로 환산되어야 합니다. 하지만 정확한 표준 변환 점수를 제공하지 않았기 때문에, 일반적으로 평균 점수와 비교하여 경쟁률을 예측할 수 있습니다.
+현재의 정보만으로 추정하면:
+1. 당신의 성적이 424.05보다 약간 낮으므로, 충원 합격자들 중 일부는 당신보다 높은 점수를 받았을 가능성이 있습니다.
+2. 그러나 경쟁률이 5.33이고, 충원 합격자는 3명이라는 점에서, 추가 합격 가능성은 낮아 보입니다.
+따라서, 추가 합격을 받기 위해서는:
+- 다른 전형(예: 나군, 다군 등)을 준비해야 합니다.
+- 다른 대학이나 전공의 경쟁률과 충원 합격자를 확인하여 지원할 수 있습니다.
+결론적으로, 현재 정보로만 판단하면 추가 합격 가능성은 낮아 보입니다. 더 많은 정보와 다양한 전형을 고려하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 제공하지 않고, 다른 모집단위의 예시를 들어 설명하고 있습니다. 이는 원본 텍스트의 핵심 정보를 왜곡하거나 무시하는 결과를 초래합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 없습니다. 원본 텍스트는 경영정보학과에 대한 정보에 집중하고 있지만, 생성된 응답은 다른 학과의 예시를 들어 설명하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 경영정보학과의 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 다른 학과의 경쟁률과 평균 점수에 대한 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 주제와 관련이 없기 때문에 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 관련이 없으며, 다른 학과의 예시를 들어 설명하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 원본 텍스트와의 관련성이 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 다른 주제를 다루고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 주제와의 관련성이 떨어져서 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.5647428696297976</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>2024학년도 동일 모집단위의 경쟁률, 평균 점수 등을 고려해보겠습니다.
+주어진 정보:
+- 단과대학: ICT융합공과대학
+- 모집단위: 게임공학과 또는 영화학과 (예시로 들어갑니다)
+- 지원 인원 및 경쟁률: 예를 들어, 지원 인원이 16명이고 경쟁률이 5.33일 때 평균 점수가 303.05였습니다.
+- 지원자의 성적: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.05였습니다.
+경쟁률과 평균 점수가 주어진 예시를 바탕으로 판단해보겠습니다:
+1. **평균 점수와 지원 인원**: 
+   - 예시에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.05였습니다.
+   - 지원자의 성적인 3.75는 이보다 높습니다.
+2. **경쟁률**:
+   - 예시에서 경쟁률이 5.33이었습니다.
+   - 이는 상대적으로 낮은 경쟁률을 의미합니다.
+3. **성적 평균과 지원자 성적 비교**:
+   - 지원자의 성적이 3.75로, 예시의 평균 점수인 303.05보다 높습니다.
+   - 이는 상대적으로 좋은 성적을 보여줍니다.
+따라서, 경영정보학과에서 정시 성적 3.75라면, 해당 단과대학 및 모집단위의 예시를 바탕으로 보면 최초등록자로 선발될 가능성이 높습니다. 그러나 최종 결정은 입학사정관들의 평가와 경쟁률 등 여러 요인에 따라 달라질 수 있으므로, 정확한 확신을 가질 수는 없습니다.
+추천 사항:
+- 해당 단과대학 및 모집단위의 최종 성적 기준을 확인하세요.
+- 입학사정관들의 평균 점수와 경쟁률 등을 참고하여 판단하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 경영정보학과의 평균 성적에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 정시 등급이 4.2일 경우 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답에서는 4.2 이상의 성적이 충분히 최초합격 가능성이 있다고 주장하고 있습니다. 이는 원본 텍스트와 상충하는 내용입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서는 4.2가 낮은 성적이라고 언급하고 있지만, 생성된 응답에서는 4.2가 높은 성적이라고 주장하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 경영정보학과의 성적 기준과 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 4.2의 합격 가능성에 대한 정보와는 다소 차이가 있습니다. 그러나 전반적으로 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 정보를 나열하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 4.2에 대한 해석이 원본과 다르기 때문에 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 4.2의 성적에 대한 해석이 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 완전한 적절성을 보이지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 내용의 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.7090180132817032</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경영정보학과에 대한 정보를 바탕으로 답변드리겠습니다.
+1. **성적 기준**: 
+   - 경영정보학과는 수능 성적이 4.2 이상이면 충분히 최초합격 가능성이 있습니다.
+2. **전형별 평균 성적**:
+   - 예를 들어, 가군 수능(일반학생전형)에서 경영정보학과의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.77입니다.
+   - 이는 4.2라는 성적이 상대적으로 높은 편이므로, 최초합격 가능성은 있습니다.
+3. **경쟁률**:
+   - 경영정보학과의 경우, 지원 인원과 모집인원을 고려하면 4.2 이상의 성적은 충분히 경쟁력을 갖추고 있을 것입니다.
+4. **최종 등록자 성적**:
+   - 최종등록자의 평균 점수는 303.05로, 이보다 높은 성적이면 최초합격 가능성이 큽니다.
+따라서, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 4.2 이상이라면 경영정보학과의 최초합격 가능성은 높습니다. 하지만 정확한 확률을 알기 위해서는 해당 전형의 지원 인원과 모집인원, 그리고 다른 지원자의 성적 분포를 고려해야 합니다.
+추가적으로, 학교생활기록부와 면접 등 다른 평가 요소도 중요하므로, 이 부분에서도 최선을 다하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 평균 성적과 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 구체적인 수치(영어 등급 평균 3.25, 수능 4개 영역 등급 평균 4.31)에 대한 언급이 없고, 합격 가능성에 대한 판단이 다소 주관적입니다. 따라서 일부 사실은 정확하지만, 전체적으로는 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 경쟁률과 평균 점수에 대한 정보가 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 합격 가능성에 대한 판단과는 다른 요소들이 포함되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용(정시 성적과 평균 등급)에 대한 직접적인 언급이 부족합니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 구체적인 수치와 비교했을 때 정확성이 떨어집니다. 특히, 합격 가능성에 대한 판단이 주관적입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 추가되어 있어 원본의 의도와 다소 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.6503635842352347</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 최종등록자의 평균 경쟁률이 10.56이며, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 313.13입니다. 이는 상당히 높은 수치로 보아, 성적이 5.33인 경우 경쟁률이 매우 높고 입학사정관 심사를 통과해야 하는 조건을 충족시키기 어렵다고 볼 수 있습니다.
+하지만 정확한 합격 가능성 판단을 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **성적 평균**: 313.13이라는 평균 점수가 매우 높습니다. 성적이 5.33이라면, 이는 평균보다 상당히 낮은 수준입니다.
+2. **전형요소**: 경영정보학과의 경우 학생부종합 전형도 함께 진행되므로, 학생부와 면접 등 다른 요소들도 고려되어야 합니다.
+3. **면접 및 서류 평가**: 면접과 서류 평가는 학업역량, 전공적합성 등을 종합적으로 판단하기 때문에, 이 부분에서 좋은 점수를 받는 것이 중요합니다.
+4. **입학사정관의 평가**: 입학사정관이 지원자의 전반적인 능력과 적합성을 평가하므로, 지원자가 경영정보학과에 대한 진심어린 관심과 열정을 보여줄 수 있어야 합니다.
+따라서 성적이 5.33이라면 합격 가능성은 매우 낮다고 볼 수 있습니다. 하지만 모든 요소를 종합적으로 고려해야 하므로, 지원자는 다음과 같은 준비를 해보는 것이 좋습니다:
+- **학생부 작성**: 진로와 전공에 대한 열정을 잘 보여줄 수 있는 내용을 포함시킵니다.
+- **면접 준비**: 면접에서 지원동기와 학업계획, 전공적합성 등을 명확하게 설명할 수 있도록 준비합니다.
+결론적으로, 성적이 5.33이라면 경영정보학과에 합격하기는 어렵지만, 최선을 다해 지원하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 바이오응용공학부의 성적 평균 및 경쟁률에 대한 정보를 포함하고 있지만, 원본 텍스트에서 제공된 구체적인 평균 등급(영어 3.82, 수능 4개 영역 4.74)과 비교할 때, 성적이 3.33인 경우의 합격 가능성에 대한 명확한 언급이 부족합니다. 따라서 일부 사실이 누락되거나 왜곡된 것으로 평가됩니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 성적 비교와 관련된 정보가 다소 상충하는 부분이 있습니다. 예를 들어, 성적이 3.33이라는 점에서 원본 텍스트의 합격 가능성에 대한 긍정적인 언급과는 다르게, 생성된 응답에서는 확실한 보장이 어렵다고 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 바이오응용공학부에 대한 정보와 지원 자격, 성적 분포 등을 다루고 있어 원본 텍스트와 관련성이 높습니다. 그러나 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족하여 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 구체적인 수치와 비교할 때 정확성이 떨어지는 부분이 있습니다. 특히 성적 비교와 관련된 부분에서 원본 텍스트의 내용을 충분히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 다소 부족함이 있어 종합적인 품질이 높지 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락을 대체로 잘 전달하고 있습니다. 그러나 일부 내용이 원본 텍스트의 의도와 다르게 해석될 여지가 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.7098978716930215</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 경우, 정시 모집군과 지원 자격, 학생들의 성적 분포 등을 고려해 답변을 드리겠습니다.
+1. **정시 모집군**: 
+   - 2023년에는 바이오의약공학과 (다)로 모집되었으나, 2024년에는 바이오의약공학과 (나)로 변경되었습니다.
+   - 이에 따라 지원 자격과 학생들의 성적 분포가 달라질 수 있습니다.
+2. **성적 평균 및 분산**:
+   - 최종등록자에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 427.00이며, 표준 편차는 11.25입니다.
+   - 최초등록자에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 432.67이며, 표준 편차는 6.24입니다.
+3. **성적 비교**:
+   - 성적이 3.33이라면, 이는 대략 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균보다 낮습니다.
+   - 그러나 표준 편차를 고려하면, 성적이 400점대 초반까지는 상당히 넓은 범위 내에 위치할 수 있습니다.
+4. **경쟁률 및 모집인원**:
+   - 바이오의약공학과 (나)의 경우, 정원 내 모집 인원은 21명이며, 지원 인원은 36명으로 경쟁률이 높습니다.
+   - 이에 따라 성적이 조금 낮더라도, 학생부 종합 평가 등 다른 요소들이 중요하게 작용할 수 있습니다.
+5. **학생부 종합 평가**:
+   - 동의대학교는 학생부 종합 평가를 중점적으로 고려하므로, 성적이 조금 낮더라도 학생부에서 뛰어난 활동이나 성과가 있다면 충분히 가능할 수 있습니다.
+결론적으로, 3.33 정도의 성적만으로는 확실한 보장은 어렵지만, 학생부 종합 평가를 잘 준비하고 지원한다면 바이오응용공학부 최초등록자로 선발될 가능성은 있습니다. 자세한 정보와 전략을 마련하여 지원하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 성적 기준에 대한 일반적인 정보를 제공하지만, 원본 텍스트에서 제시된 구체적인 평균 등급(영어 2.8, 수능 3.82)과 현재 정시 등급(4.4)과의 비교를 명확히 반영하지 못하고 있습니다. 따라서 일부 사실이 누락되었고, 정확한 정보 전달이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 모집요강에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 내용과 일치하지 않는 부분이 있습니다. 예를 들어, 방사선학과의 평균 등급보다 낮은 성적이라는 원본의 결론과는 상반된 주장을 하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 모집요강과 성적 기준에 대한 정보를 제공하여 관련성을 유지하고 있지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다. 그러나 전반적으로 주제와 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉽게 작성되었습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 이해하는 데 약간의 어려움이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 유지하고 있으며, 각 항목이 잘 연결되어 있습니다. 그러나 원본 텍스트의 결론과는 다소 다른 방향으로 전개되고 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 성적 기준에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 데이터와 비교했을 때 정확성이 떨어집니다. 특히, 성적 기준에 대한 명확한 언급이 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성, 일관성, 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 모집요강에 대한 적절한 의미를 전달하고 있으며, 주제와 관련된 내용을 다루고 있습니다. 그러나 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족하여 완전한 적절성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.6781402094563107</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2024학년도에 방사선학과의 모집요강을 확인해보겠습니다. 하지만 현재 제공된 정보만으로는 정확한 답변을 드리기 어렵습니다. 방사선학과의 모집요강은 학과 분야와 전형방법, 성적 기준 등이 다양하게 다를 수 있습니다.
+일반적으로 방사선학과의 경우 다음과 같은 특징이 있을 수 있습니다:
+1. **전형 방법**: 일반적으로는 수능 중심으로 모집하는 경우가 많습니다.
+2. **성적 기준**: 고등학교 졸업예정자나 검정고시 학생을 대상으로 하며, 국어, 수학, 영어 등 주요 과목의 성적이 중요합니다.
+제공된 정보를 바탕으로 다음과 같은 점들을 고려해볼 수 있습니다:
+- **성적 평균**: 제공된 데이터에서 방사선학과와 관련된 정보가 없으므로, 일반적인 인문사회과학대학의 국어, 수학, 영어 등급 평균을 참고할 수 있습니다. 예를 들어, 국어 4.12, 수학 3.59, 영어 4.08 등의 평균이 주어졌다면, 현재 성적(국어 4.4)은 상대적으로 높습니다.
+- **성적 표준 편차**: 제공된 데이터에서 방사선학과의 성적 표준 편차 정보가 없으므로, 일반적인 인문사회과학대학의 성적 표준 편차를 참고할 수 있습니다. 예를 들어, 0.59 등이 주어졌다면, 현재 성적은 평균보다 약간 높습니다.
+따라서, 현재 성적이 방사선학과에 충분히 경쟁력 있을 것으로 보입니다. 하지만 정확한 답변을 위해서는:
+1. **방사선학과의 모집요강 확인**: 공식 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 통해 해당 학과의 최신 모집요강을 확인해보세요.
+2. **성적 기준 확인**: 방사선학과의 성적 기준, 특히 국어, 수학, 영어 등 주요 과목의 성적 기준을 확인하세요.
+추가적으로, 입시 전문가와 상담하거나, 해당 학과의 입학사정관에게 직접 문의하는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 방사선학과의 평균 영어 등급이 2.8이라는 사실을 언급하지 않고, 2.66이 상대적으로 낮은 점수라고 평가하고 있습니다. 이는 원본 텍스트의 정보와 일치하지 않으며, 평균보다 낮은 점수라는 주장은 다소 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 방사선학과의 평균 영어 등급에 대한 언급이 없고, 2.66이 낮은 점수라고 주장하고 있습니다. 이는 원본 텍스트의 내용과 일치하지 않으며, 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 방사선학과의 정시 모집에 대한 질문에 대해 여러 고려사항을 제시하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 데이터와는 다소 동떨어져 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 고려사항이 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 2.66이 낮은 점수라고 주장하지만, 원본 텍스트의 평균 영어 등급과 비교할 때 정확성이 떨어집니다. 원본 텍스트의 정보를 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 측면에서 적절하지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있으며, 전반적으로 적절한 내용입니다. 그러나 원본 텍스트의 구체적인 사실과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.604677330153951</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2.66의 영어 등급은 방사선학과 정시 모집에서 상대적으로 낮은 점수입니다. 방사선학과는 보통 높은 영어 성적을 요구하는 경향이 있으므로, 이 점수로는 약간 위험할 수 있습니다.
+다음은 몇 가지 고려사항입니다:
+1. **평균 영어 등급**: 방사선학과의 평균 영어 등급을 확인해 보세요. 만약 평균이 3.0 이상이라면, 2.66은 약간 낮습니다.
+2. **전체 점수 평균**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균을 확인해 보세요. 만약 이 값이 350 이상이라면, 영어 등급은 약간 낮지만 다른 과목 성적이 높다면 큰 문제가 될 수 있습니다.
+3. **경쟁률**: 방사선학과의 경쟁률을 고려하세요. 경쟁률이 높으면, 조금 더 낮은 점수라도 합격할 가능성이 있습니다.
+4. **면접 및 서류 평가**: 면접이나 서류 평가에서 좋은 성적을 받았다면, 이는 총합에 긍정적인 영향을 줄 수 있습니다.
+5. **추천서와 자기소개서**: 추천서나 자기소개서에서 강점을 제시할 수 있다면, 이를 활용하여 합격 가능성 높이기에 도움이 될 수 있습니다.
+결론적으로 2.66은 약간 위험한 점수지만, 다른 과목 성적이 매우 높다면 합격 가능성이 있을 수 있습니다. 그러나 보다 안전한 쪽으로 준비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 포함하고 있으며, 3.66의 성적이 평균보다 높은 점을 언급하고 있습니다. 그러나 농어촌 전형에 대한 구체적인 정보는 다소 일반적이며, 정확한 기준에 대한 언급이 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 3.66의 성적이 평균보다 높다는 점을 강조하고 있습니다. 그러나 농어촌 전형에 대한 추가적인 설명이 원본과 다소 다르게 해석될 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 다양한 요소를 고려하고 있습니다. 원본의 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 몇 가지 요소가 나열된 방식이 다소 단조롭게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 3.66의 성적에 대한 해석도 적절합니다. 그러나 농어촌 전형에 대한 구체적인 기준이 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 내용은 다소 일반적일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.5721914201232414</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학과 농어촌 전형에 지원하셨다면, 합격 가능성은 있습니다만, 확실한 것은 아닙니다. 다음과 같은 요소들을 고려해야 합니다:
+1. **전형 유형**: 농어촌학생전형은 일반적으로 교육적 배경이 약한 지역 출신 학생을 대상으로 하므로, 성적이 조금 낮더라도 합격 가능성은 있습니다.
+2. **성적 기준**: 각 전형별로 정해진 최저학력기준이 있으니, 해당 기준을 확인해야 합니다. 농어촌학생전형의 경우 일반적으로 평균적인 성적보다는 교육적 배경이나 기타 요인들이 더 중요하게 작용할 수 있습니다.
+3. **교과성적**: 전형요소 반영비율에서 학생부 교과성적이 100% 반영되는 경우, 성적이 중요한 역할을 합니다. 하지만 농어촌학생전형의 경우에는 교육적 배경이나 기타 요인들이 더 중요하게 작용하기도 합니다.
+4. **추천서 및 서류**: 추천서나 추가 제출서류가 있는 경우, 이들 자료가 합격에 큰 영향을 미칠 수 있습니다.
+5. **면접 성과**: 면접에서도 좋은 평가를 받으면 합격 가능성은 높아집니다.
+6. **동점자 처리 기준**: 동점자 처리 기준에서 국어, 수학, 영어 등 주요 과목의 성적이 중요하게 작용할 수 있습니다.
+따라서 3.66이라는 성적을 가지고 지원하셨다면, 합격 가능성은 있지만 확실하지 않습니다. 정확한 합격 가능성을 확인하려면 해당 대학의 최저학력기준과 동점자 처리 기준 등을 꼼꼼히 확인하시고, 추가 제출서류나 추천서 등이 있는 경우 준비해두시는 것이 좋습니다.
+추가적으로, 만약 불안하다면 "https://ipsi.deu.ac.kr/main.do" 링크를 통해 공식 홈페이지에서 더 자세한 정보를 확인하거나, 입학처에 문의하시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 순위가 높다고 언급하고 있지만, 합격 가능성에 대한 정보가 원문에서 제공된 특정 학과 목록과 일치하지 않습니다. 원문에서는 예비 25번 이상이 합격한 학과를 명시하고 있으며, 지원자가 해당 학과에 포함되는지 여부에 따라 합격 가능성을 판단할 수 있다고 설명하고 있습니다. 그러나 생성된 응답은 일반적인 요소들을 나열하며 합격 가능성을 낮다고 언급하고 있어, 원문과의 일관성이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제시된 특정 학과 목록을 고려하지 않고, 일반적인 합격 가능성에 대한 요소들을 나열하고 있습니다. 이는 원문에서 제시된 정보와 일치하지 않으며, 따라서 일관성이 떨어집니다. 그러나 25번의 순위가 높다는 점은 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격 가능성에 대한 질문에 대해 여러 요소를 고려해야 한다고 설명하고 있어 관련성이 높습니다. 그러나 원문에서 제공된 특정 학과 목록에 대한 언급이 없기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 나열되어 있습니다. 그러나 원문과의 연결성이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 합격 가능성에 대한 일반적인 요소들을 나열하고 있지만, 원문에서 제공된 특정 학과 목록과 관련된 정보가 누락되어 있습니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 원문과의 일관성 및 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 합격 가능성에 대한 질문에 대해 적절한 정보를 제공합니다. 그러나 원문과의 연결성이 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.4945081148916722</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 위치입니다. 하지만 정시 합격 가능성을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. 모집인원과 지원자 수: 해당 모집단위의 모집인원이 얼마나 되는지, 그리고 실제 지원자가 얼마나 되는지를 확인해야 합니다.
+2. 성적 및 경쟁률: 지원자의 평균 성적이 어느 정도인지, 그리고 자신의 성적이 그 중에서 어느 위치에 있는지를 파악해야 합니다.
+3. 전형요소 반영비율: 수능 비중이 높은 경우 수능 점수가 중요하게 작용할 수 있습니다.
+4. 학교별 특성: 일부 대학에서는 특정 전형 요소가 더 강조될 수 있으므로, 해당 대학의 특성을 고려해야 합니다.
+5. 동점자 처리 기준: 만약 동점자가 발생하면 어떻게 처리되는지 확인해야 합니다.
+현재 정보만으로는 확실한 답변을 드리기 어렵습니다. 하지만 25번은 매우 높은 순위이므로, 합격 가능성은 낮다고 볼 수 있습니다. 그러나 최선을 다해 준비하고, 가능한 모든 점수를 얻어보는 것이 중요합니다.
+추가 정보나 자세한 분석이 필요하시다면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다. 또한, 학원이나 입시 컨설팅 서비스도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보를 제공하고 있지만, 실제로는 해당 학부가 존재하지 않으며, 경찰행정학과에 대한 정보로 대체되어야 합니다. 이로 인해 사실성이 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 법경찰행정학부에 대한 정보를 제공하고 있으나, 원본 텍스트에서는 해당 학부가 존재하지 않는다고 명시하고 있습니다. 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교의 입시 정보에 대한 내용을 포함하고 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 관련성이 떨어집니다. 경찰행정학과에 대한 정보가 더 적절했을 것입니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 중복된 내용이 있어 약간의 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 응답은 여러 점을 나열하고 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 논리적인 흐름이 약간 깨집니다. 경찰행정학과에 대한 정보로 통일되었다면 더 나은 일관성을 보였을 것입니다.
+6. Accuracy Score (1-5): 2  
+   - 응답은 법경찰행정학부에 대한 잘못된 정보를 포함하고 있으며, 이는 원본 텍스트와의 사실적 일치에서 큰 차이를 보입니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4  
+   - 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.7431757646421594</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학부에 대한 정보를 바탕으로 답변 드리겠습니다.
+1. **전형별 평균 성적**:
+   - 정시모집군 (가) : 영어영문학과, 경찰학과 등이 모집군 변경됨.
+   - 정시모집군 (나) : 호텔컨벤션경영학과, 로봇자동화공학과 등이 모집군 변경됨.
+2. **법경찰행정학부의 평균 성적**:
+   - 동의대학교 법경찰행정학부는 2024년도 정시모집군 (가)로 분류되어 있습니다.
+   - 이전 년도와 비교하여, 법경찰행정학부의 경우 평균적으로 대략적인 성적 범위를 다음과 같이 예측할 수 있습니다.
+3. **안정권과 문 닫고 들어갈 수 있는 평균 성적**:
+   - **문 닫고 들어가기 위한 평균성적**: 1등급 (4등급 이상)을 받는 경우입니다.
+   - **안정권 평균성적**: 대략적으로 국어, 수학, 영어 등 주요 과목의 3등급 이상을 받는 것이 안정권으로 볼 수 있습니다.
+4. **2024년도 동의대학교 법경찰행정학부에 대한 예측**:
+   - **문 닫고 들어가기 위한 평균성적**: 대략적으로 1등급 (4등급 이상)을 받는 경우입니다.
+   - **안정권 평균성적**: 국어, 수학, 영어 등 주요 과목의 3등급 이상을 받는 것이 안정권으로 볼 수 있습니다.
+따라서, 동의대학교 법경찰행정학부에 정시로 들어가려면 다음과 같은 평균 성적을 받으면 안정권이거나 문 닫고 들어갈 수 있을 것으로 예측할 수 있습니다:
+- **문 닫고 들어가기 위한 평균성적**: 1등급 (4등급 이상)을 받는 경우입니다.
+- **안정권 평균성적**: 국어, 수학, 영어 등 주요 과목의 3등급 이상을 받는 것이 안정권으로 볼 수 있습니다.
+이 예측은 이전 년도와 비교하여 법경찰행정학부가 정시모집군 (가)로 분류되어 있다는 점을 고려한 것입니다. 실제 성적은 입시 경쟁과 관련된 여러 요인에 따라 변동될 수 있으므로, 최종 결정을 내릴 때는 해당 년도의 입시 경쟁 상황 등을 종합적으로 고려해야 합니다.
+참고로, 동의대학교 법경찰행정학부는 2024년도 정시모집군 (가)로 분류되어 있습니다. 이전 년도와 비교하여 성적 기준을 예측할 수 있으므로, 최종 결정을 내릴 때는 해당 년도의 입시 경쟁 상황 등을 종합적으로 고려해야 합니다.
+이 답변은 2024년도 동의대학교 법경찰행정학부에 대한 예측 정보를 바탕으로 한 것입니다. 실제 성적 기준은 이전 년도와 비교하여 변동될 수 있으므로, 최종 결정을 내릴 때는 해당 년도의 입시 경쟁 상황 등을 종합적으로 고려해야 합니다.
+감사합니다!</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 아동학과의 평균 등급에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 아동학과의 영어 등급 평균이 6.33이라고 명시되어 있지만, 생성된 응답에서는 영어 등급 평균이 3.25로 잘못 기재되었습니다. 또한, 수능 4개 영역 등급 평균도 원본과 다르게 제시되었습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 보육가정상담학과가 아동학과로 변경되었다는 점은 일치하지만, 성적 분석의 세부 사항이 원본과 다르게 제시되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련이 있으며, 정시 산출 등급에 대한 질문에 적절하게 답변하고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 차이가 있어 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르게 성적 정보를 제시하고 있어 정확성이 낮습니다. 특히, 영어 등급 평균과 수능 4개 영역 등급 평균이 잘못 기재되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 일부 차원에서 양호하지만, 사실성과 정확성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와 다르게 해석된 부분이 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.6059213786604364</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과에 대한 정보를 바탕으로 답변드리겠습니다.
+보육가정상담학과는 아동학과로 분리되었습니다. 따라서, 2024학년도부터는 아동학과로 지원해야 합니다.
+아동학과의 최초합격자와 최종등록자의 성적 분석을 보면 다음과 같습니다:
+1. **최초합격자**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 303.05
+   - 영어 등급의 평균: 3.25
+2. **최종등록자**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 251.82
+   - 영어 등급의 평균: 5.68
+이러한 분석을 바탕으로, 정시 산출 등급이 5.33인 경우는 다음과 같은 점들을 고려해야 합니다:
+- **국어 + 수학 + 탐구(2개) 표준 변환 점수 합**: 
+  - 최초합격자 평균: 303.05
+  - 최종등록자 평균: 251.82
+- **영어 등급**:
+  - 최초합격자 평균: 3.25
+  - 최종등록자 평균: 5.68
+정시 산출 등급이 5.33인 경우, 영어 등급은 상대적으로 높지만, 국어 + 수학 + 탐구(2개) 표준 변환 점수 합에서는 최초합격자 평균보다 낮습니다.
+따라서, 정시 산출 등급이 5.33인 경우에도 합격 가능성은 있습니다만, 경쟁률과 모집 인원을 고려하면 상대적으로 낮은 점수로 합격하기는 어렵다고 볼 수 있습니다. 
+추천되는 조치:
+1. **영어 실력 강화**: 영어 등급이 높은 경우 이를 활용하여 지원 가능성을 높일 수 있습니다.
+2. **추가 지원**: 다른 대학이나 전형을 함께 준비하는 것이 좋습니다.
+결론적으로, 정시 산출 등급 5.33으로는 합격 가능성은 있으나, 경쟁률과 모집 인원을 고려하면 낮은 점수로 합격하기는 어렵다고 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 충원 합격자 발표 및 등록 일정에 대한 일부 정보를 제공하지만, 원본 텍스트의 세부 사항과 일치하지 않는 부분이 있습니다. 예를 들어, 발표 시간과 등록 시간이 다르게 언급되어 있으며, 충원 합격자 수에 대한 정보도 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 충원 합격자 발표 일정과 관련된 정보가 일관되지 않습니다. 특히, 발표 시간이 원본과 다르게 제시되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 예비 번호와 충원 합격 가능성에 대한 언급이 포함되어 있습니다. 그러나 일부 세부 사항이 원본과 다르기 때문에 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 세부 사항과 일치하지 않는 부분이 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서의 부족함으로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 세부 사항에서의 불일치로 인해 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.7882959608929911</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 충원 합격자 발표 및 등록 일정이 다음과 같습니다:
+- **충원 합격자 3차 발표**: 2024. 02. 15.(목) 09:00
+- **충원 합격자 3차 등록**: 2024. 02. 15.(목) 09:00~16:00
+당시 충원 합격자는 3명이었고, 예비 12번을 받았다는 점에서, 이는 후보 순위 중 상위에 위치한 것으로 보입니다. 
+충원 합격자 발표 및 등록 일정은 이미 지났으므로, 현재까지의 정보로는 직접적인 합격 가능성 판단이 어렵습니다. 하지만 예비 12번을 받았다는 것은 좋은 신호이며, 일반적으로 후보 순위가 높다면 충원 합격 가능성은 있습니다.
+만약 아직 등록 기간이 남아 있다면, 해당 단과대학의 입학관리팀에 문의하여 최신 정보를 확인하는 것이 좋습니다. 또한, 다른 전형이나 대학에서도 지원을 고려해 보는 것도 좋은 방법입니다.
+추가적으로, 동의대학교의 합격률과 경쟁률 등을 참고하면 더 정확한 판단이 가능할 것입니다. 관련 웹사이트나 입학 안내 센터를 통해 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75라는 성적이 높은 점수라고 언급하고 있지만, 유아교육학과에 지원하기 어려운 이유에 대한 구체적인 데이터(최종등록자의 수능 4개 영역 등급 평균 4.18)를 명시하지 않아 사실적 정확성이 떨어진다.
+2. Consistency Score (1-5): 3
+   - 응답은 4.75 성적이 뛰어난 성적이라고 하지만, 유아교육학과에 지원하기 어려운 이유를 명확히 설명하지 않아 일관성이 부족하다. 유아교육학과의 평균 성적을 언급하지 않음으로써 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 응답은 유아교육학과에 대한 입학 조건과 관련된 정보를 제공하고 있지만, 원본 텍스트에서 제시된 구체적인 데이터와 비교할 때 다소 부족하다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 유아교육학과에 대한 입학 조건을 설명하는 데 있어 일관된 흐름을 유지하고 있다.
+6. Accuracy Score (1-5): 3
+   - 응답은 4.75 성적이 높은 점수라고 하지만, 유아교육학과에 대한 구체적인 평균 성적 정보를 제공하지 않아 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 유용한 정보를 제공하지만, 사실적 정확성과 일관성에서 부족함이 있어 다차원적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 유아교육학과에 대한 적절한 정보를 제공하고 있으며, 주제와 관련된 내용을 잘 전달하고 있다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 명확하고 이해하기 쉬운 표현을 사용하고 있지만, 일부 문장은 다소 복잡하게 느껴질 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.7006512041971841</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4.75라는 성적은 매우 높은 점수입니다. 대부분의 대학에서 수능 성적이 98점 이상이면 4.0을 넘어서게 됩니다. 따라서 4.75는 상당히 뛰어난 성적이라고 볼 수 있습니다.
+유아교육학과에 입학하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **성적**: 매우 높은 성적이 유리합니다.
+2. **전형 방식**: 각 대학의 전형 방식이 다릅니다. 일부 학교에서는 수능 성적이 주요 평가 기준이 될 수 있습니다.
+3. **학생부 종합전형**: 이 경우 학생부, 면접 등 다양한 요소를 고려합니다.
+4. **특기사항 및 활동**: 창의적 체험활동, 진로활동 등이 중요할 수 있습니다.
+유아교육학과는 일반적으로 인문사회계열이고, 교직 관련 전공으로서 학생부와 면접에서 좋은 평가를 받을 가능성도 높습니다. 그러나 유아교육은 사회적 요구가 높고, 실무 능력이 중요하기 때문에, 실제 입학 가능성을 판단할 때는 다음과 같은 점들을 고려해야 합니다:
+- **학교별 전형 방식**: 각 대학의 정원내/외 전형 비율과 평균 성적 등을 확인하세요.
+- **면접 및 서류평가**: 면접에서 좋은 인상을 주고, 학생부에서 실력이 잘 나타나야 합니다.
+- **특기사항**: 창의적 체험활동이나 관련 활동 경험이 있다면 이점이 될 수 있습니다.
+결론적으로 4.75라는 성적이 매우 유리하지만, 최종 결정은 학교별 전형 방식과 입학사정관들의 평가에 따라 달라질 수 있으므로, 여러 대학의 정보를 꼼꼼히 확인하고 지원하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 경쟁률과 지원자들의 등급 분포에 대한 정보를 제공하고 있으며, 4.16의 정시 등급이 높은 수준임을 언급하고 있습니다. 그러나 신설 학과에 대한 정보가 부족하다는 점에서 일부 사실이 누락된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 신설 학과에 대한 정보와 경쟁률에 대한 추정이 포함되어 있어 일관성이 떨어지는 부분이 있습니다. 원본 텍스트의 구체적인 데이터와는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 다루고 있으며, 보육가정상담학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 그러나 신설 학과에 대한 정보가 추가되면서 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 4.16의 정시 등급이 높은 수준이라는 점을 정확하게 언급하고 있으며, 보육가정상담학과의 합격 가능성에 대한 추정도 적절합니다. 그러나 신설 학과에 대한 정보가 부족하여 정확성이 다소 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 신설 학과에 대한 정보가 추가되면서 약간의 맥락이 흐트러질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.4768736498411973</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집에서 보육가정상담학과의 경쟁률과 지원자들의 등급 분포를 고려해보겠습니다.
+1. **경쟁률 및 지원 인원**:
+   - 보육가정상담학과는 2024학년도에 신설된 학과로, 정확한 경쟁률 정보가 제공되지 않았습니다.
+   - 하지만 일반적으로 신설 학과의 경우 초기에는 지원자가 많지 않을 가능성이 있습니다.
+2. **등급 분포**:
+   - 동의대학교의 2024학년도 수능 평균 등급은 대략 3.5~4.0 정도로 추정됩니다.
+   - 보육가정상담학과는 일반학생전형으로 지원되므로, 이 학과의 지원자들의 등급 분포를 고려해야 합니다.
+3. **등급 비교**:
+   - 당신의 동의대학교 정시 환산등급이 4.16입니다.
+   - 이 등급은 대체로 상당히 높은 수준이며, 대부분의 학과에서는 좋은 성적을 보여줍니다.
+4. **추정 합격 가능성**:
+   - 현재 정보만으로 추론하면, 당신의 4.16등급은 보육가정상담학과에서도 충분히 경쟁력을 갖추고 있을 것으로 예상됩니다.
+   - 하지만 신설 학과인 만큼 지원자가 많지 않을 경우, 경쟁률이 낮아질 수 있습니다.
+5. **결론**:
+   - 4.16등급은 보육가정상담학과에서 충분히 좋은 성적을 보여줄 것으로 예상되며, 추합까지 고려하면 합격 가능성은 높습니다.
+   - 하지만 최종 결정은 입시 결과와 지원자의 전체적인 경쟁력을 포함하여 판단해야 합니다.
+추천되는 조치:
+- **추합 정보 확인**: 동의대학교의 공식 홈페이지나 입학처에 연락하여 보육가정상담학과의 정확한 모집인원 및 지원자 수를 확인해보세요.
+- **예비 지원**: 다른 학과도 함께 예비 지원을 고려해보는 것이 좋습니다. 다양한 선택지를 두고 준비하면 안전성을 높일 수 있습니다.
+추후에 더 자세한 정보가 제공되면, 좀 더 정확한 판단이 가능할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문과 상반된 정보를 제공합니다. 정시 지원에 대한 구체적인 정보와 성적 요건을 제시하고 있지만, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 정시 지원이 불가능하다고 명시했으나, 생성된 응답은 정시 지원을 위한 정보를 제공하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없으며, 정시 지원이 불가능하다는 사실을 무시하고 있습니다. 따라서 원문과의 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계가 부정확하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 소프트웨어융합학과의 정시 지원 가능성에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 정시 지원이 불가능하다는 사실을 무시하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.5129381630361953</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과를 정시로 지원하려는 경우, 다음과 같은 정보가 도움이 될 것입니다.
+1. **모집단위 및 모집인원**: 
+   - 단과대학은 ICT융합공과대학입니다.
+   - 모집단위는 소프트웨어공학부이며, 모집 인원은 30명입니다.
+2. **경쟁률 및 합격 평균 등급**:
+   - 최종등록자 경쟁률: 4.87
+   - 최초합격자 경쟁률: 4.87 (동일)
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균:
+     - 최종등록자: 317.87
+     - 최초합격자: 330.11
+3. **성적 및 등급**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 대략 315-330 사이입니다.
+   - 영어 등급: 평균적으로 3.77-4.13 정도 필요할 것으로 보입니다.
+따라서, 소프트웨어융합학과를 정시로 지원하려면 다음과 같은 성적을 갖추는 것이 좋습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균 315 이상
+- 영어 등급: 4.0 이상 추천
+이러한 성적을 갖추고 지원한다면 경쟁률을 고려할 때 충분히 합격 가능성은 있습니다. 그러나 최종 결정은 입학사정관들의 심사를 통해 이루어지므로, 개인의 특성과 활동 등도 중요한 요소로 작용할 수 있습니다.
+더 자세한 정보나 추가 지원 전략이 필요하시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 서류 평가와 면접 평가의 비율에 대한 구체적인 정보를 제공하고 있으며, 원본 텍스트의 주요 내용을 잘 반영하고 있습니다. 그러나 일부 세부사항은 원본 텍스트에 명시되어 있지 않거나 다소 과장된 부분이 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 기반으로 하고 있지만, 서류 평가의 세부 항목과 비율에 대한 추가 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트와의 일관성은 있지만, 추가된 정보가 원본의 내용을 왜곡할 가능성이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 질문에 대한 직접적인 답변을 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 다소 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 세부사항이 원본의 내용과 완전히 일치하지 않을 수 있습니다. 따라서 정확성 점수는 다소 낮습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부사항에서의 불일치로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의도와 다소 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.665599958213979</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 경우, 정원외 모집에서 서류평가와 면접평가가 함께 이루어지며, 각각의 영역에 대한 평가비율은 다음과 같습니다:
+- **서류평가**:
+  - 공동체역량: 최대 120점
+  - 학업역량: 최대 240점
+  - 전공적합성: 최대 240점
+- **면접평가**:
+  - 학업역량: 문제해결능력에 대한 평가
+  - 전공적합성: 진로정보 탐색능력에 대한 평가
+따라서, 서류평가에서 가장 중요한 부분은 **학업역량과 전공적합성**의 세부사항입니다. 특히 학업역량에서는 문제해결 능력을 강조하고, 전공적합성에서는 지원자의 관심과 이해도를 보여주는 것이 중요합니다.
+### 준비해야 하는 서류
+- **고교 졸업(예정)자**: 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- **검정고시 출신자**: 검정고시 합격증서 사본, 검정고시 성적증명서
+- **외국고교 졸업(예정)자**: 공증받은 외국고교 졸업(예정)증명서, 공증받은 외국고교 성적증명서 (아포스티유 확인 필요)
+### 세특 내용 준비
+- **공동체역량**:
+  - 협업능력: 학생 개인의 노력과 교사의 평가를 강조해야 합니다.
+- **학업역량**:
+  - 학업태도와 성취정도: 수업시간 참여, 성적 추이 등을 보여주어야 합니다.
+  - 세부능력 및 특기사항: 실제 경험을 기반으로 작성해야 합니다.
+- **전공적합성**:
+  - 열정과 지원 전공 관련 활동: 학교생활에서의 적극적인 참여와 관련 활동을 강조해야 합니다.
+### 주의사항
+- **학교생활기록부 작성**: 학생 개인이 작성한 내용은 교사의 분석 없이 단순히 기재하는 것은 피해야 합니다.
+- **과장된 내용**: 실제 경험과 괴리된 내용은 피해야 합니다.
+- **동일 내용의 반복 기재**: 같은 내용을 여러 번 반복 기재하지 않도록 주의해야 합니다.
+따라서, 세특 내용을 작성할 때는 실제 경험과 노력에 초점을 맞추고, 학교생활기록부와 서류평가에서 일관성을 유지하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 소프트웨어공학부의 평균 수능 점수와 관련된 정보가 잘못되었습니다. 원본 텍스트에서는 최초합격자의 평균 등급이 4.12라고 명시되어 있지만, 생성된 응답에서는 영어 등급의 평균이 4.33이라고 잘못 언급하고 있습니다. 또한, 수능 성적에 대한 해석도 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서는 4.08의 성적이 최초합격자의 평균 등급보다 약간 높은 수준이라고 언급되지만, 생성된 응답에서는 수능 점수가 평균보다 약간 낮다고 잘못 해석하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 그 관련성이 약간 떨어집니다. 그러나 여전히 수능 성적에 대한 조언과 추천 사항을 제공하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히 평균 등급과 관련된 정보가 잘못되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조언을 제공합니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.7182577194178684</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프수기공학과의 경우, 최초합격자의 평균 수능 점수가 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.77
+- 영어 등급의 평균: 4.33
+당신의 수능 성적이 국어+수학+탐구(2개) 표준변환점수 합이 408이고, 영어 등급이 4.08이라면:
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 
+   - 당신의 점수가 평균보다 약간 낮습니다 (317.77 보다 90점 높음).
+2. **영어 등급**:
+   - 당신의 영어 등급이 평균보다 약간 낮습니다 (4.33 보다 0.25점 낮음).
+따라서, 수능 점수만으로는 최초합격자에 비해 약간 떨어지지만, 여전히 충분한 경쟁력을 가지고 있습니다. 
+**추천 사항:**
+1. **추가 지원**: 다른 학과나 전형을 함께 지원하여 보완할 수 있습니다.
+2. **면접 준비**: 면접에서도 자신의 강점과 열정을 잘 표현하면 도움이 될 수 있습니다.
+3. **서류 준비**: 서류 평가에서 좋은 점수를 받기 위해 노력해야 합니다.
+결론적으로, 가능성이 있지만 경쟁률이 높아 확실한 합격은 보장되지 않습니다. 꾸준히 준비하고 다양한 전략을 활용하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과의 경쟁률과 평균 점수에 대한 통계를 제공하고 있지만, 원본 텍스트에서 언급된 구체적인 합격 등급 정보는 포함되어 있지 않으며, 일부 정보는 추정에 기반하고 있어 정확성이 떨어질 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 원본에서 제공된 정보와는 다른 통계적 수치를 제시하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문에 관련된 통계 정보를 제공하고 있어 관련성이 높지만, 원본 텍스트의 핵심 내용인 합격 등급 정보에 대한 직접적인 답변은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 통계 정보를 체계적으로 제시하고 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 제공된 통계 정보는 유용하지만, 원본 텍스트에서 명시된 합격 등급 정보와는 다소 차이가 있어 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 유용한 정보를 제공하지만, 원본 텍스트와의 일치성 및 정확성에서 부족함이 있어 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있으며, 의미적으로 적절하지만 원본 텍스트의 특정 요구 사항을 완전히 충족하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬우나, 일부 통계적 정보가 복잡하게 제시되어 있어 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.5892657342314158</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과의 경우, 최종등록자와 최초합격자의 통계를 살펴보면 다음과 같은 특징이 있습니다:
+1. **최종등록자**:
+   - 모집인원: 30명
+   - 지원인원: 146명
+   - 경쟁률: 4.87
+   - 충원 합격 (후보순위): 63명
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+   - 영어 등급의 평균: 3.30
+2. **최초합격자**:
+   - 모집인원: 30명
+   - 지원인원: 146명
+   - 경쟁률: 4.87
+   - 충원 합격 (후보순위): 63명
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 330.11
+   - 영어 등급의 평균: 3.30
+이 통계를 바탕으로, 소프트웨어융합학과는 상당히 경쟁률이 높은 곳입니다. 최종등록자와 최초합격자의 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87에서 330.11까지 높습니다.
+영어 등급의 평균은 3.30으로, 이는 대체로 중간 수준입니다. 따라서 5등급을 가지고 소프트웨어융합학과에 지원하는 것은 가능하지만 매우 어려울 것으로 예상됩니다. 
+이러한 통계를 고려할 때, 5등급으로는 충분히 합격하기 어렵다고 볼 수 있습니다. 그러나 특정 분야에서 뛰어난 실력이나 특기사항을 가지고 있다면, 이점을 강조하여 지원하는 것이 도움이 될 수 있습니다.
+결론적으로, 5등급만으로는 소프트웨어융합학과에 합격하기 어렵다고 판단됩니다.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 일부 사실에 대한 정확성을 결여하고 있습니다. 예를 들어, "4.28이라는 영어 등급은 대략 2등급 정도로 추정됩니다."라는 부분은 잘못된 정보입니다. 실제로 4.28은 2등급이 아닌 1.5등급에 해당합니다. 또한, 최종등록자들의 성적 평균이 3.5~4.0이라는 정보는 출처에서 제공된 5.78과 상충합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 일부 일치하지만, 경쟁률과 성적 평균에 대한 정보가 다릅니다. 원본 텍스트는 신소재공학과의 평균 성적을 5.78로 명시하고 있으나, 생성된 응답에서는 3.5~4.0으로 잘못 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 관련 정보를 제공하고 있으며, 신소재공학과에 지원하기 위한 여러 요인을 고려하고 있습니다. 그러나 원본 텍스트의 핵심 정보에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 사실에 대한 정확성이 부족합니다. 특히 성적 평균과 관련된 정보가 원본 텍스트와 상충합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 유용한 정보를 제공하지만, 사실성과 일관성에서 문제가 있어 다차원적으로 높은 품질을 보이지 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있습니다. 그러나 일부 잘못된 정보가 포함되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 정보가 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.5709663119000393</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>4.28이라는 영어 등급은 대략 2등급 정도로 추정됩니다. 동의대학교 신소재공학과에 지원하려면 몇 가지 요인을 고려해야 합니다:
+1. **전반적인 경쟁률**: 신소재공학과는 일반적으로 높은 경쟁률을 보입니다. 예를 들어, 기존 데이터에서 2024년도 모집단위의 경쟁률이 6:1 이상인 경우가 많습니다.
+2. **성적 평균**: 동의대학교 신소재공학과의 최종등록자들의 성적 평균은 대략 3.5~4.0 정도입니다. 따라서 4.28이라는 점수는 상대적으로 높지만, 경쟁률이 매우 높아서 단순히 점수가 높다고 해서 무조건 합격할 수는 없습니다.
+3. **전형방법**: 동의대학교는 다양한 전형 방법을 사용합니다. 예를 들어, &lt;나&gt;군 실기/실적(경기실적우수자전형)에서는 출결과 실적이 중요한 요소로 작용하기 때문에, 출결이 좋고 실력이 뛰어난 지원자가 유리할 수 있습니다.
+4. **추천서 및 자기소개서**: 일부 전형에서는 추천서나 자기소개서 등 서류평가가 중요하게 작용하므로, 이러한 부분에서도 좋은 평가를 받는 것이 도움이 될 수 있습니다.
+5. **추천사진 및 면접 성적**: 면접이나 실기 시험에서 좋은 성적이 나온다면 이 또한 큰 가산점이 될 수 있습니다.
+따라서 4.28이라는 점수만으로는 확실하게 합격할 수 있다고 단정 짓기는 어렵습니다. 하지만 경쟁률과 평균 성적을 고려하면, 출결이 좋고 실력도 뛰어난 지원자라면 좋은 결과를 기대할 수 있습니다.
+추천되는 조치:
+- **출결 관리**: 결석일수는 0~2일 이내로 유지하는 것이 좋습니다.
+- **실기 및 면접 준비**: 실기나 면접 시험에 대한 준비를 철저히 하세요.
+- **추천서 및 자기소개서 작성**: 서류평가에서도 좋은 평가를 받을 수 있도록 노력하세요.
+결론적으로, 4.28이라는 점수는 충분히 경쟁력을 갖춘 것으로 보이지만, 최종 합격 여부는 여러 요인에 따라 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요하지 않다는 사실을 잘 반영하고 있습니다. 그러나 "2024년 동의대학교"라는 특정 연도를 언급하면서도, 해당 연도에 대한 구체적인 정보가 부족하여 약간의 불확실성이 존재합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 자기소개서가 필요하지 않다는 내용을 유지하고 있습니다. 다만, 나군 전형에 대한 추가 정보가 포함되어 있어 약간의 일관성 문제를 유발할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높습니다. 자기소개서의 필요성에 대한 명확한 답변을 제공하고 있으며, 추가적인 정보도 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 나군 전형에 대한 추가 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하고 있습니다. 그러나 특정 전형에 대한 세부 사항이 추가되어 있어 약간의 정확성 문제가 발생할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 모두 좋은 점수를 받고 있습니다. 그러나 약간의 불확실성과 혼란이 존재합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원문과 의미적으로 잘 일치하고 있으며, 적절한 맥락을 유지하고 있습니다. 그러나 나군 전형에 대한 언급이 다소 맥락에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성을 떨어뜨릴 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.6437868055843823</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 수능 일반학생전형에서는 자기소개서가 필수적으로 요구되는 것은 아닙니다. 
+특히, 가군(일반학생전형)과 나군(실기/실적 포함)은 주로 수능 점수와 실기 성적이 핵심 평가 요인으로 작용합니다. 자기소개서는 일반적으로 필요하지 않으며, 서류평가 영역에서도 주로 학교생활기록부를 통해 학업역량과 전공적합성을 평가합니다.
+만약 나군 조기취업형 계약학과전형이나 다른 특별전형을 지원한다면 자기소개서가 필요할 수 있으므로, 해당 전형의 세부 안내를 확인해보시는 것이 좋습니다. 
+일반적으로 동의대학교의 경우, 수능 일반학생전형에서는 다음과 같은 서류만 제출하면 됩니다:
+- 학교생활기록부 (온라인 제공 동의자에게는 온라인으로 제공)
+- 검정고시 합격증서 (검정고시 출신자)
+- 외국고교 졸업증명서 및 성적증명서 (외국고교 졸업자)
+따라서, 기본적인 수능 일반학생전형에서는 자기소개서 작성은 필요하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 수능 정시 모집에 대한 합격 가능성을 평가하기 위한 여러 요소를 잘 설명하고 있으며, 원본 텍스트의 주요 내용을 반영하고 있습니다. 그러나 일부 세부 사항이 원본 텍스트에 명시된 내용과 다소 차이가 있을 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 일관되며, 추가 모집에 대한 가능성 및 고려해야 할 요소들을 잘 설명하고 있습니다. 다만, 일부 내용에서 원본 텍스트의 특정 세부 사항과의 일관성이 약간 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 정시 모집에 대한 합격 가능성을 평가하는 데 필요한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽고 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적인 흐름이 잘 유지되고 있으며, 각 요소가 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 일부 세부 사항에서 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.7282496685273167</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수가 주어졌을 때, 동의대학교 수능 정시 모집에 어떻게 대응할 수 있는지 판단하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **모집단위와 경쟁률**: 각 모집단위별로 경쟁률이 다르므로, 4.5라는 점수가 어느 정도의 경쟁력을 가질지는 모집단위에 따라 다릅니다. 예를 들어, 경쟁률이 높은 학과에서는 4.5는 낮은 점수일 수 있습니다.
+2. **모집인원 및 지원자 수**: 각 모집단위의 모집인원과 지원자의 수도 중요합니다. 모집인원이 적고 지원자가 많은 경우 경쟁률이 높아져서 4.5로는 충원되지 않을 가능성이 있습니다.
+3. **성적 분포와 평균 점수**: 각 모집단위별로 성적이 어떻게 분포되어 있는지, 그리고 평균 점수가 어느 정도인지 확인해야 합니다. 예를 들어, 평균 점수가 4.0 미만인 학과에서는 4.5는 상대적으로 높은 점수일 수 있습니다.
+4. **가산점**: 일부 모집단위에서는 수능 영역별로 가산점을 부여하기도 합니다. 예를 들어, 공과대학이나 ICT융합공과대학의 경우 수학(미적분 또는 기하) 응시자에게 수학 표준점수에 10%를 더하는 가산점이 있습니다.
+5. **추가모집 가능성**: 추가모집 여부와 일정을 확인해야 합니다. 일부 학과에서는 추가모집을 통해 지원자를 확보하기도 하므로, 추가모집 가능성을 살펴볼 필요가 있습니다.
+6. **개인적 요소**: 면접 성적이 좋다면, 이는 개인적인 경쟁력을 높일 수 있습니다. 또한, 지원동기나 학업계획 등 서류평가에서 좋은 점수를 받을 경우에도 도움이 될 수 있습니다.
+따라서, 4.5라는 점수가 충분히 들어갈 수 있는지 판단하기 위해서는 위의 요소들을 종합적으로 고려해야 합니다. 각 모집단위별로 상세한 정보를 확인하고, 필요하다면 학교 측에 문의하여 자세한 설명을 받는 것이 좋습니다.
+추가로, 동의대학교의 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)에서 최신 정보와 추가모집 관련 안내를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2024년도에 신소재공학부가 신설되었다고 언급하고 있으며, 2023년도 신소재공학부의 평균 등급에 대한 정보를 제공하고 있습니다. 그러나 2023년도에 대한 구체적인 등급 정보는 제공하지 않고, 일반적인 합격 가능성에 대한 예측을 하고 있어 일부 정보가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 2024년도 신소재공학부의 신설과 관련된 정보를 포함하고 있지만, 2023년도에 대한 정보와의 일관성이 다소 떨어집니다. 특히, 2023년도 신소재공학부의 평균 등급에 대한 구체적인 수치가 언급되지 않아 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 잘 다루고 있으며, 신소재공학부의 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 중복되거나 불필요하게 길어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 2023년도 신소재공학부의 평균 등급에 대한 정보를 제공하지 않지만, 일반적인 합격 가능성에 대한 예측은 적절합니다. 그러나 구체적인 수치가 부족하여 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 부족으로 인해 완전한 점수를 주기에는 아쉬움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 관련된 정보를 잘 포함하고 있습니다. 그러나 일부 세부사항이 부족하여 완전한 적절성은 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 그러나 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.6816334236760823</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2024년도에 동의대학교에서 신소재공학부가 신설되어 신소재공학과와 고분자나노공학과로 분리되었습니다. 하지만, 2023년도에는 신소재공학부라는 학과가 존재했으며, 그 당시의 정시 등급을 참고해야 합니다.
+2024년도에 변경된 학과들에 대한 정확한 합격 가능 등급 정보는 아직 공개되지 않았습니다. 하지만 2023년도 신소재공학부의 경우, 일반적으로 대학별로 수능 성적과 학생부 성적을 종합적으로 평가하며, 대략적인 합격 가능 범위를 예측할 수 있습니다.
+일반적으로 공과대학의 경우 국어, 수학, 영어 등급이 4등급 이상이고 탐구 과목에서 좋은 성적이 있으면 충분히 합격 가능성이 높습니다. 특히 신소재공학과와 고분자나노공학과는 기초과학적 능력이 요구되는 분야이므로, 수학 영역의 표준점수가 높은 것이 유리할 것입니다.
+2023년도 동의대학교 신소재공학부의 경우, 대략적인 합격 가능 등급을 예측하면 다음과 같습니다:
+- 국어: 4등급 이상
+- 수학(미적분 또는 기하): 5등급 이상 (가산점 반영)
+- 영어: 3등급 이상
+이러한 정보는 변경사항과 함께 제공되었으므로, 최신 정보를 확인하기 위해서는 동의대학교의 공식 웹사이트나 입학처에 문의하는 것이 가장 정확합니다. 또한, 실제 합격 가능 등급은 모집인원, 지원자 수, 경쟁률 등의 요인에 따라 변동될 수 있으므로 참고용으로만 사용하시기 바랍니다.
+더 자세한 정보를 원하신다면 https://ipsi.deu.ac.kr/main.do 웹사이트를 참조하거나 입학처로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학과의 평균 점수와 관련된 정보가 포함되어 있지만, 제공된 정보와는 다소 차이가 있습니다. 예를 들어, 평균 점수와 관련된 세부 사항이 정확하지 않으며, 작년 신소재공학과의 평균 점수에 대한 언급이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 일부 일치하지만, 추가된 정보가 원본의 핵심 내용과 일관되지 않습니다. 특히, 경쟁률과 모집 인원에 대한 정보는 원본 텍스트와 관련이 없으며, 혼란을 초래할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학과에 대한 정보를 제공하지만, 원본 텍스트의 질문에 대한 직접적인 답변이 부족합니다. 그러나 관련된 정보가 포함되어 있어 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 원본 텍스트의 질문과 관련된 정보가 명확하게 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 점수와 관련된 세부 사항이 부정확하거나 불완전합니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 정보의 정확성과 일관성에서 부족함이 있으며, 관련성은 높지만 원본 텍스트의 질문에 대한 직접적인 답변이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 주제와 관련된 정보를 제공합니다. 그러나 원본 텍스트의 질문에 대한 직접적인 답변이 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.7275501530298319</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 특정 단과대학 및 학과별 경쟁률과 충원 합격자 수, 표준점수 등이 제공되었습니다. 주어진 정보를 바탕으로 신소재공학과의 경우 다음과 같은 특징을 가집니다:
+- 모집 인원: 56명
+- 지원 인원: 81명
+- 경쟁률: 약 1.45
+- 충원 합격 (후보순위): 25명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 271.64
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 19.52
+주어진 표준점수가 447점으로 환산되었다면, 이는 상당히 높은 점수를 의미합니다. 작년에 비해 작년 신소재공학과의 최종 평균 점수가 약 1점 정도 더 높았다면, 이는 매우 극단적인 변화일 수 있습니다.
+그러나 정시 모집에서 표준점수 변동은 여러 요인에 의해 영향을 받습니다. 예를 들어:
+1. 지원자의 성적 분포가 작년과 달라질 수 있습니다.
+2. 입학사정관의 평가 기준이 바뀔 수 있습니다.
+3. 모집 단위와 학과별 경쟁률 변화 등 다양한 요인이 영향을 미칠 수 있습니다.
+따라서, 작년에 비해 약 1점 정도 더 높은 표준점수가 가능하지만, 매우 극단적인 상황일 경우 확실한 답변을 드리기는 어렵습니다. 
+더 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 가장 좋습니다. 해당 사이트에서는 최신 정보와 예상 점수 변동 등을 확인할 수 있습니다.
+https://ipsi.deu.ac.kr/main.do
+이 링크를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 경쟁률과 모집인원에 대한 언급이 있지만, 원본 텍스트에서 제공된 평균 성적과 비교하여 합격 가능성에 대한 판단이 다소 모호하게 표현되어 있습니다. 원본 텍스트는 귀하의 성적이 평균보다 높다고 명시했으나, 생성된 응답은 합격이 어렵다고 판단하고 있어 사실관계에 대한 일관성이 부족합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 상충하는 부분이 있습니다. 원본 텍스트는 귀하의 성적이 평균보다 높아 합격 가능성이 높다고 언급했으나, 생성된 응답은 합격이 어렵다고 주장하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학부에 대한 정보와 합격 가능성에 대한 조언을 포함하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 성적 데이터에 대한 언급이 부족하여 다소 떨어질 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있으나, 귀하의 성적에 대한 해석이 원본과 다르게 나타나 있어 정확성에 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있습니다. 그러나 사실관계와 일관성에서 부족함이 있어 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 맥락에 맞는 의미를 전달하고 있으며, 적절한 조언을 포함하고 있습니다. 그러나 원본의 구체적인 데이터와의 연결이 약해지는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조언을 제공합니다. 다만, 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.5591836226136266</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 4.1~4.2로 변환되면, 신소재공학과의 경우 경쟁률이 높고 모집인원도 제한적이라는 점을 고려해야 합니다.
+신소재공학과는 다음과 같은 특징이 있습니다:
+- 모집단위: 공과대학
+- 계열: 공학
+- 전형명: 가군(일반학생전형)
+- 수능 반영비율: 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+4.1~4.2의 등급으로는 경쟁률이 높은 신소재공학과에 합격하기 어렵다고 판단됩니다. 이 분야는 고득점을 요구하는 과목들이 많고, 특히 수학과 영어 등급이 중요합니다.
+추천사항:
+1. **다른 전형을 고려해보세요**: 
+   - 학생부종합전형
+   - 특기자전형 (만약 해당한다면)
+2. **대비를 해보세요**:
+   - 수능 공부 강도를 높여서 등급을 향상시키는 것을 고려해볼 수 있습니다.
+   - 추가 학습 자료나 과외 등을 통해 성적을 개선할 수 있는 방법을 찾아보세요.
+3. **대체 전공을 고려해보세요**:
+   - 다른 공학과나 인접한 분야의 전공으로도 좋은 진로를 찾을 수 있습니다.
+4. **입학사정관제를 활용해보세요**: 
+   - 입학사정관이 지원자의 전체적인 성장을 평가하여 합격 여부를 결정하는 제도입니다.
+결론적으로, 현재의 성적만으로는 신소재공학과에 합격하기 어렵다고 판단됩니다. 다른 전형이나 방법을 고려해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 성적 정보를 잘못 전달하고 있습니다. 평균 점수와 표준 편차가 모두 다르며, 특히 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균이 403.85로 잘못 기재되어 있습니다. 원본 텍스트의 평균은 301.87입니다. 이로 인해 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 성적 정보가 서로 상충하며, 원본의 데이터와 전혀 다른 수치를 제시하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 성적 정보를 다루고 있으며, 질문의 주제와 관련이 있습니다. 따라서 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되어 있습니다. 그러나 원본과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 성적 정보를 잘못 전달하고 있으며, 사실과 크게 다릅니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성, 일관성, 정확성이 매우 낮아 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제에 맞는 내용을 담고 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보 전달이 이루어졌습니다. 다만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.7392969323211814</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능 일반학생전형에 대한 최종 등록자들의 성적 정보를 참고하겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 403.85
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 15.55
+- **영어 등급의 평균**: 5.25
+- **영어 등급의 표준 편차**: 0.35
+- **수능 4개 영역 등급의 평균**: 4.87
+- **수능 4개 영역 등급의 표준 편차**: 0.17
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 434.70
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차**: 8.01
+이 정보를 바탕으로, 인공지능학과에 지원하려면 평균적인 성적을 넘어서야 합니다. 특히 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 403.85 이상이 필요하며, 영어 등급도 5.25 이상을 목표로 해야 합니다.
+만약 특정 과목의 성적이 약간 부족하다면, 다른 과목에서 더 높은 점수를 얻는 것이 유리할 수 있습니다. 또한, 가산점이 적용되는 경우도 있으므로, 해당 정보를 확인하시고 준비해보세요.
+더 자세한 정보나 추가 질문이 있다면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 5.27이라는 점수가 높은 점수라고 언급하고 있지만, 원본 텍스트에서 제공하는 정보와는 다르게 구체적인 학과와 성적 기준에 대한 언급이 부족합니다. 또한, 원본 텍스트에서 제시된 충원 합격 가능 학과 목록과는 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 특정 학과의 성적 기준을 명확히 제시하고 있지만, 생성된 응답은 일반적인 정보와 예시를 제공하며, 원본의 구체적인 내용을 반영하지 않습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 정보를 제공하려고 하지만, 원본 텍스트의 핵심 주제인 충원 합격 가능 학과에 대한 직접적인 언급이 부족하여 관련성이 떨어집니다. 그러나 일부 관련 정보는 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 나열하고 있지만, 논리적인 흐름이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 정보가 분산되어 있어 독자가 이해하기 어려울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실과 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 예를 들어, 특정 학과의 성적 기준에 대한 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 원본 텍스트의 핵심 내용을 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 구체적인 내용이 부족하여 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 전반적으로 이해할 수 있지만, 정보가 분산되어 있어 명확한 이해를 방해할 수 있습니다. 독자가 필요한 정보를 쉽게 찾기 어려울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.6758057580434255</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 영어 점수는 상당히 높은 점수입니다. 각 단과대학 및 모집단위별로 지원 가능성이 다르므로, 정확한 답변을 위해서는 몇 가지 정보가 필요합니다:
+1. **지원하는 단과대학**: 미래융합대학, 공과대학 등 다양한 단과대학이 있습니다.
+2. **모집단위**: 부동산자산경영학부, 기계공학과, 로봇자동화공학과 등 다양한 모집단위가 있습니다.
+3. **전형명**: 일반학생전형, 실기/실적(일반학생전형), 학생부종합 등 다양한 전형이 있습니다.
+4. **모집인원 및 지원자 수**: 각 단과대학 및 모집단위별로 모집인원과 지원자 수가 다르므로, 경쟁률을 고려해야 합니다.
+5. **기타 성적 정보**: 국어, 수학, 탐구 등 다른 영역의 성적도 중요합니다.
+이러한 정보를 바탕으로 추합 가능성 평가를 진행할 수 있습니다. 예를 들어:
+- **공과대학 기계공학과**는 2024년 모집인원이 37명이고, 지원 인원은 17명입니다.
+- **의료보건생활대학 간호학과**는 52명을 모집하고, 지원자는 22명입니다.
+5.27이라는 영어 점수는 상당히 높으므로, 대부분의 단과대학 및 모집단위에서 좋은 성적을 보여줄 수 있습니다. 그러나 경쟁률이 높은 곳에서는 여전히 낮은 확률일 수 있습니다.
+추합 가능성에 대한 자세한 답변을 위해서는 위의 정보를 제공해 주시거나, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크로 가서 공식 정보를 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 경쟁률에 대한 정보를 포함하고 있으며, 4.2의 수능 등급으로 지원 가능성을 언급하고 있습니다. 그러나 경쟁률에 대한 구체적인 수치가 제공되었지만, 소프트웨어공학부의 평균 등급에 대한 언급이 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 정보와 일관되며, 4.2의 수능 등급이 소프트웨어공학부의 평균 등급보다 높은 점수를 가지고 있다는 점을 잘 반영하고 있습니다. 그러나 경쟁률에 대한 언급이 추가되면서 약간의 일관성 저하가 발생했습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 소스 텍스트의 주요 주제인 소프트웨어공학부의 지원 가능성과 관련된 정보를 잘 다루고 있습니다. 경쟁률과 추가적인 자질에 대한 언급도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 경쟁률에 대한 정보가 추가되면서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 사실을 잘 반영하고 있으며, 경쟁률에 대한 정보도 정확합니다. 그러나 소스 텍스트의 평균 등급에 대한 언급이 부족하여 약간의 정확성 저하가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다. 그러나 약간의 정보 누락이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 의미와 맥락에 잘 부합하며, 지원 가능성에 대한 적절한 정보를 제공합니다. 그러나 경쟁률에 대한 언급이 추가되면서 약간의 맥락 변화가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.7174528094890431</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>4.2의 수능 등급으로 소프트웨어공학부에 지원하는 것은 가능하지만 경쟁률이 높아서 낮은 확률일 것입니다.
+소프트웨어공학부는 일반적으로 높은 경쟁률을 보입니다. 예를 들어, 위에서 제공된 데이터 중 일부 학과의 경쟁률을 살펴보면:
+- 소프트웨어공학부 - (컴퓨터소프트웨어공학, 응용소프트웨어공학): 모집인원 120명에 지원인원이 146명으로 경쟁률은 4.87입니다.
+- 컴퓨터공학과 - 교직: 모집인원 105명에 지원인원이 7명으로 경쟁률은 1.43입니다.
+따라서, 4.2의 수능 등급으로 소프트웨어공학부를 지원하는 경우:
+1. **경쟁률이 높아 확률이 낮습니다**: 경쟁률이 높기 때문에 충원 합격을 얻는 것은 어렵습니다.
+2. **추천사항이나 특별한 자질이 필요합니다**: 일반적인 수능 점수로는 충분하지 않으므로, 추가적으로 추천서나 프로젝트 경험 등이 있다면 이점으로 활용할 수 있습니다.
+결론적으로, 4.2의 수능 등급으로 소프트웨어공학부에 지원하는 것은 가능하지만, 낮은 확률을 인정하면서도 추가적인 자질이나 경험이 필요합니다. 더 자세한 정보를 얻기 위해서는 대학 입학처나 관련 학과 홈페이지를 확인하거나 전문가와 상담하는 것이 좋습니다.
+더 궁금하신 점이 있으시다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트에서 추가 정보를 찾아보실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 성적과 관련된 정보를 제공하고 있으며, 3.92라는 점수가 합격 가능성에 미치는 영향을 설명하고 있습니다. 그러나, 응답에서 제시된 정보는 다소 일반적이며, 구체적인 성적 기준이나 경쟁률에 대한 정보가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성을 유지하고 있지만, 추가적인 정보와 조건을 제시함으로써 원본 텍스트의 내용을 다소 확장하고 있습니다. 그러나, 원본 텍스트의 구체적인 수치와 비교할 때 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 화학환경공학부에 지원하기 위한 조건과 고려사항을 잘 설명하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나, 일부 정보가 중복되거나 불필요하게 길어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 3.92라는 점수에 대한 해석도 적절합니다. 그러나, 구체적인 수치나 조건에 대한 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 긍정적인 평가를 받을 수 있습니다. 그러나, 일부 세부사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 일부 정보가 다소 일반적일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나, 일부 문장이 길어져서 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.6772011703495352</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>3.92라는 점수를 가지고 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 일반 학생전형에 지원 가능한지 판단하기 위해서는 몇 가지 정보가 필요합니다:
+1. **성적 산출 방법**: 동의대학교의 정시 모집에서 성적을 어떻게 반영하는지 확인해야 합니다. 예를 들어, 국어, 수학, 영어 등 주요 과목의 표준점수와 등급 점수가 어떤 비율로 합산되는지 알아야 합니다.
+2. **모집단위별 요구사항**: 화학환경공학부 내 각 학과(화학공학과, 환경공학과, 응용화학과)의 모집인원과 지원 자격 조건을 확인해야 합니다.
+3. **성적 평균**: 3.92라는 점수는 전체 성적 중에서 어느 위치에 있는지 확인해야 합니다. 예를 들어, 해당 학과의 입학성적이 4.0 이상일 경우, 3.92는 상대적으로 낮은 점수로 지원이 어려울 수 있습니다.
+4. **전형요소**: 동의대학교의 전형요소 반영 비율을 확인해야 합니다. 예를 들어, 실기/실적, 면접 등 다른 요소가 성적이 아닌 부분에서 중요한 역할을 하는 경우, 3.92라는 점수만으로는 충분하지 않을 수 있습니다.
+5. **경쟁률**: 해당 학과의 경쟁률을 확인하여 지원 가능성을 판단해야 합니다. 경쟁률이 높다면, 성적이 조금 낮더라도 다른 요소가 우수하다면 가능성이 있을 수 있습니다.
+위 정보들을 종합적으로 고려하여 결정하는 것이 좋습니다. 만약 자세한 정보를 원하시면 동의대학교 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 공식 홈페이지를 방문하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 모집 인원, 지원 인원, 경쟁률, 성적 평균 및 표준 편차와 같은 정보를 포함하고 있지만, 이 정보는 원본 텍스트에 명시된 내용과 일치하지 않습니다. 원본 텍스트의 평균 점수는 276.61이며, 생성된 응답에서는 348.76로 잘못 기재되어 있습니다. 또한, 경쟁률에 대한 정보도 원본 텍스트에 포함되어 있지 않으므로 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 합격 가능성이 높다고 판단하고 있지만, 생성된 응답은 지원이 어렵다고 결론짓고 있습니다. 이러한 상반된 정보는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있지만, 일부 정보는 원본 텍스트와 관련이 없거나 잘못된 정보로 인해 관련성이 떨어집니다. 그러나 지원 가능성에 대한 논의는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 나열하고 있지만, 정보 간의 연결이 부족하여 일관된 흐름이 떨어집니다. 특히, 지원 가능성에 대한 결론이 원본 텍스트와 상충하여 논리적 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답의 정보는 원본 텍스트와 비교했을 때 여러 가지 부정확한 내용이 포함되어 있습니다. 특히 평균 점수와 경쟁률에 대한 정보는 원본 텍스트와 일치하지 않으며, 이는 정확성을 크게 저하시킵니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이는 다차원적인 품질 평가에서도 낮은 점수로 이어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 맥락과 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 정확성과 일관성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.630231252102181</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부에 지원하시려면, 수능(일반학생전형)을 통해 지원하실 수 있습니다. 하지만 성적과 경쟁률 등을 고려해야 합니다.
+주요 정보:
+1. **화학환경공학부 모집인원 및 지원 인원**:
+   - 모집 인원: 4명
+   - 지원 인원: 36명
+   - 경쟁률: 9.00
+2. **성적 평균 및 표준 편차**:
+   - 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균: 348.76
+   - 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 표준 편차: 5.40
+3. **성적**:
+   - 동의대식 정시 성적: 4.25
+4. **경쟁률 및 평균 점수**:
+   - 화학환경공학부는 경쟁률이 높아, 평균 점수가 348.76으로 동의대식 정시 성적 4.25보다 상당히 높습니다.
+따라서, 동의대식 정시 성적 4.25로 화학환경공학부에 지원하는 것은 어렵다고 볼 수 있습니다. 경쟁률이 매우 높고 평균 점수가 높기 때문입니다.
+**추천 사항:**
+1. **다른 학과/대학 선택**: 경쟁률을 고려하여 다른 학과나 대학을 검토해보세요.
+2. **추가 지원 방법**: 실기/실적 전형이나 특별전형 등을 고려해볼 수 있습니다.
+더 자세한 정보는 동의대학교 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 지원자의 성적이 4.2점이라고 언급하고 있으며, 이는 영화학과에 합격할 가능성이 있다고 판단하고 있습니다. 그러나 평균 점수인 4.33과 비교했을 때, 4.2점이 약간 낮다고 언급한 부분은 다소 주관적이며, 정확한 수치에 대한 정보가 부족합니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 대체로 일치합니다. 그러나 평균 점수에 대한 언급이 다소 주관적이어서 완전한 일관성을 보이지는 않습니다. 그럼에도 불구하고, 전반적으로 일관된 정보를 제공하고 있으므로 4로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊습니다. 지원자의 성적과 영화학과의 합격 가능성에 대한 정보를 제공하고 있으며, 관련된 조언도 포함되어 있어 매우 관련성이 높습니다. 따라서 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있어 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 약간 어색할 수 있어 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 지원자의 성적에 대한 정보와 영화학과의 합격 가능성에 대한 주장을 포함하고 있지만, 평균 점수와의 비교가 다소 주관적입니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 일관성에서 높은 점수를 받았습니다. 그러나 사실성과 정확성에서 다소 부족함이 있어 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 일부 주관적인 해석이 포함되어 있어 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있으므로 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.6519905821606855</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>4.33 평균 점수를 기록한 지원자들이 최초합격을 거두었으므로, 4.2점은 약간 낮은 성적입니다. 그러나 정시전형의 경쟁률이 높지 않아서 4.2점을 가지고도 충분히 합격 가능성은 있습니다.
+영화학과는 일반적으로 예술 분야로, 전공 적합성이나 창의력 등 다양한 요소를 고려하기 때문에 단순 수능 점수만으로 판단하지는 않습니다. 따라서 다음과 같은 준비가 필요합니다:
+1. **전공적합성**: 지원동기에 대해 자세히 작성하고, 영화 관련 경험과 열정을 잘 표현해야 합니다.
+2. **면접 준비**: 면접에서는 창의적인 생각과 전문 지식을 보여줄 수 있는 예시를 준비해 두세요.
+3. **추천서**: 가능하다면 교사나 전문가로부터 추천서를 받는 것이 도움이 될 수 있습니다.
+수능 점수가 약간 낮더라도, 창의성과 열정을 잘 표현한다면 합격 가능성은 높습니다. 입학사정관들이 다양한 요소를 종합적으로 평가하기 때문에, 지원서와 면접에서 전공에 대한 진심어린 관심과 적합성을 잘 보여주는 것이 중요합니다.
+추가로, 입학사정관들의 평가는 학생부 성적 외에도 창의성, 경험, 열정 등 다양한 요소를 고려하므로, 지원서 작성 시 이러한 요소들을 강조하는 것이 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 모든 단계가 원본 텍스트와 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 설명도 원본의 내용과 충돌하지 않습니다. 모든 정보가 일관되게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 면접 절차에 대한 추가적인 설명을 제공하여 주제를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 예를 들어, "기타 질의응답 (제출서류 진위 여부 등)"에서 괄호의 사용이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계와 추가 설명이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.8124458270219008</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인 
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 대부분의 면접에서 유사하게 진행되며, 각 단계별로 입학사정관 2인이 평가위원으로 참여하여 수험생의 답변 내용을 바탕으로 정성적이고 종합적으로 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/deuChatbot/research_result/version_2(2500_300).xlsx
+++ b/deuChatbot/research_result/version_2(2500_300).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20959,6 +20959,6878 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기시험의 모집단위, 종목, 배점, 준비물, 주제, 화지 크기 및 시험 시간을 모두 올바르게 설명하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 각 종목에 대한 설명이 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기시험에 대한 모든 중요한 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다. 자연스러운 표현이 사용되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 부분이 자연스럽게 연결되어 있습니다. 정보의 흐름이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이나 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.7392161733032777</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인이 모집단위로 나뉘어 진행되며, 각 분야별로 기초디자인과 사고의 전환 두 가지 종목 중 하나를 선택하여 응시하게 됩니다.
+기초디자인은 70%의 배점을 받으며, 준비물에는 볼펜, 연필, 색연필, 수채물감 등이 포함됩니다. 실기주제는 주제A와 주제B에서 각각 한 가지를 선택하여 연결된 주제로 구성되며, 당일에 추첨을 통해 결정됩니다. 예시로 잠자리와 저울이라는 주제가 있을 경우, 잠자리를 중심으로 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 등과 연결된 주제를 표현하게 됩니다.
+또한, 제공된 사물과 이미지를 표현하지 않아야 하며, 색상 변경도 금지됩니다. 화지는 켄트지3절 크기로 사용되며, 시험 시간은 5시간입니다.
+사고의 전환 역시 70%의 배점을 받으며, 준비물에는 볼펜, 연필, 색연필, 수채물감 등이 필요합니다. 실기주제는 주제A와 주제B에서 각각 한 가지를 선택하여 연결된 주제로 구성되며, 당일에 추첨을 통해 결정됩니다. 예시로 콜라병과 계절이라는 주제가 있을 경우, 콜라병을 중심으로 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼 등과 연결된 주제를 표현하게 됩니다.
+화지는 켄트지2절 크기로 사용되며, 시험 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 "각각의 종목별 배점 비율은 70%입니다."라는 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일치하지만, 배점 비율에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트에는 배점 비율에 대한 정보가 없으므로, 이로 인해 일관성이 약간 저하되었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 잘 반영하고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 문장 연결이 어색할 수 있는 부분이 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 배점 비율에 대한 추가 정보가 포함되어 있어 약간의 논리적 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 배점 비율에 대한 정보가 원본에 없기 때문에 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 좋은 점수를 받고 있습니다. 그러나 배점 비율의 추가로 인해 약간의 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 배점 비율의 추가로 인해 의미의 적절성이 약간 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 문장 연결이 어색할 수 있어 이해도에 약간의 영향을 미칠 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.804024725470965</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 기초디자인과 사고의 전환으로 나뉘며, 각각의 종목별 배점 비율은 70%입니다.
+기초디자인의 준비물은 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 잠자리와 저울을 제시하며, 화지크기는 켄트지3절이며, 시간은 5시간입니다.
+사고의 전환의 준비물 역시 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 콜라병과 계절을 제시하며, 화지크기는 켄트지2절이며, 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 누락된 정보나 잘못된 정보가 없습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9208681982245491</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 배드민턴(남)의 경우, 다음과 같은 대회가 인정대회에 포함되어 있습니다:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (주니어국제대회로 출전한 경우에 한함)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우, 다음과 같은 대회가 인정대회에 포함되어 있습니다:
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 주제A와 주제B의 내용을 정확하게 반영하고 있으며, 주제 선정 방식에 대한 설명도 포함되어 있습니다. 그러나 "시각디자인, 산업디자인, 공예디자인"이라는 언급은 원본 텍스트에 없으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제를 잘 반영하고 있지만, "시각디자인, 산업디자인, 공예디자인"이라는 추가 정보는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 주제 선정 방식과 예시도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제와 관련된 정보가 일관되게 연결되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 주제와 관련된 정보는 정확하지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본과 일치하지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.8009687232349791</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 시각디자인, 산업디자인, 공예디자인의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 제시합니다. 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+이 주제들은 당일 추첨을 통해 선택됩니다. 예시로 잠자리와 저울이라는 주제를 연결하여 디자인하는 것이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있지만, "출결의 반영 비율은 0%입니다."라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 추가된 정보인 "출결의 반영 비율은 0%입니다."는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 점수의 반영 여부에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, "출결의 반영 비율은 0%입니다." 부분이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 주제가 일관되지만 추가된 정보가 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 점수가 반영되지 않는다는 주장은 정확하지만, 추가된 비율 정보는 원본에 없는 내용이므로 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으나, 추가된 정보로 인해 일부 차이가 발생합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트에 없는 정보를 포함하고 있어 완전한 적절성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 추가된 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.7521045943356873</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 출결의 반영 비율은 0%입니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 모집 인원 수와 전형에 대한 정보를 정확하게 반영하고 있으며, 연도만 추가되었을 뿐 사실적인 내용은 변하지 않았습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.9277287345780394</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반학생전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원인 28명을 정확하게 언급하고 있으며, 원문과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 추가적인 정보도 원문과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 요구하는 정보와 직접적으로 관련이 있으며, 주제를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에 포함된 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.646173822148456</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 영어영문학과 - 교직에 대한 정보는 다음과 같습니다:
+- 단과대학: 인문사회과학대학
+- 계열: 인문사회
+- 모집단위: 영어영문학과 - 교직
+- 모집인원: 28명</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서로 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.8291031121253111</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 완벽하게 반영하고 있으며, 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.8789696517151523</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다.
+- 등급이 1일 경우, 점수는 139입니다.
+- 등급이 2일 경우, 점수는 131입니다.
+- 등급이 3일 경우, 점수는 123입니다.
+- 등급이 4일 경우, 점수는 115입니다.
+- 등급이 5일 경우, 점수는 107입니다.
+- 등급이 6일 경우, 점수는 99입니다.
+- 등급이 7일 경우, 점수는 91입니다.
+- 등급이 8일 경우, 점수는 83입니다.
+- 등급이 9일 경우, 점수는 75입니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서의 정보와 생성된 응답의 내용이 서로 모순됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있으며, 예술고 학생의 지원 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 원문과의 내용 불일치로 인해 의미가 왜곡되었습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적인 부분이 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 다르며, 예술고 학생의 지원 가능성에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 모두 낮은 점수를 받으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 없으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7364802235600554</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원 가능합니다. 전형명은 '학생부종합(농어촌학생전형)'이며, 고교유형별 지원자격에서 특수목적고의 예술고는 지원 자격에 포함되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 "남은 268~271cm"라는 부분은 사실과 다릅니다. 원본 텍스트에서는 4등급 기록이 218~221 cm로 명확히 제시되어 있습니다. 따라서 이 부분에서 큰 오류가 발생했습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. "남은 268~271cm"라는 기록은 원본과 상충하며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 주제와 관련이 있으며, 레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 "여은"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 문장 구조는 대체로 일관되지만, "남은 268~271cm"라는 부분이 원본과의 연결성을 약화시킵니다. 이로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 기록에 대한 정확한 정보를 제공하지 않으며, 원본 텍스트의 사실과 크게 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 점수를 받지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 관련이 있지만, 잘못된 정보가 포함되어 있어 적절성에 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8925846895311339</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 남은 268~271cm, 여은 218~221cm이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율에 대한 명확한 정보를 제공하지 않고 있으며, 실제로는 출결 반영 비율이 12%라는 사실이 있습니다. 따라서 응답은 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 출결 반영 비율에 대한 정보가 없다고 주장하고 있지만, 원본 텍스트에서는 명확하게 12%라는 비율이 언급되어 있습니다. 이로 인해 응답은 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 응답은 출결 반영 비율에 대한 질문에 대한 직접적인 답변을 제공하지 않으며, 다른 전형이나 학과의 출결 반영 방식에 대한 언급이 있지만, 질문의 핵심에 대한 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결되어 있지만, 주제와 관련된 정보가 부족하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 응답은 경기지도학과의 출결 반영 비율에 대한 사실을 잘못 전달하고 있으며, 이는 정확성 점수에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 응답이 낮은 점수를 받고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 응답의 의미는 어느 정도 적절하지만, 질문에 대한 직접적인 답변이 부족하여 의미 전달이 불완전합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.617127196700306</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 경기지도학과의 출결 반영 비율에 대한 명시는 없습니다. 다른 전형이나 학과에서의 출결 반영 방식이 제시되어 있지만, 경기지도학과에 특화된 출결 반영 비율은 없어 보입니다. 더 자세한 정보를 얻으려면 "https://ipsi.deu.ac.kr/main. do" 웹사이트를 참조하거나 동의대학교 입학처로 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 완벽하게 반영하고 있으며, 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.9452619784692259</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 디자인조형학과의 모집단위와 실기종목에 대한 설명이 포함되어 있어, 원본 텍스트의 내용을 잘 보완하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용과 충돌하지 않습니다. 모든 정보가 서로 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정 외에도 디자인조형학과에 대한 추가 정보를 제공하여 주제를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 자연스러운 표현이 사용되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 잘 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.4069309753036038</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024. 01. 17.(수)에 있습니다.
+디자인조형학과는 시각디자인, 산업디자인, 공예디자인이 모집단위이며, 실기종목은 기초디자인과 사고의 전환이 있습니다. 각 종목별 배점 비율은 700점(70%)입니다.
+따라서 디자인조형학과의 실기고사는 2024년 1월 17일 수요일에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가 정보를 얻기 위한 웹사이트 링크도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저 기준이 없다는 내용을 잘 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 최저 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, "제공된 정보에서"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4216967655096949</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 정보는 없습니다. 추가 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do) 웹사이트를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과에 대한 정보를 명확히 언급하지 않고 있으며, 실제로 신설된 학과 목록이 제공된 원문과 상반된 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 신설 학과 목록과 상충하는 내용을 담고 있습니다. 원문에서는 신설된 학과가 명확히 나열되어 있지만, 생성된 응답은 그러한 정보를 부정하고 있습니다. 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 질문에 대한 답변으로서 관련성이 낮습니다. 원문에서 제공된 정보와는 관련이 없고, 오히려 다른 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원문과의 관련성이 떨어지기 때문에 논리적인 흐름이 약해집니다. 원문과의 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 신설 학과 목록을 완전히 무시하고 있으며, 사실적으로 부정확한 정보를 포함하고 있습니다. 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 저하된 응답입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 질문에 대한 적절한 답변이 아닙니다. 의미적으로 부적절한 부분이 많습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원문과 관련이 없기 때문에 질문에 대한 명확한 이해를 제공하지 못합니다. 이해 가능성은 있지만, 내용의 적절성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.4386063645277665</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과 정보가 제공된 문단 내에서는 명확히 언급되지 않았습니다. 제공된 정보는 이미 존재하는 학과들의 모집 상황을 설명하고 있으며, 새로운 학과의 설립 여부에 대한 구체적인 내용은 포함되어 있지 않습니다.
+만약 동의대학교 2024학년도에 신설된 학과가 있다면, 대학 홈페이지를 방문하여 최신 정보를 확인해 보시는 것이 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 대학 공식 웹사이트로 이동하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 정확한 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 서류 70%, 면접 30%라는 사실을 완전히 무시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있으며, 전형요소 반영비율에 대한 명확한 언급이 없기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않지만, 관련된 웹사이트를 언급하여 추가 정보를 찾도록 안내하고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 부족하여 일관된 흐름을 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전형요소 반영비율에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 전형요소 반영비율에 대한 정보가 없기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 표현을 사용하고 있지만, 내용의 부정확성으로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.6932024697109338</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)에 대한 정확한 전형요소 반영비율 정보가 제공된 문건 내에서 명시되어 있지 않습니다. 더 자세한 정보를 얻기 위해서는 https://ipsi.deu.ac.kr/main.do 웹사이트를 참조하거나 동의대학교 입학처로 직접 문의해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과로 '한의예과'를 언급하고 있으나, 원문에서는 '의료·보건·생활대학', '공과대학', 'ICT융합공과대학'을 명시하고 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공하고 있습니다. 원문에서 언급된 모집단위와 생성된 응답의 내용이 서로 상충하므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하고 있으나, 원문에서 언급된 모집단위와는 관련이 없습니다. 그러나 주제는 여전히 관련이 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 원문과의 불일치로 인해 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 중간 점수를 부여합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정확한 정보를 반영하지 않고 있으며, 잘못된 학과명을 언급하고 있습니다. 따라서 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원문과 일치하지 않으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있으나, 잘못된 정보를 포함하고 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 따라서 높은 점수를 부여합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7636644256720864</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 한의예과입니다. 이 학과의 경우 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과 상충합니다. 원문에서는 수능 성적을 100% 반영한다고 했지만, 생성된 응답에서는 각 영역별로 25%씩 반영한다고 설명하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 각 과목의 비율을 다르게 제시하여 서로 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 요구하는 수능 성적 반영 방법에 대한 질문에 대한 답변을 제공하려고 하지만, 잘못된 정보를 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 원문과의 사실적 불일치로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락을 잘못 전달하고 있으며, 부적절한 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7311669640519725</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+- **반영 영역**: 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목 합)
+- **반영 비율**: 각 영역별로 25%를 반영합니다.
+따라서 총합 점수는 다음과 같이 계산됩니다:
+- 국어 표준점수 (25%) + 
+- 수학 표준점수 (25%) + 
+- 영어 등급점수 (25%) + 
+- 탐구 표준점수 (25%)
+이렇게 반영된 점수를 합산하여 최종 성적을 산출합니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 날짜와 학교 이름이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬운 문장으로 잘 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.9128408788063518</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다는 사실을 잘못 전달하고 있으며, 레저스포츠학과와 태권도학과가 제외되었다고 잘못 언급하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 특정 학과가 제외된다고 명시하고 있지만, 생성된 응답에서는 다른 학과가 제외되었다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 관련된 내용을 다루고 있지만, 주제에서 벗어난 정보(가군 실기/실적 전형 요소 반영 비율 등)를 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 주제가 전환되면서 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 이는 정확성 점수에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받고 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 내용을 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 부분이 있지만, 내용의 혼란으로 인해 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.5854144304047744</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 레저스포츠학과와 태권도학과는 제외되었습니다. 이는 가군 실기/실적(일반학생전형) 전형요소 반영비율에서 확인할 수 있습니다. 가군 실기/실적(일반학생전형)에서는 레저스포츠학과와 태권도학과가 모집단위로 포함되며, 이들 학과의 경우 수능은 30%를 차지하고 실기는 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다. 추가적인 정보도 제공하고 있지만, 원본의 사실을 왜곡하지 않습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다. 모든 정보가 일관되게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저기준에 대한 질문에 대한 직접적인 답변을 제공합니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 전반적으로 매우 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.761790722574451</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 모든 전형요소 반영비율에서 공통적으로 나타나는 특징입니다. 자세한 내용은 제공된 정보를 바탕으로 확인하실 수 있습니다. 추가로 궁금하신 점이 있다면 https://ipsi. deu. ac. kr/main. do 를 참조해보시거나 문의주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 대부분의 학과 분리 정보를 정확하게 반영하고 있지만, "디자인공학부"가 "디자인조형학과"로 잘못 표기되었고, "모집중지"라는 정보는 원본 텍스트에 포함되어 있지 않으므로 일부 사실성이 떨어진다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 대체로 일치하지만, 일부 학과의 명칭이 다르게 표현되거나 추가 정보가 포함되어 있어 일관성이 떨어진다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 학과 분리에 대한 정보를 직접적으로 다루고 있어 매우 관련성이 높다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 표현에서 약간의 어색함이 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 분리 정보를 명확하게 전달하고 있다. 그러나 일부 문장 연결이 매끄럽지 않을 수 있다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 정보를 정확하게 전달하고 있지만, 몇 가지 학과 명칭의 오류가 있어 완전한 정확성에는 미치지 못한다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 일부 사실성과 일관성에서 약간의 부족함이 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현에서 약간의 차이가 있어 완전한 적절성에는 미치지 못한다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.8353519210224325</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과들이 학부에서 학과로 분리되었습니다.
+1. 보육·가정상담학부 → 아동학과
+2. 경제금융보험학부 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학부 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인조형학과(서양화·한국화·환경조형) → 모집중지
+위와 같이 여러 학과들이 분리되었습니다. 더 자세한 정보가 필요하시다면 https://ipsi. deu. ac. kr/main. do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일이 2024년 1월 6일(토) 18시라는 사실을 정확하게 반영하고 있습니다. 그러나 "인터넷"이라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 "인터넷"이라는 표현이 추가되어 있어 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 원서접수 마감일에 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만 "18시까지"라는 표현이 중복되어 있어 약간의 어색함이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따르고 있습니다. 그러나 "인터넷"이라는 추가 정보가 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, "인터넷"이라는 정보는 원본에 없으므로 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 약간의 부정확성과 일관성 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 원본 텍스트의 맥락과 잘 맞습니다. 그러나 "인터넷"이라는 추가 정보가 맥락을 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확합니다. 그러나 중복된 표현이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.9224088514256767</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수(인터넷)의 마감일은 2024년 1월 6일(토)까지 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 학생부종합(성인학습자전형)의 평가 기준이 변경되었다고 언급하고 있지만, 원본 텍스트에서는 전형 요소 변화에 대한 구체적인 내용이 포함되어 있지 않으며, 다른 전형들에 대한 정보도 누락되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 전형 요소 변화에 대한 정보가 불완전합니다. 원본 텍스트는 여러 전형에 대한 변화를 설명하고 있지만, 생성된 응답은 특정 전형에만 초점을 맞추고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전형 요소 변화에 대한 포괄적인 설명이 부족하여 관련성 점수는 중간입니다. 원본 텍스트의 여러 전형에 대한 정보가 누락되었습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 여러 전형에 대한 정보가 누락되어 있어 전체적인 일관성이 떨어집니다. 따라서 점수는 중간입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 정확하게 반영하지 않으며, 전형 요소 변화에 대한 정보가 불완전합니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서의 품질이 낮으며, 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로 적절하지만, 원본 텍스트의 내용을 충분히 반영하지 못하고 있어 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 이해하기 쉬우며, 명확하게 작성되어 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.7166815140652072</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형은 학생부종합(성인학습자전형)입니다. 이 전형의 서류 평가 영역별 세부 평가 기준에서, 공동체역량, 학업역량, 전공적합성 모두 평가 요소와 평가 기준이 변경되었습니다.
+- **공동체역량**은 '협업능력'으로 변경되었고, 평가 기준도 '공동체 목표를 위한 협력적 태도, 나눔과 배려, 학교폭력 여부'로 바뀌었습니다.
+- **학업역량**은 '학업에 대한 흥미 및 주도적 노력, 수업시간 적극적 참여, 학업에 대한 성취정도, 학년별 성적 추이'로 평가 기준이 변경되었습니다.
+- **전공적합성**은 '지원전공(계열) 관련 활동과 경험, 지원전공(계열) 관련 학업의지, 학교생활의 적극적 참여'로 평가 기준이 바뀌었습니다.
+위와 같이 2024학년도에 전형 요소 변화가 있는 전형은 학생부종합(성인학습자전형)이며, 이 전형에서 평가 영역별 세부 평가 기준이 변경되었습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일치합니다. 추가적으로 수능 비중이 30%라는 정보도 포함되어 있어 사실성을 높입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 실기 비중에 대한 정보가 서로 충돌하지 않습니다. 모든 정보가 조화롭게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 실기 비중에 대한 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 매끄럽습니다. 전반적으로 유창한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다. 독자가 쉽게 이해할 수 있도록 잘 정리되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 따라서 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.8279405514863314</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다. 이는 전형요소 반영비율에서 수능이 30%, 실기가 70%로 설정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 라이프융합학부의 세부 전공을 정확하게 나열하고 있으며, 원본 텍스트의 내용을 충실히 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보(스마트호스피탈리티학과)도 관련성이 있어 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 라이프융합학부의 세부 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 추가된 정보도 관련성이 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.7924902710921546</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 스마트호스피탈리티학과와 라이프융합학부가 있습니다. 이 중에서 라이프융합학부의 세부 전공은 다음과 같습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이러한 세부 전공들은 미래 융합 분야에서 필요한 다양한 역량을 기르기 위해 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '체육학과'와 '레저스포츠학과'만 언급되어 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트에 명시된 학과와 다르게 '태권도학과'를 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 일정과 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 학과 목록과는 다소 차이가 있습니다. 그러나 실기고사와 관련된 추가 정보를 제공하여 어느 정도 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. '태권도학과'는 원본 텍스트에 포함되어 있지 않으므로 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성과 일관성에서 큰 문제를 보이고 있습니다. 그러나 유창성과 일관성은 어느 정도 유지되고 있어 낮은 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 특히 잘못된 학과 정보로 인해 의미 전달이 부정확합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.6490888522883094</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사에 참여해야 하는 학과는 레저스포츠학과와 태권도학과입니다. 이들 학과는 가군 실기/실적(일반학생전형)으로 모집되며, 실기고사는 2024년 1월 16일에 진행됩니다.
+참고로, 해당 일정은 다음과 같습니다:
+- **일정**: 2024. 01. 16.(화)
+- **비고**: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+따라서, 레저스포츠학과와 태권도학과를 지원하는 학생들은 이 일정을 참고하여 준비하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정확한 정보를 제공하지 않고, 실제 지원 가능한 학과 목록과는 전혀 다른 학과를 언급하고 있습니다. 원본 텍스트에 명시된 학과들(레저스포츠학과, 태권도학과 등)은 언급되지 않았고, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과에 대한 정보를 제공하고 있습니다. 원본 텍스트의 내용과 상충하는 정보가 포함되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 질문에 대한 답변을 시도하고 있지만, 제공된 정보가 원본 텍스트와 관련이 없고, 주제에서 벗어난 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나쁘지 않지만, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약해집니다. 주제와 관련된 정보가 부족하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어지는 응답입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 제공된 정보가 원본 텍스트와 일치하지 않기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.5292593897866676</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '경기실적우수자전형'은 주로 특정 학과에 적용됩니다. 제공된 정보를 바탕으로, 실기/실적 위주 전형을 지원할 수 있는 학과는 ICT융합공과대학의 게임공학과와 영화학부가 해당될 가능성이 높습니다.
+게임공학과의 경우:
+- 모집인원: 3명
+- 지원인원: 16명
+- 경쟁률: 5.33
+영화학과의 경우:
+- 모집인원: 5명
+- 지원인원: 11명
+- 경쟁률: 2.20
+이 두 학과는 실기/실적 위주 전형을 통해 지원할 수 있는 학과로 보입니다. 그러나 정확한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 대학 측에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: '스마트업창업투자학'이라는 전공은 '스타트업창업투자학'으로 잘못 표기되어 있어 약간의 부정확성이 있지만, 나머지 전공과 신설된 학부에 대한 정보는 정확합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 전공 목록과 신설된 학부에 대한 언급은 일관성이 있지만, '스마트업창업투자학'이라는 표현이 원문과 다르기 때문에 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제공하는 전공 목록과 신설된 학부에 대한 정보를 잘 반영하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽지만 '스마트업창업투자학'이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 전공과 학부에 대한 설명이 일관되지만, 약간의 어색함이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공의 대부분은 정확하지만, '스마트업창업투자학'이라는 잘못된 명칭이 포함되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답의 의미는 원문과 잘 맞지만, '스마트업창업투자학'이라는 표현이 원문과 다르기 때문에 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 어색하여 완전한 명확성은 아닙니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.9014552564560692</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다.
+1. 스마트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+또한, 이 학부는 신설된 것으로 보입니다. 각 전공은 특정 분야의 지식과 기술을 습득할 수 있는 교육 프로그램을 제공합니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 농어촌학생전형에 대한 언급이 없고, 중국어 부분이 포함되어 있어 다소 혼란스러울 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답의 일부는 원문과 일치하지만, 중국어로 된 부분이 포함되어 있어 일관성이 떨어집니다. 원문에서 제공된 정보와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다룬 주제와 관련이 깊으며, 일반학생전형에 대한 지원 가능성에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 유창하게 작성되었으나, 중국어 부분이 포함되어 있어 한국어 사용자에게는 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으나, 중국어 부분이 포함되어 있어 전체적인 일관성이 약간 떨어집니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원문에서 제공된 정보와 대체로 정확하지만, 농어촌학생전형에 대한 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 차원에서 양호하나, 중국어 부분이 포함되어 있어 다소 혼란스러울 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답의 의미는 대체로 적절하지만, 중국어 부분이 포함되어 있어 맥락에 맞지 않는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 중국어 부분이 포함되어 있어 일부 사용자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.616791774922007</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你是特殊目的高中学生，根据提供的信息，你可以尝试以一般学生身份申请동의大学的学生部综合招生。但是具体能否申请还需要确认东义大学的各个专业的具体招生要求和限制条件。
+如果想进一步确认，请访问东义大学官网 https://ipsi. deu. ac. kr/main. do ，查看最新的招生简章或直接联系学校的招生办公室进行咨询。
+특수목적 고등학교 학생으로서 동의대학교 일반학생전형으로 지원이 가능한 것으로 보입니다. 하지만 각 전공별 정확한 지원 가능 여부는 동의대학교의 최신 입학규정을 확인하거나, 대학 입학처에 직접 문의하여 확인하는 것이 좋습니다.
+따라서, 동의대학교 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 방문하여 가장 최신의 입학 정보를 확인하시거나, 입학처에 연락하여 자세한 내용을 확인하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 중어중국학과의 모집 인원을 46명으로 언급하고 있지만, 원문에서는 32명으로 명시되어 있습니다. 이는 명백한 사실 오류입니다. 또한, 공과대학 신소재공학과에 대한 언급이 없어서 정보가 불완전합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공하고 있습니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과라고 명시되어 있지만, 생성된 응답은 중어중국학과만 언급하고 있습니다. 이는 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있으며, 동의대학교 나군 전형에서 가장 많이 모집하는 학과에 대한 정보를 제공합니다. 그러나 원문에서 언급된 신소재공학과에 대한 정보가 누락되어 있어 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원문과의 불일치로 인해 완전한 일관성을 갖추지 못했습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 중어중국학과의 모집 인원에 대한 잘못된 정보를 제공하고 있으며, 원문에서 언급된 다른 학과에 대한 정보가 누락되어 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 부족한 점이 많습니다. 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 원문과의 불일치로 인해 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 정보의 정확성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.746828717391299</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보면, 중어중국학과 - 교직이 정원 내 모집 인원 46명으로 가장 많은 인원을 모집하고 있습니다. 이와 함께 다른 학과들도 각각의 정원 내 모집 인원이 있지만, 중어중국학과가 가장 많습니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **중어중국학과 - 교직**입니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 완전히 반대하는 내용을 담고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 특수목적고 출신자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원 가능하다고 주장합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 관련된 추가 정보를 포함하고 있습니다. 따라서 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 가지고 있으며, 질문에 대한 답변으로서 일관성을 유지하고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 일관성에서 큰 문제를 가지고 있지만, 관련성과 유창성은 어느 정도 유지하고 있습니다. 그러나 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 그러나 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.6191791373831402</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교의 학생부교과 농어촌학생전형으로 지원 가능합니다. 전형 자격에 따라 일반고등학교나 자율고등학교 등 다양한 고등학교 출신 학생들이 지원할 수 있으며, 특수목적고등학교 출신 학생들도 포함됩니다.
+만약 추가로 궁금한 사항이 있으시다면 https://ipsi. deu. ac. kr/main. do를 참조하시거나 문의해주세요.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 소프트웨어공학부 합격자 평균 성적에 대한 정보가 제공되지 않았다는 사실을 언급하고 있지만, 추가로 제공된 정보(국어 + 수학 + 탐구의 평균 점수 및 영어 등급 평균)는 원본 텍스트에 포함되어 있지 않은 내용입니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분도 있지만, 추가된 정보가 원본 텍스트와 모순되는 부분이 있습니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 점수를 제공하고 있습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 추가적인 정보를 제공하려는 시도가 있습니다. 그러나 원본 텍스트에서 요청한 정보와는 다소 차이가 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있는 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해져서 일관된 흐름이 부족합니다. 추가된 정보가 원본 텍스트와의 논리적 연결을 약화시킵니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 평균 성적에 대한 구체적인 수치를 제공하는 것은 사실과 다릅니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 정보가 원본의 맥락을 벗어나므로 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 관계가 약해져서 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.7389041475056538</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부의 합격자 평균 성적 정보가 제공되지 않았습니다. 다른 관련 정보는 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 309.71입니다.
+- 영어 등급의 평균은 3.71입니다.
+만약 소프트웨어공학부 합격자들의 평균 성적을 알고 싶다면, 해당 정보를 제공하는 공식 웹사이트나 관련 문서를 확인해보시는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원본 텍스트와 상반되는 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순되는 정보를 제공하고 있습니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적 수치를 제시하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있으며, 생성된 응답은 구체적인 성적 정보를 제공하고 있어 주제와 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비일관성이 존재합니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있으므로 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모든 면에서 매우 낮은 점수를 받습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.5234869216949578</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다. 또한, 영어 등급의 평균은 3.30이며, 수능 4개 영역 등급의 평균은 4.12입니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 다르게 추가적인 정보를 포함하고 있으며, 일부 날짜와 시간에 대한 정보가 잘못 기재되어 있습니다. 예를 들어, 최초 합격자 등록 날짜가 원본에 명시되어 있지 않으며, 충원 합격자 발표 시간도 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서 제공된 정보와는 다른 내용이 포함되어 있어, 서로 모순되는 부분이 존재합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보가 포함되어 있어 원본의 핵심 내용에서 벗어난 부분이 있습니다. 그러나 여전히 발표 일정에 대한 정보를 제공하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 일관된 흐름을 가지고 있지만, 원본 텍스트와의 차이로 인해 논리적인 연결이 약간 약해졌습니다. 특히, 추가된 정보가 원본의 흐름을 방해할 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않고 있으며, 잘못된 날짜와 시간 정보가 포함되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트와의 차이로 인해 일부 내용이 부적절하게 느껴질 수 있습니다. 특히, 추가된 정보가 원본의 맥락과 맞지 않는 경우가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8707219491153702</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>2024년 합격자 발표 일정은 다음과 같습니다.
+1. 최초 합격자 발표 및 등록 : 2024년 2월 2일 금요일 오후 2시에 홈페이지에서 개별 조회 가능합니다.
+2. 최초 합격자 등록 : 2024년 2월 7일 수요일부터 13일 화요일까지 (은행 마감 시간 내) 입금이 가능합니다.
+3. 충원 합격자 1차 발표 및 등록 : 각각 2024년 2월 14일 수요일 오전 9시와 오후 4시에 홈페이지에서 개별 조회가 가능하며, 이날 오후 4시까지 입금이 가능합니다.
+4. 충원 합격자 2차 발표 및 등록 : 각각 2024년 2월 15일 목요일 오전 9시와 오후 4시에 홈페이지에서 개별 조회가 가능하며, 이날 오후 4시까지 입금이 가능합니다.
+5. 충원 합격자 3차 이후 발표 및 등록 : 각각 2024년 2월 15일 목요일 저녁 7시부터 20일 화요일 오후 6시까지 개별 전화 통보를 통해 이루어집니다.
+이상의 일정을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사의 일정에 대한 구체적인 날짜와 시간이 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 "2024. 01. 20.(토)"라는 날짜가 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충합니다. 원본 텍스트는 면접고사의 일정이 명확하게 제시되어 있지만, 생성된 응답은 그 정보를 부정하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 질문에 대한 답변으로 보이지만, 원본 텍스트의 핵심 정보를 무시하고 일반적인 정보로 대체하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 명확하지 않아 논리적인 흐름이 약간 부족합니다. 원본의 정보를 반영하지 않기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 면접고사의 일정에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 못하고 있습니다. 면접고사 일정에 대한 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3319625119042762</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 면접고사의 일정에 대한 구체적인 날짜와 시간이 포함되어 있지 않습니다. 면접일정은 일반적으로 입학사정관의 평가를 위해 특정 날짜와 시간을 정합니다. 이 정보는 대학 홈페이지나 학생부종합전형 안내서에서 확인할 수 있습니다.
+만약 구체적인 일정이 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 대학의 공식 웹사이트를 방문하여 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 왜곡하고 있습니다. 응답에서는 최저학력 기준이 적용될 것으로 추정된다고 언급하고 있지만, 이는 원문과 상충하는 내용입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 최저학력 기준이 없다고 명확히 언급하고 있는데, 생성된 응답은 이를 부정하는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 한의예과의 최저학력 기준에 대한 질문에 관련된 정보를 제공하고 있으나, 원문과의 일치성 부족으로 인해 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 다소 부족합니다. 원문과의 불일치로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 최저학력 기준이 없다는 사실을 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답이 원문과의 일치성 부족으로 인해 전반적으로 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5284750179941415</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력기준에 대한 내용이 직접적으로 언급되어 있지 않습니다. 하지만, 전형요소 반영비율에서 "나군 수능(일반학생전형) 한의예과(수학(미적분/기하),수학(확률과 통계))"라는 항목을 확인할 수 있습니다. 이 항목에서는 수능 최저기준이 언급되어 있지 않으므로, 일반적으로 한의예과의 경우 수능 최저학력 기준이 적용될 것으로 추정됩니다.
+더 정확한 정보를 얻기 위해서는 공식 입학 안내 홈페이지 (http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com)를 참조하시거나, 직접 학교 입학관리팀에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 무시하고, 일반적인 수능 최저학력 기준에 대한 정보를 제공하고 있습니다. 이는 원문과 상충되는 내용입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 수능 최저학력 기준이 없다는 점을 간과하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저학력 기준에 대한 일반적인 정보를 제공하지만, 원문에서 요구하는 특정 정보와는 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 잘못 전달하고 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 원문과의 불일치가 발생하고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족하여 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.4999282152144967</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024년도에 대한 정확한 수능 최저학력 기준 정보가 제공되지 않았습니다. 일반적으로 수능 최저학력 기준은 대학마다 다르며, 지원하는 학과와 전형 방식에 따라 달라질 수 있습니다.
+이 정보를 확인하려면 공지된 전형일정이나 입학처 홈페이지를 참조하시거나, "https://ipsi. deu. ac. kr/main. do" 링크에서 최신 정보를 확인해보시는 것이 좋습니다. 해당 페이지에서는 각 학과별 모집인원, 지원 자격 조건 등에 대한 자세한 내용을 확인하실 수 있습니다.
+특히 정시 전형의 경우, 수능 최저학력 기준이 적용되므로 입학처 홈페이지에서 공식 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 충원합격자 발표일과 2차 충원합격자 발표일을 누락하고, 3차 이후 발표일에 대한 정보는 포함하고 있지만, 1차 발표일이 잘못된 정보로 제시되었습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정보가 일치하지만, 1차 발표일이 잘못 기재되어 있어 일관성이 떨어집니다. 전체적으로는 일관성이 있지만, 중요한 세부사항에서 불일치가 있어 3점으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하며, 충원합격자 발표 일정에 대한 질문에 적절하게 답변하고 있습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있어 4점으로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 정보의 흐름이 매끄럽지 않아 4점으로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 1차 발표일이 잘못 기재되어 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 양호한 품질을 보이지만, 사실성과 정확성에서 일부 문제가 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 주제와 관련된 내용을 잘 전달하고 있습니다. 그러나 일부 세부사항에서 부정확성이 있어 4점으로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 정보를 전달하고 있습니다. 다만, 일부 표현이 다소 복잡할 수 있어 4점으로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.8248354118160303</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 2024년 2월 15일(목) 09:00입니다.
+이 정보는 전형일정에서 확인할 수 있으며, "전형일정에서 내용은 합격자 발표 및 등록금 납부 충원 합격자 3차 이후 (개별 전화 통보) 발표이며, 일정은 2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지"라고 명시되어 있습니다.
+하지만 주의할 점은 이 발표는 개별 전화 통보를 통해 이루어진다는 것입니다. 따라서 정확한 시간을 알기 위해서는 개별적으로 연락을 받으실 필요가 있습니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 안내만 포함하고 있습니다. 원본 텍스트에 명시된 날짜와 시간을 정확히 반영하지 않기 때문에 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 충원합격자 발표 일정에 대한 구체적인 정보를 제공하지 않고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 추가합격자 발표에 대한 정보를 제공하려고 하지만, 원본 텍스트의 구체적인 일정과는 관련이 적습니다. 다소 관련성이 있지만, 핵심 정보를 놓치고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 정보와는 관련이 적어 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 잘못된 정보가 포함되어 있지 않지만, 필요한 정보를 제공하지 않기 때문에 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.4229392431571955</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>2024학년도 주요 변경사항에서 추가합격자 발표에 대한 정보가 직접 제공되지 않았습니다. 추가합격자 발표 일정은 일반적으로 대학의 입시 홈페이지를 통해 공지되며, 정확한 날짜는 아직 알려져 있지 않습니다.
+추가합격자 발표일을 확인하려면, 해당 대학의 입시 홈페이지(https://ipsi. deu. ac. kr/main. do)를 방문하여 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 정보가 없다고 주장하지만, 원본 텍스트에서는 추가 모집에 대한 명확한 설명이 포함되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 제공하는 정보와 상충하는 내용을 포함하고 있습니다. 
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본의 핵심 내용을 무시하고 있습니다. 추가 모집에 대한 정보가 명시되어 있다는 점을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 중요한 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락을 잘못 이해하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.404021068885529</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 추가 모집에 대한 내용이 명시되어 있지 않습니다. 추가 모집에 대한 자세한 정보를 얻으려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 일부 정보를 포함하고 있지만, 원본 텍스트의 세부사항(예: 모집단위, 모집인원, 제출기간 및 장소 등)을 누락하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 요소와 일치하지만, 전형의 구체적인 세부사항이 누락되어 있어 일관성이 떨어집니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있으며, 주제와 관련이 있습니다. 그러나 원본 텍스트의 모든 주요 포인트를 다루지 않기 때문에 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 세부사항이 누락되어 있어 완전한 일관성을 제공하지는 않습니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 중요한 세부사항이 누락되어 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 유창성과 관련성에서 높은 점수를 받았지만, 사실성과 일관성에서 다소 부족하여 다차원 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 세부사항이 누락되어 있어 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 따라서 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.674923749274048</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형은 다양한 경력과 학력을 가진 성인을 대상으로 하는 입학 전형입니다. 이 전형에서는 지원자의 학업역량, 공동체역량, 전공적합성 등을 종합적으로 평가합니다.
+1. **제출서류**:
+   - 고교 졸업(예정)자: 고교 학교생활기록부 1부
+   - 검정고시 출신자: 검정고시 합격증서 사본 또는 합격증명서 1부, 검정고시 성적증명서 1부
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업(예정)증명서 1부, 공증받은 외국고교 성적증명서 1부
+2. **전형요소 반영비율**:
+   - 학생부종합(평생학습자전형): 서류 70%, 면접 30%
+3. **면접평가 영역 및 배점**:
+   - 학업역량: 문제해결능력, 1등급 180점, 2등급 166.5점, 3등급 153점, 4등급 139.5점, 5등급 126점
+   - 전공적합성: 진로정보 탐색능력, 1등급 120점, 2등급 111점, 3등급 102점, 4등급 93점, 5등급 84점
+4. **면접평가 방법**:
+   - 면접종류: 개별면접
+   - 면접시간: 1인당 10분 이내
+   - 면접방법: 입학사정관 2인이 평가위원이 되어 수험생 1명을 대상으로 개별적 평가
+5. **동점자 처리기준**:
+   - 순위 1: 면접고사 성적 상위자
+   - 순위 2: 서류평가 공동체역량 영역 성적 상위자
+   - 순위 3: 서류평가 전공적합성 영역 성적 상위자
+이러한 정보를 바탕으로 평생학습자전형에 지원할 수 있습니다. 추가로 궁금한 점이 있다면 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 구체적인 세부사항을 포함하고 있지만, 원본 텍스트에서 언급된 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"라는 기본적인 지원자격을 넘어서는 추가적인 정보가 포함되어 있습니다. 이로 인해 원본 텍스트의 핵심 사실이 왜곡되었으며, 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 지원자격을 포함하고 있지만, 추가적인 조건과 세부사항이 포함되어 있어 일관성이 떨어집니다. 원본 텍스트의 간단한 지원자격 설명과는 달리, 생성된 응답은 복잡한 조건을 제시하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 세부사항이 포함되어 있어 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다. 그러나 여전히 관련된 정보를 제공하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어져서 약간의 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 조건을 나열하고 있지만, 각 조건 간의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 따라서 점수는 중간 정도로 평가됩니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 기본적인 사실을 포함하고 있지만, 추가적인 조건과 세부사항이 포함되어 있어 정확성이 떨어집니다. 원본 텍스트의 핵심 사실이 왜곡되었기 때문에 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 부족한 점이 많습니다. 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가적인 세부사항이 포함되어 있어 원본의 의도와는 다소 다를 수 있습니다. 따라서 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 복잡한 조건이 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.7396138120608796</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. **고교 졸업(예정)자**:
+   - 고교 학교생활기록부 1부를 제출합니다.
+   - 학생부 온라인 제공 동의자가 있는 경우, 제출할 필요가 없습니다.
+2. **검정고시 출신자**:
+   - 검정고시 합격증서 사본 또는 합격증명서 1부를 제출합니다.
+   - 검정고시 성적증명서 1부를 제출합니다.
+   - 학교생활기록부 대체 서류(제출 여부 선택 가능)를 제출합니다.
+3. **외국고교 졸업(예정)자**:
+   - 공증받은 외국고교 졸업(예정)증명서 1부를 제출합니다.
+   - 공증받은 외국고교 성적증명서 1부를 제출합니다.
+   - 학교생활기록부 대체 서류(제출 여부 선택 가능)를 제출합니다.
+   *주의사항:*
+   - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부해야 합니다.
+   - 모든 서류는 원본 제출을 원칙으로 합니다. 단, 원본 재발급이 불가능한 유일본의 경우 원본 제시 후 원본대조필이 가능합니다.
+4. **재직자**:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 합니다.
+   - 지원 자격 증빙서류 상으로 증명되는 기간만 산정됩니다.
+   - 중복되는 기간은 이중으로 합산하지 않습니다.
+5. **산업체 적용 범위**:
+   - 국가·지방자치단체 및 공공단체(소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+6. **군 의무복무 경력**:
+   - 재직기간으로 인정됩니다.
+위와 같은 자격을 갖춘 지원자는 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 명확히 제공되지 않았다고 언급하고 있지만, 원문에서는 해당 정보가 명확히 제시되어 있습니다. 또한, 체육학과의 실기고사 종목에 대한 정보는 원문과 관련이 없으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보(체육학과의 실기고사 종목)를 포함하고 있으며, 원문에서 제공된 정보와 상충하는 내용을 담고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 실기고사에 대한 정보를 제공하고 있지만, 원문에서 요구하는 대기실 및 입실시간에 대한 정보와는 관련이 적습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결성이 부족하여 일관된 흐름이 떨어집니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 정확한 정보를 반영하지 않고 있으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 낮게 평가됩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 원문과의 일치성이 떨어지며, 정보의 정확성 및 일관성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 실기고사에 대한 정보를 제공하지만, 원문에서 요구하는 정보와는 다소 동떨어져 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 관련성이 떨어져 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.4500374277648428</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사에 대한 정보는 주어진 문맥에서 명확히 제공되지 않았습니다. 체육학과의 실기고사에서는 제자리 멀리뛰기, 메디신볼 던지기, Z-런 중 하나를 시험합니다. 그러나 특정 과목(예: 경기지도학과)의 실기고사는 다른 종목을 시험할 수 있습니다.
+실제로는 각 학과별로 실시되는 실기고사의 종목이 다릅니다. 따라서, 정확한 정보를 얻으려면 해당 학과의 공식 웹사이트나 입학처에 문의하는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사에 대한 구체적인 정보(종목 및 배점)를 제공하지만, 원본 텍스트에서 언급된 대기실 및 입실시간에 대한 정보는 포함되어 있지 않으며, 실기고사 진행 방식에 대한 정보는 원본과 관련이 없습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 대기실 및 입실시간에 대한 정보만을 제공하는 반면, 생성된 응답은 실기종목과 배점에 대한 정보를 포함하고 있어 서로 다른 주제를 다루고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 대기실 및 입실시간에 대한 정보에 집중하고 있지만, 생성된 응답은 실기고사 진행 방식에 대한 정보를 제공하고 있어 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 원본에서 제공된 정보(대기실 및 입실시간)에 대한 언급이 없습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 주제에서 벗어난 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.2988832769562353</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+- 모집단위: 체육학과
+- 실기종목: 제자리 멀리뛰기, 메디신볼 던지기, Z-런 중 하나 선택
+- 종목별 배점(비율): 
+  - 제자리 멀리뛰기: 240점 (24%)
+  - 메디신볼 던지기: 243점 (23%)
+  - Z-런: 230점 (23%)
+따라서 체육학과를 지원하는 학생들은 이 중 하나의 실기고사를 치르게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 개별 전화 통보가 이루어질 것이라고 언급하고 있습니다. 이는 원문과 상충하는 내용입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 3차 이후에만 개별 전화 통보가 이루어진다고 명시하고 있으나, 생성된 응답에서는 발표 이후에 개별 전화 통보가 이루어질 것이라고 하여 모순이 발생합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 정보를 제공하고 있으나, 원문에서 강조하는 전화 통보에 대한 내용과는 다소 차이가 있습니다. 그러나 전체적으로 주제와 관련이 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전체적으로 일관된 흐름을 가지고 있으나, 원문과의 불일치로 인해 논리적 일관성이 떨어집니다. 특히 전화 통보에 대한 언급이 원문과 상충하여 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 사실적으로 일치하지 않습니다. 전화 통보에 대한 잘못된 정보가 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 원문과의 불일치가 많아 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 담고 있으나, 원문과의 의미적 일관성이 부족하여 적절성에서 다소 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.5971713150519935</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 충원합격자 발표가 이루어집니다. 이 시점 이후에 합격자에게 개별 전화 통보가 이루어질 것으로 보입니다. 하지만 정확한 절차와 방법은 공지된 일정과 입학 안내 홈페이지를 참고하시거나, https://ipsi. deu. ac. kr/main. do 링크에서 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수시모집 결과에 대한 정보가 없다는 점을 반복적으로 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수시모집 결과에 대한 정보 요청에 적절히 대응하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달되고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.8348856900705491</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 문서 내에서 직접적으로 언급되어 있지 않습니다. 제공된 정보 중에서는 학과 분리, 학과 명칭 변경 등 주요 변경사항들이 나와 있지만, 특정 학과의 수시모집 결과는 포함되어 있지 않습니다.
+만약 2023학년도 경찰행정학과의 수시모집 결과를 알고 싶다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인하거나, 입학처에 직접 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않은 학생도 지원할 수 있다고 주장하고 있지만, 이는 원문과 상반되는 내용입니다. 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문이 명확히 수능 응시 여부에 따라 지원 가능성을 제한하고 있는 반면, 생성된 응답은 수능에 응시하지 않은 학생도 지원할 수 있다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 주된 질문에 대한 답변이 아닌 잘못된 정보를 제공하고 있습니다. 따라서 관련성 점수는 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 중국어가 포함되어 있어 한국어 문맥에서 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 수능 응시 여부와 관련된 정보가 혼재되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 정반대의 내용을 담고 있어 정확성이 매우 낮습니다. 수능에 응시하지 않은 학생이 지원할 수 있다는 주장은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않는 내용을 포함하고 있어 의미적으로 부적절합니다. 원문이 전달하고자 하는 메시지와 상충합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있는 내용이지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.4047366047664869</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024학년도에 수능 응시하지 않은 학생도 지원이 가능합니다. 전형별로 다양한 지원 자격이 있으며, 일부 전형에서는 수능 응시 여부와 관계없이 지원이 가능한 경우가 있습니다.
+특히, 학생부종합 평가를 기반으로 하는 전형에서는 수능 점수보다는 학생부 성적과 면접 등을 통해 지원자의 적합성을 판단합니다. 따라서 수능 응시 여부와 관계없이 지원이 가능한 전형들이 있습니다.
+具体的来说，2024年，即使没有参加高考的学生也可以申请。每年的招生标准会有所不同，但通常有一些基于学生档案综合评估的招生类型，在这些类型中，高考成绩并不是决定性因素，而是通过学生的学业成绩和面试等来判断其是否适合。
+为了获取更详细的信息，请访问以下网站进行确认：“https://ipsi. deu. ac. kr/main. do”。</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 정확하게 반영하고 있습니다. 그러나, 학교생활기록부와 수능 점수의 중요성에 대한 언급은 원문에 명시되어 있지 않으므로, 약간의 추가 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 원문에서 언급된 "고교유형별 지원자격" 표에 대한 구체적인 내용이 누락되어 있습니다. 또한, 응답의 내용이 원문과 완전히 일치하지 않기 때문에 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높습니다. 정시 지원 가능성에 대한 정보와 추가적인 조언을 제공하고 있어 주제와 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원문과의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 고등학교 졸업 후 정시 지원 가능성에 대한 정확한 정보를 제공하고 있습니다. 그러나 추가된 정보가 원문에 명시되어 있지 않기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 원문과의 일관성 부족으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 내용을 담고 있습니다. 그러나 원문에 없는 정보가 포함되어 있어 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.5849708319592584</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>10년이 지난 후에도 정시 모집에 지원할 수는 있습니다만, 일반적으로 고등학교를 졸업한 지 오래된 경우 학교생활기록부와 대학수학능력시험 점수가 중요한 요소가 됩니다. 특히, 학생부 교과 성적은 중요하게 평가되므로, 해당 과목에서 좋은 성적을 받는 것이 필요합니다.
+또한, 정시 모집에서는 수능 점수가 큰 비중을 차지하므로, 수능 준비를 하는 것이 좋습니다. 특히, 국어, 수학, 영어 등 주요 과목의 표준점수와 등급을 잘 받아야 합니다.
+만약에 10년 동안 학업을 계속하지 않았다면, 다시 학교생활기록부를 작성하거나 필요한 교과목을 복습하는 것이 필요할 수 있습니다. 이 경우, 관련 교과목의 표준점수와 등급을 얻는 데 시간이 걸릴 수 있으므로, 조기에 준비를 시작하는 것이 좋습니다.
+자세한 내용은 동의대학교의 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 비고 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.8078516134106329</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일(화) 입니다.
+   - 비고는 입학안내 홈페이지 공고입니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 6일(토)까지 접수 가능하며, 마감 시간은 오후 6시까지입니다.
+   - 참고 사이트는 http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com 입니다.
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일(수)부터 12일(금)까지 접수 가능하며, 마감 시간은 오후 5시까지 도착해야 합니다.
+   - 서류 제출 대상은 (Ⅳ. 전형별 세부 안내 참조)이며, 제출 방법은 접수 사이트에서 우편발송용 표지를 출력하여 부착하거나 우편으로 발송합니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일(화)입니다.
+   - 비고는 대기실 및 입실시간 안내를 2024년 1월 12일(금) 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일(수)입니다.
+   - 비고는 대기실 및 입실시간 안내를 2024년 1월 12일(금) 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부 (최초 합격자)**: 2024년 2월 2일(금) 오후 2시입니다.
+   - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+7. **합격자 발표 및 등록금 납부 (최초 합격자 등록)**: 2024년 2월 7일(수)부터 13일(화)까지 (은행 마감 시간 내)입니다.
+   - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+8. **합격자 발표 및 등록금 납부 (충원 합격자 1차)**: 2024년 2월 14일(수) 오전 9시입니다.
+   - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+9. **합격자 발표 및 등록금 납부 (충원 합격자 1차)**: 2024년 2월 14일(수) 오전 9시부터 오후 4시까지입니다.
+   - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+10. **합격자 발표 및 등록금 납부 (충원 합격자 2차)**: 2024년 2월 15일(목) 오전 9시입니다.
+    - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+11. **합격자 발표 및 등록금 납부 (충원 합격자 2차)**: 2024년 2월 15일(목) 오전 9시부터 오후 4시까지입니다.
+    - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+12. **합격자 발표 및 등록금 납부 (충원 합격자 3차 이후)**: 2024년 2월 15일(목) 오후 7시부터 20일(화) 오후 6시까지입니다.
+    - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+이상으로 2024년 동의대학교 정시 모집일정을 설명하였습니다. 필요하시면 추가 정보를 제공해 드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 포인트를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 흐름을 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.83985835657047</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일(화) 입니다.
+   - 비고는 입학안내 홈페이지 공고입니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 1월 6일(토)까지 접수 가능하며, 마감 시간은 오후 6시까지입니다.
+   - 비고는 [http://ipsi. deu. ac. kr] 또는 [http://www. uwayapply. com]를 참조하세요.
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일(수)부터 1월 12일(금)까지 접수 가능하며, 마감 시간은 오후 5시까지 도착해야 합니다.
+   - 비고는 서류 제출 대상 (Ⅳ. 전형별 세부 안내 참조)에 따라 제출 방법이 접수 사이트에서 우편 발송용 표지를 출력하여 부착하거나 우편으로 보내야 합니다.
+4. **&lt;가&gt;군 실기고사 레저스포츠학과, 태권도학과**: 2024년 1월 16일(화)에 실시되며, 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학안내 홈페이지에서 확인 가능합니다.
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과**: 2024년 1월 17일(수)에 실시되며, 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학안내 홈페이지에서 확인 가능합니다.
+6. **합격자 발표 및 등록금 납부 (최초 합격자)**: 2024년 2월 2일(금) 오후 2시에 발표됩니다.
+   - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)입니다.
+7. **합격자 발표 및 등록금 납부 (최초 합격자 등록)**: 2024년 2월 7일(수)부터 13일(화)까지 (은행 마감 시간 내)에 등록 가능합니다.
+   - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)입니다.
+8. **합격자 발표 및 등록금 납부 (충원 합격자 1차)**: 2024년 2월 14일(수) 오전 9시에 발표됩니다.
+   - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)입니다.
+9. **합격자 발표 및 등록금 납부 (충원 합격자 1차)**: 2024년 2월 14일(수) 오전 9시부터 오후 4시까지 등록 가능합니다.
+   - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)입니다.
+10. **합격자 발표 및 등록금 납부 (충원 합격자 2차)**: 2024년 2월 15일(목) 오전 9시에 발표됩니다.
+    - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)입니다.
+11. **합격자 발표 및 등록금 납부 (충원 합격자 2차)**: 2024년 2월 15일(목) 오전 9시부터 오후 4시까지 등록 가능합니다.
+    - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)입니다.
+12. **합격자 발표 및 등록금 납부 (충원 합격자 3차 이후)**: 2024년 2월 15일(목) 오후 7시부터 20일(화) 오후 6시까지 개별 전화 통보로 진행됩니다.
+    - 비고는 *발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)입니다.
+이상으로 동의대학교 정시 모집 일정을 설명하였습니다. 필요하시면 추가 정보를 제공해 드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있다고 주장하고 있지만, 원본 텍스트에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있는데, 생성된 응답은 수능 미응시자가 지원 가능한 전형이 있다고 주장하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 수능 미응시자의 지원 불가능성을 무시하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 원본 텍스트와의 내용적 일관성이 결여되어 있어 논리적인 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 정보를 제공하고 있습니다. 수능 미응시자가 지원할 수 있다는 주장은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 수능 미응시자의 지원 가능성에 대한 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성과 관련성이 결여되어 있어 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.6585732656368869</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 수능 미응시자도 지원이 가능한 전형은 "학생부종합(평생학습자전형)"입니다. 이 전형은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자를 대상으로 합니다.
+추가 정보:
+- 모집인원: 17명
+- 모집단위 및 계열: 인문사회과학대학 - 인문사회 - 국어국문학과 - 교직
+이 전형은 수능 미응시자도 지원 가능하며, 학생부 종합 평가를 통해 선발됩니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 전자공학과의 충원 합격이 3차까지 이루어졌다고 주장하지만, 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있습니다. 또한, 전년도의 충원 합격 인원은 36명이라고 명확히 언급되어 있습니다. 따라서 사실과 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충하는 정보를 제공합니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 하였으나, 생성된 응답에서는 3차까지 이루어졌다고 주장하고 있습니다. 이는 명백한 불일치입니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하고 있으나, 원문에서 제공된 정보와는 다르게 해석되고 있습니다. 원문에서의 핵심 정보는 충원 합격 차수에 대한 부재이므로, 관련성은 있지만 정확한 맥락을 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있으나, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공된 사실과 크게 다릅니다. 충원 합격 차수에 대한 정보가 없다고 명시된 원문과는 정반대의 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 생성된 응답은 원문과의 불일치로 인해 전반적으로 낮은 품질을 보입니다. 사실성, 일관성, 정확성 모두에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서의 정보 부재를 무시하고 새로운 정보를 추가함으로써 의미적으로 부적절한 상황을 초래하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 불일치로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 있지만, 명확한 이해를 방해하는 요소가 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.7323066923097444</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위인 전자공학과의 경우, 충원 합격 (후보순위)이 3차까지 이루어졌습니다. 이 정보는 제공된 문맥에서 전자공학과의 모집 인원 3명과 지원 인원 16명 그리고 경쟁률 5.33에 따른 충원 합격 (후보순위) 3을 통해 확인할 수 있습니다. 다른 단과대학이나 모집단위의 정보는 제공되지 않았습니다. 더 자세한 내용은 "https://ipsi. deu. ac. kr/main. do"를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 입학관리팀의 전화번호를 명시적으로 언급하지 않고 있으며, 이는 원본 텍스트의 핵심 정보를 누락한 것입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 전화번호를 제공하고 있지만, 생성된 응답은 전화번호가 언급되지 않았다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교와 관련된 정보를 제공하려고 하지만, 원본 텍스트의 핵심 정보인 전화번호를 무시하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어 일관성이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 정보가 전혀 포함되어 있지 않아 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 동의대학교에 대한 정보를 제공하려고 하지만, 원본 텍스트의 의미와 맥락을 제대로 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 이해할 수 있지만, 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.5792603923393148</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东义大学入学处的电话号码。如果您需要该信息，建议访问东义大学官网或者直接联系学校的招生办公室获取准确的联系方式。更多信息可以参考“https://ipsi. deu. ac. kr/main. do”。</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 "등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다"는 중요한 사실을 누락하고 있습니다. 또한, 홈페이지에서 결과를 확인할 수 있다는 내용은 원본 텍스트와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 전화 통화가 되지 않을 경우의 처리 방식에 대한 설명이 상충합니다. 원본 텍스트는 등록 포기자로 처리된다고 명시하고 있지만, 생성된 응답은 홈페이지에서 결과를 확인할 수 있다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 등록 포기 처리에 대한 언급이 없기 때문에 관련성이 떨어집니다. 그러나 전화 통화와 관련된 정보는 여전히 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 전화 통화가 되지 않는 경우에 대한 설명이 원본 텍스트의 맥락과 잘 연결되지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 전화 통화가 되지 않을 경우의 처리 방식에 대한 설명이 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히, 등록 포기 처리에 대한 언급이 없다는 점에서 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으며, 명확한 표현이 많습니다. 그러나 원본 텍스트와의 관계가 불명확하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.4844812245461994</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시 전화 통화가 되지 않는 경우, 해당 합격자는 홈페이지에서 개별 조회를 통해 결과를 확인할 수 있습니다. 또한 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행(등록금 고지서에 기재)입니다.
+따라서 전화 통화가 되지 않더라도 홈페이지와 고지서를 통해 결과 확인이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 제출해야 할 서류에 대한 정보가 부정확합니다. 예를 들어, "고교 졸업증명서"는 6년 과정에 해당하는 서류 목록에 포함되어 있지 않으며, "지원자 본인, 부모 초본 각 1부"라는 표현도 정확하지 않습니다. 원본 텍스트에서 요구하는 서류 목록과 일치하지 않기 때문에 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트에서 요구하는 서류 목록과 다르게 서류를 나열하고 있으며, 추가로 제출해야 할 서류가 없다고 언급하는 부분도 원본과 상충합니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 서류 목록에 대한 정보가 부정확하여 일부 관련성이 떨어집니다. 그러나 전반적으로 농어촌학생전형에 대한 정보는 적절하게 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 표현이 원본 텍스트와 다르게 사용되어 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 일관된 구조를 가지고 있지만, 서류 목록의 부정확성으로 인해 논리적인 흐름이 약간 깨집니다. 따라서 일관성은 있지만 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 요구 사항을 정확하게 반영하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성 모두 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 서류 목록의 부정확성으로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 서류 목록의 부정확성으로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 높지만 완벽하지는 않습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7158385008160298</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다:
+1. 고교 졸업증명서 (6년 과정인 경우)
+2. 지원자 본인, 부모 초본 각 1부 (총 3부) (12년 과정인 경우)
+이 외에 추가로 제출해야 할 서류는 없습니다. 하지만 정원외 동점자 처리 기준에서는 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자를 기준으로 동점자 처리가 이루어집니다.
+따라서 농어촌학생전형 지원 시에는 위의 서류를 정확하게 준비하여 제출해야 합니다. 더 자세한 내용은 "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 필요한 서류 목록에서 중요한 서류인 초등학교 및 중학교 학교생활기록부를 누락하였고, 고교 졸업증명서와 주민등록초본의 발급 조건에 대한 설명도 부족하여 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 필요한 서류의 일부가 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 농어촌학생전형 지원 시 필요한 서류에 대한 질문에 답변하고 있으나, 서류 목록이 불완전하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록을 명확하게 제시하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 중요한 세부사항을 누락하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문의 맥락에 맞지만, 필요한 서류의 일부가 누락되어 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 서류 목록의 불완전함으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8239930227161354</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 필요한 서류는 다음과 같습니다.
+1. 고교 졸업증명서
+2. 지원자 본인 초본 1부
+이상의 서류가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 기회균등 전형이 신설되었다고 주장하지만, 원문에서는 해당 전형이 존재하지 않는다고 명시하고 있습니다. 따라서 사실과 완전히 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 기회균등 전형이 없다고 하였으나, 생성된 응답에서는 신설되었다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 기회균등 전형에 대한 질문에 답하고 있으나, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있으며, 정보가 잘 정리되어 있습니다. 그러나 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문과 상반되는 정보를 제공하므로 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 받았으며, 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 의미적으로 부적절합니다. 원문과 상반되는 내용을 담고 있어 맥락에 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 명확하게 작성되어 있어 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.6578273617216525</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집에서는 저소득 기회균등 전형이 신설되었습니다. 이전의 정보에는 해당 내용이 포함되어 있지 않아, 정확한 자세한 사항은 대학 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다. 관련 링크는 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)입니다. 이 링크에서 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 2.5등급이 3등급으로 변환된다고 주장하지만, 원본 텍스트에서는 절사 여부에 대한 정보가 없다고 명시하고 있습니다. 따라서 이 정보는 사실과 다릅니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 2.5등급이 3등급으로 변환된다는 주장은 원본의 내용과 모순됩니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 수능 최저등급과 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변은 아닙니다. 그러나 관련된 정보를 포함하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관계가 명확하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 2.5등급이 3등급으로 변환된다고 주장하지만, 이는 원본 텍스트의 정보와 일치하지 않으므로 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋납니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6846799435291044</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급은 실제 수능 점수로 변환될 때 반올림을 하기 때문에, 이 경우 3등급으로 변환됩니다. 따라서 사탐 2 과목 평균산출에서 2.5등급이 나온다면 그대로 3등급으로 처리됩니다.
+만약 자세한 내용을 확인하고 싶으시다면 "https://ipsi.deu.ac.kr/main.do" 링크를 참조해보세요. 해당 사이트에서는 정확한 변환 방법과 절차에 대한 정보를 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "정시 충원 합격자 발표는 총 4차로 이루어집니다."라고 명시하고 있지만, 원본 텍스트에서는 3차까지 발표가 이루어진다고 명확히 언급하고 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공하고 있습니다. 원본 텍스트는 3차까지 발표가 이루어진다고 명시하고 있지만, 생성된 응답은 4차 발표가 있다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 발표 일정에 대한 정보를 포함하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달되고 있습니다. 그러나 4차 발표에 대한 잘못된 정보로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. 4차 발표에 대한 언급은 잘못된 정보입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 일관성에서 큰 문제를 가지고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지 않으며, 잘못된 정보를 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.850453648479064</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다.
+1. **1차 발표**: 2024년 2월 14일(수) 09:00에 이루어집니다.
+2. **2차 발표**: 2024년 2월 15일(목) 09:00에 이루어집니다.
+3. **3차 이후 발표**: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 개별 전화 통보를 통해 이루어집니다.
+이와 같이 총 4차로 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e-비즈니스학과의 평균 수능 성적에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 최초 합격자와 최종 등록자의 평균 수능 4개 영역 등급이 각각 4.17과 4.53이라고 명시되어 있지만, 생성된 응답에서는 평균이 5.04라고 잘못 언급하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 수능 성적이 4.6일 경우의 가능성을 설명하고 있지만, 생성된 응답은 잘못된 평균 점수를 제시하여 혼란을 초래합니다. 또한, 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 수능 성적 4.6에 대한 추가 합격 가능성을 논의하고 있지만, 원본 텍스트의 주요 내용과는 다소 벗어나 있습니다. 경쟁률과 모집 인원에 대한 정보는 관련이 있지만, 원본 텍스트의 핵심 포인트인 평균 점수와 비교하는 내용이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않아 독자가 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 수능 성적에 대한 잘못된 평균 점수를 제시하고 있으며, 이는 정확성에 큰 영향을 미칩니다. 원본 텍스트의 사실과 일치하지 않기 때문에 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련이 있지만, 잘못된 정보로 인해 의미가 왜곡되었습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5915792579404936</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024학년도 e비즈니스학과의 모집인원은 10명이며, 지원 인원은 35명으로 경쟁률이 높습니다. 수능 성적이 4.6인 경우, 평균적인 수능 점수와 비교해볼 필요가 있습니다.
+주어진 정보에 따르면 e비즈니스학과의 수능 4개 영역 등급의 평균은 5.04이며, 표준 편차는 0.76입니다. 이는 전체 지원자의 수능 성적이 상대적으로 높다는 것을 의미합니다.
+수능 성적 4.6은 평균보다 약간 낮습니다. 그러나 표준 편차를 고려하면, 4.6은 평균에서 약 -0.5점 정도 차이가 나므로, 상대적으로 좋은 성적이기는 합니다.
+따라서 수능 성적 4.6인 경우에도 추가 합격 가능성은 있습니다만, 경쟁률과 지원자의 수능 성적 분포를 고려하면 확실한 것은 아닙니다. 정확한 합격 가능성을 확인하려면, 해당 대학의 최종 합격자 명단을 참조하거나, 입학처에 문의하는 것이 가장 좋습니다.
+더 자세한 정보는 https://ipsi.deu.ac.kr/main.do를 방문하여 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률, 충원 합격자 수, 지원 인원 등의 정보를 포함하고 있지만, 영어 등급 평균이 3.00이라는 정보는 원본 텍스트의 영어 등급 평균 3.66과 일치하지 않습니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 영어 등급 평균에 대한 정보가 다르기 때문에 일관성이 떨어집니다. 경쟁률과 충원 합격자 수에 대한 정보는 일관되지만, 전체적으로는 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, e비즈니스학과의 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 일부 정보의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 영어 등급 평균에 대한 잘못된 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 사실성과 정확성에서의 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 정보를 제공합니다. 그러나 일부 세부 사항에서 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6573263653859859</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률은 2.20이며, 충원 합격자는 6명입니다. 지원 인원이 11명으로 적당히 낮은 경쟁률을 보이고 있습니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.80이며, 이는 정시 등급 5.3에 해당하는 점수가 될 것입니다. 이 점수는 평균보다 약간 낮지만, 경쟁률이 낮아서 최초 합격 가능성은 있습니다.
+영어 등급의 평균은 3.00이며, 정시 등급 5.3에 해당하는 영어 점수도 이 수준을 유지할 것입니다. 따라서, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합과 영어 등급이 평균치를 유지한다면 최초 합격 가능성은 있습니다.
+하지만, 정확한 최초 합격 가능성을 확신하기 위해서는 동의대학교 e비즈니스학과의 최종 합격자 명단을 확인하거나, 입학처에 문의하는 것이 가장 좋습니다. 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 공식 웹사이트에서 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 38번의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 명시된 "충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다"는 사실을 명확히 반영하지 않고 있습니다. 따라서, 응답의 사실성이 다소 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 예비 38번의 합격 가능성에 대한 명확한 언급이 부족하여 일관성이 떨어집니다. 원본 텍스트의 주장을 완전히 지지하지 않기 때문에 점수가 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 충원합격 순위에 대한 언급이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 반영하지 않으며, 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않기 때문에 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으나, 특정 세부 사항이 누락되어 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있으나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.557523302742037</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 특정 학생이 예비합격 가능한지 판단하기 어렵습니다. 전형일정과 모집단위, 모집인원 등은 정확히 알려졌지만, 개인의 성적이나 서류 평가 결과 등은 공개되지 않았기 때문입니다.
+현재까지의 정보로는 다음과 같은 점을 참고해야 합니다:
+1. **모집인원**: 예비 38번 학과의 모집인원이 필요합니다.
+2. **성적 및 서류 평가**: 개인의 성적, 서류 평가 결과 등이 중요합니다. 이는 합격 여부에 직접적인 영향을 미칩니다.
+추천되는 방법은 다음과 같습니다:
+1. **공식 홈페이지 확인**: 입학안내 홈페이지(https://ipsi. deu.ac.kr/main.do)를 통해 최신 정보와 개인의 성적, 서류 평가 결과 등을 확인하세요.
+2. **문의하기**: 합격 여부에 대한 궁금한 점이 있다면, 입학관리팀으로 문의해보세요.
+현재까지의 정보로는 정확한 답변을 드릴 수 없습니다. 공식 홈페이지를 통해 최신 정보와 개인의 성적, 서류 평가 결과 등을 확인하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 간호학과의 충원합격에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 평균 등급과 관련된 정보는 포함되어 있지 않으며, 경쟁률과 표준 변환 점수에 대한 정보는 원본 텍스트와 일치하지 않습니다. 따라서 일부 사실이 정확하지 않거나 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 충원합격에 대한 정보는 원본 텍스트의 주제와 다소 상충합니다. 원본 텍스트는 정시 등급에 대한 합격 가능성을 다루고 있지만, 생성된 응답은 충원합격에 초점을 맞추고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 충원합격에 대한 정보가 추가되어 있어 다소 벗어난 측면이 있습니다. 그러나 여전히 간호학과의 합격 가능성에 대한 논의와 관련이 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해져서 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 평균 등급과 관련된 정보가 누락되어 있어 정확성에서 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 관련성은 높지만 전반적으로 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 충원합격에 대한 정보가 추가되어 있어 다소 맥락에서 벗어난 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.5531178680608642</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 충원합격(후보순위)된 경우를 보면, 경쟁률이 6.59이고, 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48이며, 표준 편차는 4.66입니다.
+현재 제시된 성적 3.44을 기반으로 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 353.48이고, 표준 편차가 4.66이라는 것을 고려하면, 제시된 성적은 동의대학교 간호학과에 충원합격(후보순위)된 경우보다 약간 낮습니다.
+하지만, 정확한 합격 가능성 판단을 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **성적 변동성**: 성적이 조금 더 높아지거나 낮아질 수 있습니다.
+2. **기타 평가 요인**: 실기, 인터뷰 등 기타 평가 요인이 있을 수 있습니다.
+3. **모집 정원 및 지원자 수**: 모집 정원과 지원자의 수에 따라 경쟁률이 변동될 수 있습니다.
+따라서, 현재의 성적 3.44으로는 동의대학교 간호학과에 충원합격(후보순위) 가능성은 낮지만, 최종 합격 여부는 정확한 평가를 위해 추가 정보와 요인을 고려해야 합니다.
+추가적인 정보나 자세한 분석이 필요하다면, 동의대학교 입학처에 문의하거나 전문가의 조언을 구하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 평균 점수와 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 핵심 사실인 "정시 등급이 2.52이면 합격 가능성이 높다"는 내용을 부정하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 2.52의 성적이 합격 가능성이 높다고 언급했으나, 생성된 응답에서는 이 성적이 낮다고 평가하고 있습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 간호학과에 대한 평균 점수와 경쟁률을 언급하고 있지만, 원본 텍스트의 질문에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충되는 내용을 포함하고 있어 정확성 점수가 낮습니다. 특히, 성적에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 중간 정도의 점수를 받습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.5914516886383255</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과에 대한 지원자들의 평균 점수와 경쟁률을 고려해보겠습니다.
+- **평균 점수**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48입니다.
+- **경쟁률**: 지원 인원이 145명이고 모집 인원이 22명이므로 경쟁률은 약 6.59입니다.
+당신의 성적인 2.52는 표준 변환 점수로 환산하면 대략 300점대일 것입니다. 이는 평균 점수와 비교해보면 상당히 낮습니다. 따라서, 현재의 성적만으로 동의대학교 간호학과에 최종 합격하기는 어려울 것으로 보입니다.
+하지만, 서류평가와 면접평가에서 좋은 결과를 얻을 경우 경쟁률이 높은 모집단위에서도 합격할 가능성이 있습니다. 따라서, 다음과 같은 점들을 고려해보시기 바랍니다:
+1. **서류평가**: 지원자의 학교생활기록부와 서류 제출 내용에서의 학업역량과 전공적합성 등을 평가받습니다.
+2. **면접평가**: 면접에서 지원동기, 학업계획, 전공적합성 등에 대한 답변을 통해 합격 여부를 결정합니다.
+따라서, 성적이 낮더라도 서류와 면접에서 좋은 결과를 얻는다면 최종 합격 가능성은 있습니다. 하지만 확실한 것은 아니므로, 정확한 판단을 위해서는 동의대학교 입학사정관에게 문의하거나, 해당 모집단위에 대한 자세한 정보를 확인하는 것이 좋습니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 에 접속하여 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 전형에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 정시 성적과 관련된 평균 등급에 대한 정보는 누락되어 있습니다. 또한, 정시 성적이 3.7이라는 점을 언급하면서 학생부의 교과 성적을 강조하고 있으나, 원본 텍스트의 핵심 내용인 합격 가능성에 대한 직접적인 언급이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 간호학과의 평균 등급에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 또한, 전형에 대한 정보가 추가되었으나, 원본 텍스트의 주제와 완전히 일치하지는 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과에 지원하기 위한 정보와 조언을 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 질문인 정시 성적에 대한 합격 가능성에 대한 직접적인 답변이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트의 핵심 주제와의 연결이 약간 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과에 대한 정보를 제공하지만, 원본 텍스트의 핵심 사실인 정시 성적과 평균 등급에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 간호학과에 대한 지원 방법과 관련된 정보를 제공합니다. 그러나 원본 텍스트의 맥락과 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 문장이 길어 이해하기 어려운 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.5927806475011151</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시 모집군 변경사항을 보면, 간호학과는 특정 전형에 포함되어 있지 않습니다. 따라서 간호학과에 지원하려면 일반전형이나 특별전형 등을 통해 지원해야 합니다.
+학생부종합 평가영역에서 학업역량이 중요한 요소 중 하나로 반영되므로, 정시 성적이 3.7이라면 학생부의 교과성적을 잘 보여줘야 합니다. 특히 간호학과에서는 인문사회과학적 기초지식과 실기능력이 요구되는 만큼, 관련 과목의 성적과 활동 경력을 잘 준비해두시는 것이 중요합니다.
+또한, 학생부종합 평가에서 공동체역량이나 전공적합성 등도 중요한 요소로 작용하므로, 이러한 부분을 강화하는 것도 필요합니다. 
+입학사정관이 지원자의 전체적인 성장을 종합적으로 판단하기 때문에, 지원자 개인의 특성을 잘 보여줄 수 있는 자료들을 준비하시기 바랍니다.
+더 자세한 정보를 얻으시려면 https://ipsi. deu.ac.kr/main.do 웹사이트를 참조하거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 정시 모집에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(영어 2.34, 수능 3.37)과 비교하여 2.58의 성적이 합격 가능성이 높다는 점을 명확히 언급하지 않았습니다. 또한, 서류와 면접의 비율에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 간호학과의 선발 요소에 대한 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 핵심 내용과는 다소 다른 방향으로 설명하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 모집에 대한 정보를 제공하고 있으며, 질문에 대한 답변으로서 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 2.58의 성적에 대한 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문단이 주제를 잘 연결하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 느슨해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실(평균 등급 등)을 충분히 반영하지 못하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.629000940352299</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과에 대한 정시 모집 정보를 바탕으로 답변 드리겠습니다.
+간호학과는 주로 학생부 종합전형을 통해 선발하지만, 정시모집에서도 선발이 가능합니다. 2024학년도 동의대학교 간호학과의 정시 모집 요소 반영 비율은 다음과 같습니다:
+- 서류(학생부) : 65%
+- 면접 : 35%
+간호학과는 주로 학생부 성적을 중점적으로 평가하므로, 국어, 수학, 영어 등 주요 과목의 성적이 높은 것이 중요합니다. 특히, 간호학과에서는 생물이나 화학 등의 과목도 필요성이 있으므로, 관련 과목의 성적도 고려해야 합니다.
+2024학년도 동의대학교 간호학과 정시 모집에서 반영과목은 다음과 같습니다:
+- 국어
+- 수학
+- 영어
+- 한국사
+- 사회(역사/도덕 포함)
+- 과학교과 중 석차등급 상위 12과목
+이러한 정보를 바탕으로, 정시 성적이 2.58인 경우에도 합격 가능성은 있습니다만, 간호학과의 선발 요소가 서류와 면접에 중점을 두고 있다는 점을 고려해야 합니다.
+따라서, 국어, 수학, 영어 등 주요 과목에서 높은 성적을 보여주어야 하며, 학생부에서 우수한 활동 기록과 면접에서도 좋은 평가를 받는 것이 중요합니다. 또한, 간호 관련 과목의 성적이 높아야 합니다.
+따라서, 정시 성적이 2.58인 경우에도 동의대학교 간호학과에 합격할 수 있을 가능성은 있으나, 확실한 것은 아니므로, 추가적인 준비와 활동 기록을 잘 작성하는 것이 중요합니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나, 직접 문의하시는 것을 추천드립니다.
+https://ipsi. deu.ac.kr/main.do
+이 웹사이트에서 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 예비 7번의 합격 가능성에 대한 정보가 부족하며, 원본 텍스트에서 제공된 구체적인 데이터(충원합격 3번까지)와 일치하지 않습니다. 또한, 다른 학과의 모집 인원과 전형 방법에 대한 정보는 원본 텍스트와 관련이 없습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 정보(다른 학과의 모집 인원 및 전형 방법)를 포함하고 있어 일관성이 떨어집니다. 예비 7번의 합격 가능성에 대한 원본의 주장을 반박하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문인 예비 7번의 합격 가능성에 대한 직접적인 답변을 제공하지 않고 다른 정보로 분산되고 있습니다. 따라서 관련성은 있지만, 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 나열하고 있지만, 전체적으로 일관된 주제를 유지하지 못하고 있습니다. 예비 7번의 합격 가능성에 대한 명확한 결론이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 핵심 사실을 왜곡하고 있으며, 예비 7번의 합격 가능성에 대한 정확한 정보를 제공하지 않습니다. 원본의 데이터와 상충하는 내용이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 주제에서 벗어난 정보가 포함되어 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보가 분산되어 있어 핵심 메시지를 파악하는 데 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6195081726088779</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>7번 학생님이 게임공학과에 지원하셨다는 점을 확인했습니다. 하지만 현재 제공된 정보만으로는 정확한 답변이 어렵습니다. 게임공학과의 모집인원, 전형방법 등 자세한 내용을 확인해야 합니다.
+현재 정보를 바탕으로 추론해보면:
+1. **모집단위와 인원**: 
+   - 스마트호스피탈리티학과: 7명
+   - 미래형자동차학과: 7명
+   - 소프트웨어융합학과: 7명
+2. **전형방법**:
+   - 학생부종합전형
+   - 조기취업형계약학과전형 (정원외)
+3. **점수와 등급**:
+   - 학생부교과: 18%
+   - 출결: 12%
+   - 서류(경기실적): 70%
+4. **면접평가**:
+   - 면접시간: 10분 이내
+   - 평가영역: 학업역량, 전공적합성
+5. **동점자 처리 기준**:
+   - 1등위치는 면접 성적이 상위자
+   - 2등위치는 서류평가 공동체역량 영역 성적이 상위자
+   - 3등위치는 서류평가 전공적합성 영역 성적이 상위자
+현재 정보로는 정확한 붙을 확률을 예측하기 어렵습니다. 게임공학과에 지원하셨다면, 해당 학과의 모집인원, 전형요소 반영비율 등을 확인하시고, 자신의 실적과 능력을 최대한 발휘하는 것이 중요합니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나, 대학 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 등급 4.16이 평균 등급 4.78보다 낮다고 언급하고 있지만, 원본 텍스트에서는 4.16이 평균보다 높은 성적이라고 명시되어 있습니다. 이로 인해 사실관계가 크게 왜곡되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있습니다. 원본에서는 4.16이 평균보다 높은 성적이라고 했으나, 생성된 응답에서는 낮다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 추가 합격 가능성에 대한 논의도 포함되어 있습니다. 그러나 원본 텍스트의 핵심 사실을 잘못 전달하고 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 부분이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름이 매끄럽지 않은 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 수능 등급에 대한 잘못된 정보를 포함하고 있습니다. 이로 인해 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실관계와 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 사실을 기반으로 하고 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.7234475311115621</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 등급은 게임공학과의 평균 수능 4개 영역 등급의 평균인 4.78보다 낮습니다. 따라서, 현재 제공된 정보만으로는 추가 합격이 가능할 것이라고 단정하기 어렵습니다. 게임공학과의 경쟁률은 5.33이며, 지원 인원이 16명이고 모집 인원이 3명이라는 점을 고려하면, 수능 등급이 평균보다 낮더라도 추가 합격 가능성은 있습니다.
+하지만, 정확한 합격 여부는 동의대학교 입학처에서 제공하는 최종 합격자 명단을 확인해야 합니다. 따라서, 현재 상황에서는 추가 합격 가능성이 있으나 확실한 것은 아니므로, 동의대학교 입학처 웹사이트를 방문하여 최신 정보를 확인하거나, 입학처에 직접 문의하는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 동의대학교 입학처 웹사이트에서 최신 합격자 명단 및 기타 지원 관련 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 지원에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(영어 2.88, 수능 3.88)과 관련된 구체적인 내용이 누락되어 있습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 지원에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용과는 다소 일치하지 않는 부분이 있습니다. 예를 들어, 원본 텍스트는 3.75의 성적이 합격 가능성이 높다고 언급했으나, 생성된 응답은 추가적인 조건을 제시하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 지원에 대한 정보를 다루고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 평균 등급에 대한 언급이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어져 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 지원에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 조건을 반영하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 특정 세부사항이 누락되어 있어 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어질 경우 혼란을 줄 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.7301467142475202</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과를 정시로 지원하려면, 학생부 교과성적의 평균 점수가 중요합니다. 주어진 정보에서 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영하게 됩니다.
+2024학년도의 학생부 교과성적 반영방법은 다음과 같습니다:
+- 전 모집단위(한의예과 제외)에서 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영합니다.
+따라서, 경영정보학과 정시 성적 3.75를 가진 학생이 최초등록자로 가능할지 여부는 다음과 같은 요소들에 따라 결정됩니다:
+- 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목의 성적
+- 학생부 교과성적 평균 점수
+정확한 판단을 위해서는 해당 학교의 정시 모집요강을 확인하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다. 더 자세한 정보를 얻기 위해 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 성적 기준에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 "4.2의 성적이 평균 등급보다 낮다"는 점을 간과하고 있습니다. 따라서 일부 사실이 누락되었고, 정확한 정보 전달이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 4.2의 성적이 평균 등급보다 낮다는 점과 모순되는 내용을 포함하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과에 지원하는 것과 관련된 여러 요소를 다루고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 메시지와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 제공하지만, 원본 텍스트의 사실과 일치하지 않는 부분이 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 내용이 원본의 핵심 메시지와 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6418382481784981</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>4.2의 성적을 가지고 경영정보학과에 지원하려는 경우, 정시 모집에서 가능한지 여부는 여러 요소에 따라 달라질 수 있습니다.
+1. **성적 기준**: 각 학과별로 정해진 최저 성적 기준이 있으며, 이 기준을 충족해야 합니다. 경영정보학과의 경우 4.2 이상의 성적이 필요할 것으로 보입니다.
+2. **정시 모집군**: 정시 모집군도 중요한 요소 중 하나입니다. 예를 들어, 정시모집군 (가)에 지원하려면 해당 군의 기준을 충족해야 합니다.
+3. **전형별 요구사항**: 각 전형(예: 학생부종합, 실기/실적 등)에서 요구하는 성적 기준이 다를 수 있습니다. 정시 모집군 (가)에서는 일반적으로 4.0 이상의 성적이 필요할 것으로 예상됩니다.
+따라서, 경영정보학과에 지원하려는 경우 다음과 같은 절차를 따르세요:
+1. **정시모집군 확인**: 지원하고자 하는 학과와 전형에 따른 정시모집군을 확인하세요.
+2. **성적 기준 확인**: 해당 모집군의 성적 기준을 확인하세요.
+3. **지원 가능 여부 판단**: 자신의 성적(4.2)이 해당 모집군의 최저 성적 기준을 충족하는지 판단하세요.
+만약 정시모집군 (가)에 지원하려는 경우, 4.0 이상의 성적이 필요하다고 가정하면, 4.2의 성적은 충분히 가능할 것으로 보입니다. 그러나 최종 결정을 내리기 위해서는 동의대학교의 공식 홈페이지나 입학처와 직접 확인하는 것이 가장 정확합니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교 경영정보학과의 입학사정관 평가 기준에 대한 정보를 제공하고 있으며, 성적 기준과 전형 요소에 대한 설명이 포함되어 있습니다. 그러나 원본 텍스트에서 제시된 평균 등급과 비교하여 합격 가능성에 대한 명확한 결론을 제시하지 않고 있어 일부 정보가 누락된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 합격 가능성에 대한 결론이 다소 모호하게 표현되어 있습니다. 원본 텍스트는 5.33의 성적이 평균 등급보다 낮다고 명확히 언급하고 있으나, 생성된 응답에서는 성적이 좋은 과목에 따라 합격 가능성이 달라질 수 있다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 동의대학교 경영정보학과의 입학사정관 평가 기준에 대한 정보를 제공하며, 원본 텍스트의 주제와 관련이 깊습니다. 성적 기준과 전형 요소에 대한 설명은 질문의 맥락에 잘 맞아 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 결론 부분에서 합격 가능성에 대한 명확한 판단이 부족하여 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 동의대학교의 입학사정관 평가 기준에 대한 정보를 제공하고 있으며, 성적 기준과 전형 요소에 대한 설명이 정확합니다. 그러나 원본 텍스트의 평균 등급과 비교하여 합격 가능성에 대한 명확한 판단이 부족하여 일부 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행되고 있습니다. 그러나 일부 정보의 누락과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 합격 가능성에 대한 결론이 다소 모호하여 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6024660962559019</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 일반학생전형에 대한 입학사정관 평가 기준을 확인해보겠습니다.
+1. **성적 기준**:
+   - 2023년도에는 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 8과목이 반영되었습니다.
+   - 2024년도에는 반영과목이 12과목으로 늘어났습니다 (국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목).
+2. **성적 평균**:
+   - 5.33이라는 성적은 4등급에 해당합니다.
+   - 4등급이 반영되는 과목들에서의 성적이 어느 정도인지 확인해야 합니다.
+3. **전형 요소**:
+   - 2024년도에는 학생부교과성적(60%), 출결(12%), 서류(실적)70%가 반영됩니다.
+   - 이 중 학생부교과성적이 가장 큰 비중을 차지하므로, 성적 평균이 높은 과목들이 많이 포함되어 있는지 확인해야 합니다.
+4. **결론**:
+   - 5.33이라는 성적만으로는 확실한 합격 여부를 판단하기 어렵습니다.
+   - 성적이 좋은 과목들에 더 많은 비중이 부여되는 경우, 합격 가능성은 높아질 수 있습니다.
+   - 반대로 성적이 좋지 않은 과목들이 많이 포함되어 있는 경우에는 합격 가능성은 낮을 수 있습니다.
+따라서, 정확한 합격 여부를 판단하기 위해서는 전체 학생부 교과성적과 출결 상황 등을 종합적으로 고려해야 합니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다.
+[참고 링크] https://ipsi.deu.ac.kr/main.do
+위 링크에서 동의대학교 입학사정관 평가 기준과 학생부 교과성적 반영 방법을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 등급과 지원자의 성적을 비교하여 합격 가능성을 언급하고 있습니다. 그러나, 응답에서 제시된 정보는 원본 텍스트의 세부 사항을 완전히 반영하지 않으며, 일부 추가 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 다루고 있지만, 추가된 정보가 원본의 맥락과 완전히 일치하지 않아서 일관성이 떨어집니다. 특히, 성적 반영 방법에 대한 설명이 원본 텍스트와는 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 바이오응용공학부에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 성적, 전형 방법, 그리고 합격 가능성에 대한 논의는 모두 원본 텍스트의 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 정보가 추가되어 있어 전체적인 흐름이 약간 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 추가된 정보가 원본의 세부 사항과 완전히 일치하지 않아서 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일관성과 정확성에서 약간의 부족함이 있습니다. 전반적으로는 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 의도와 약간의 차이를 보일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.7804950091481588</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부에 대한 정보를 바탕으로 답변 드리겠습니다.
+바이오응용공학부는 의생명공학과, 바이오의약공학과, 식품공학과로 구성되어 있습니다. 성적 3.33 정도는 중간적인 점수이며, 정시 모집에서 학생부 교과성적 반영방법은 다음과 같습니다:
+- **2024학년도 동의대학교 정시 모집**에서는 학생부 교과성적을 반영하는 방식이 바뀌었습니다. 2023년도에는 국어, 수학, 영어교과 중 석차등급 상위 8과목을 반영하였으나, 2024년도에는 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영하게 되었습니다.
+- **진로선택과목 성적반영**은 2023년도에는 A: 2등급 B: 4등급 C:6등급이었으나, 2024년도에는 A: 1등급 B: 3등급 C:5등급으로 바뀌었습니다.
+성적 3.33 정도는 중간적인 점수로, 이에 해당하는 등급은 보통 3등급 정도일 것입니다. 따라서 성적이 3.33이라면, 진로선택과목의 성적 반영에서 B: 4등급 이상을 받을 수 있을 것으로 예상됩니다.
+따라서, 성적 3.33 정도는 바이오응용공학부에 최초 등록자로 지원하는 데에는 충분한 점수일 것입니다. 하지만 최종 결정은 학교에서 실시하는 서류심사와 면접 등을 통해 이루어지므로, 정확한 결과를 얻기 위해서는 학교의 공식적인 입학 안내 및 전형 요소 반영 비율을 확인하시길 권장드립니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 모집인원과 전형요소에 대한 정보를 제공하고 있지만, 방사선학과의 평균 등급에 대한 언급이 없고, 4.4의 정시 등급으로 합격 가능성이 높다고 주장하는 것은 사실과 다릅니다. 원문에서는 4.4가 평균 등급보다 낮아 합격 가능성이 낮다고 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충하는 정보를 제공합니다. 원문에서는 4.4의 정시 등급이 방사선학과의 평균 등급보다 낮아 합격 가능성이 낮다고 했으나, 생성된 응답은 반대로 충분히 합격 가능성이 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하고 있으며, 질문자의 관심사와 관련이 있지만, 원문에서 제공된 핵심 정보(합격 가능성)에 대한 정확한 답변을 제공하지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 특히 합격 가능성에 대한 결론이 원문과 상충하여 논리적 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 모집인원과 전형요소에 대한 정보를 제공하지만, 4.4의 정시 등급에 대한 해석이 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 정보의 정확성과 일관성이 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원문에서의 의미와는 다르게 해석되고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6232526841975702</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024학년도에 방사선학과의 모집인원 및 전형요소를 확인해보겠습니다.
+방사선학과는 공과대학의 학과로, 2023년도에는 로봇자동화공학과와 함께 28명을 모집하였습니다. 그러나 2024년도에 방사선학과가 신설되었음을 확인할 수 있습니다.
+전형요소 반영비율은 다음과 같습니다:
+- 수능: 100%
+- 실기: -
+따라서, 현재 성적인 4.4정시 등급으로는 충분히 합격 가능할 것으로 보입니다. 하지만 정확한 모집인원과 전형요소를 확인하시기 바랍니다.
+추가적으로, 방사선학과의 입학전형 안내 및 모집인원은 공과대학 홈페이지에서 확인하실 수 있으니, 해당 페이지를 참조해보시는 것이 좋겠습니다. 필요하다면 "https://ipsi. deu.ac.kr/main.do" 링크를 통해 공고를 확인하시기 바랍니다.
+이 정보가 도움이 되길 바랍니다. 추가로 궁금한 점이 있으면 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 경쟁률에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 영어 등급과 수능 등급 평균에 대한 정보는 포함되어 있지 않으며, 2.66이라는 수치에 대한 해석이 잘못되었습니다. 원본 텍스트는 2.66이 평균보다 높은 성적임을 나타내고 있으나, 생성된 응답은 이를 낮은 경쟁률로 잘못 해석하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 2.66이 평균보다 높은 성적임을 강조하고 있지만, 생성된 응답은 이를 낮은 경쟁률로 해석하여 상반된 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용인 성적에 대한 해석과는 관련성이 떨어집니다. 경쟁률에 대한 정보는 있지만, 성적에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 경쟁률에 대한 설명이 주를 이루고 있어 원본 텍스트의 주제와는 다소 동떨어져 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 2.66이라는 수치에 대한 해석이 잘못되어 있으며, 원본 텍스트의 사실과 상충하는 정보를 제공합니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으며, 정보 전달이 명확합니다. 그러나 원본 텍스트와의 관련성이 떨어져 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.5967520914530077</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2.66이라는 경쟁률을 방사선학과에서 보았을 때, 이는 상대적으로 높은 경쟁률입니다. 방사선학과의 경우 모집인원이 5명이고 지원 인원이 36명으로, 평균 경쟁률이 7.20이라는 것을 볼 수 있습니다. 따라서 2.66은 평균적인 경쟁률에 비해 낮은 편입니다.
+하지만 이는 단순히 경쟁률을 바라보는 것이 아니라, 지원자의 합격 가능성을 결정하는 요소 중 하나일 뿐입니다. 합격 가능성은 서류평가와 면접평가의 결과를 포함하여 종합적으로 판단됩니다. 특히 방사선학과는 전공적합성과 학업역량이 중요하게 평가되므로, 이 부분에서 우수한 성적을 보여주고 진로 탐색 활동에 적극 참여하였다면 더 높은 점수를 받을 가능성이 있습니다.
+따라서 2.66이라는 경쟁률만으로는 확실한 판단이 어렵습니다. 지원자의 학업역량, 전공적합성 등 다른 평가 요소들을 종합적으로 고려해야 합니다. 더 자세한 정보나 조언을 원하신다면, "https://ipsi. deu. ac. kr/main. do"를 참조해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 잘못 해석하고 있습니다. 원문에서는 3.66의 성적이 평균보다 높다고 언급했으나, 생성된 응답에서는 합격 가능성이 낮다고 주장하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 3.66의 성적이 평균보다 높고, 경쟁률이 낮아졌다는 점을 긍정적으로 평가했으나, 생성된 응답에서는 반대로 합격 가능성이 낮다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으나, 원문에서 제시된 긍정적인 요소를 간과하고 있습니다. 그러나 농어촌 전형에 대한 추가 정보를 제공하여 어느 정도 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 잘 연결되어 있지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 다르게 해석하고 있습니다. 3.66의 성적이 평균보다 높다는 점을 간과하고 있으며, 이는 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원문과의 의미적 일치가 부족합니다. 원문의 긍정적인 요소를 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5160655532539488</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공 농어촌 전형에 지원하셨다면, 합격 가능성은 낮을 것으로 예상됩니다. 농어촌 전형은 주로 농어촌 지역 출신이나 특별한 사회적 배경을 가진 지원자들을 대상으로 하며, 일반적으로 성적이 낮은 편입니다.
+하지만 정확한 합격 가능성 판단을 위해서는 다음과 같은 정보가 필요합니다:
+1. 해당 대학의 농어촌 전형에서 요구하는 최저 성적 기준
+2. 지원자의 경쟁률
+3. 다른 지원자들의 성적 분포
+대부분의 경우, 일반적인 정시 합격 기준보다 낮은 성적이 필요합니다. 그러나 3.66이라는 성적을 가지고 농어촌 전형에 지원하는 것은 매우 힘든 경쟁률을 맞이하게 될 것입니다.
+따라서, 최선의 방법은 입학사정관 제도나 일반전형 등 다른 합격 가능성을 고려해 보는 것이 좋습니다. 또한, 대학 홈페이지에서 제공되는 전형별 세부 안내를 확인하시거나, 입학처에 직접 문의하시는 것을 추천드립니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 방문해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동점자 처리 기준에 대한 정보를 제공하지만, 원문에서 언급된 특정 학과와 예비 번호에 대한 정보는 포함되어 있지 않습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부분 일치하지만, 동점자 처리 기준에 대한 설명이 추가되어 있어 원문과의 일관성이 떨어집니다. 원문은 특정 학과에 대한 합격 가능성을 강조하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변으로 관련된 정보를 제공하지만, 원문에서 제시된 특정 학과 목록과 예비 번호에 대한 정보가 부족하여 완전한 관련성을 갖추지 못합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결성이 약간 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 동점자 처리 기준에 대한 정보를 제공하지만, 원문에서 제시된 특정 학과와 예비 번호에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 유용한 정보를 제공하지만, 원문과의 일관성 및 정확성이 부족하여 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서의 역할을 잘 수행하고 있습니다. 그러나 원문과의 맥락이 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 원문과의 연결이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.4255031621881598</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 순위가 주어졌다면, 동점자 처리 기준에 따라 붙을 가능성이 있습니다. 동점자 처리 기준은 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수) 영역의 합계점수 상위자입니다.
+따라서, 25번이 나왔다면 해당 학교에서 동점자를 처리하는 기준에 따라 붙을 확률은 있습니다. 하지만 이는 특정한 학생의 성적과 다른 지원자의 성적을 비교해야 정확히 판단할 수 있는 부분입니다.
+더 자세한 정보를 얻기 위해서는 입학처 홈페이지나 전화로 문의하시는 것이 좋습니다. 또한, 동점자 처리 기준에 따라 수능 점수와 등급이 중요하므로 해당 점수를 잘 준비하고 관리하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보를 제공하고 있으나, 원본 텍스트에서 언급된 법경찰행정학부는 존재하지 않는다는 사실을 무시하고 있습니다. 또한, 평균 성적에 대한 정보도 원본 텍스트와 일치하지 않으며, 잘못된 수치를 제시하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 경찰행정학과에 대한 성적 정보를 제공하는 반면, 생성된 응답은 법경찰행정학부에 대한 정보를 제공하고 있어 서로 상충하는 내용을 담고 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교에 대한 정보를 제공하고 있으나, 법경찰행정학부에 대한 정보는 원본 텍스트와 관련이 없습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다. 특히, 법경찰행정학부에 대한 정보는 잘못된 내용입니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전체적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉬운 편입니다. 그러나 내용의 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7501535157933229</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학부에 대한 정보를 바탕으로 추정해보겠습니다.
+- **모집인원**: 7명
+- **지원인원**: 40명
+- **경쟁률**: 5.71 (40 / 7)
+- **충원 합격 (후보순위)**: 13명
+이 정보를 바탕으로, 안정적인 충원 합격을 위해서는 평균 성적이 높은 수준이 필요할 것으로 보입니다. 경쟁률이 높고 모집인원이 적기 때문에, 평균 성적은 상대적으로 높아야 합니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 315.78
+- **영어 등급의 평균**: 3.11
+이 중에서, **표준 변환 점수**는 대체로 높은 수치를 받을 필요가 있습니다. 표준 변환 점수가 300점 이상인 경우가 많으므로, 이 정도 수준의 성적을 받으면 안정권에 들어갈 가능성이 높아 보입니다.
+- **수능 4개 영역 등급의 평균**: 4.27
+이 평균 등급을 기반으로, **등급 평균**도 상대적으로 높은 수준이어야 합니다. 4.3 이상의 등급 평균을 받으면 안정적인 충원 합격 가능성이 높아 보입니다.
+따라서, **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**이 310점 이상이고, **영어 등급 평균**이 4.0 이상인 경우를 목표로 하면 안정권에 들어갈 가능성이 높아 보입니다.
+만약 이 수치를 넘어서서 320점 이상의 표준 변환 점수와 4.5 이상의 영어 등급을 받으면, 문 닫고 들어갈 수 있을 정도로 안전한 성적을 받을 수 있습니다.
+이 정보는 추정이며, 실제 입학 결과는 여러 요인에 따라 달라질 수 있으므로, 최종 결정 전에는 공식적인 입학정보 사이트를 확인하시기 바랍니다. (https://ipsi. deu. ac. kr/main. do)</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 정시 등급 5.33에 대한 평가를 제공하지만, 원본 텍스트에서 언급된 아동학과의 평균 등급(6.33 및 7.08)과 관련된 정보가 누락되어 있습니다. 또한, 보육가정상담학과에 대한 구체적인 정보가 부족하여 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 보육가정상담학과에 대한 정보가 부족하여 일관성이 떨어집니다. 원본 텍스트의 주요 포인트인 아동학과의 평균 등급과 비교하는 내용이 포함되지 않았습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 정시 등급과 관련된 정보를 제공하고 있지만, 보육가정상담학과에 대한 구체적인 정보가 부족하여 다소 관련성이 떨어집니다. 그러나 전반적으로 주제와 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 보육가정상담학과에 대한 정보가 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 정시 등급에 대한 평가를 제공하지만, 원본 텍스트의 구체적인 수치와 비교하는 내용이 부족하여 정확성이 떨어집니다. 또한, 보육가정상담학과에 대한 정보가 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 주요 정보를 충분히 반영하지 못하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 보육가정상담학과에 대한 구체적인 정보가 부족하여 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.6510127241261127</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>5.33이라는 점수는 표준점수로, 동의대학교에서 제공하는 표준점수 기반의 학생부 교과성적 평가에서 사용됩니다. 보육가정상담학과에 대한 정시 모집군 및 전형요소 반영비율을 확인해야 합니다.
+2024학년도 동의대학교의 학생부교과 위주전형인 경우, 반영과목은 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목입니다. 이 기준에 따라 5.33이라는 점수를 평가받습니다.
+만약 학생부 교과성적 평가에서 국어, 수학, 영어 등 주요 과목의 성적이 높다면 합격 가능성은 있습니다. 그러나 정확한 합격 여부는 동의대학교의 2024년도 정시 모집군 및 전형요소 반영비율을 확인해야 합니다.
+따라서, 현재 정보로만 판단하면 합격 가능성이 있지만 확실하지 않습니다. 동의대학교의 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)를 참조하거나, 입학처에 직접 문의하여 최신 정보와 정확한 답변을 받는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 포함하고 있지만, 경쟁률과 평균 점수에 대한 구체적인 수치는 원본 텍스트에 명시되어 있지 않으므로 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 경쟁률과 평균 점수에 대한 정보는 원본 텍스트에 포함되어 있지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보(경쟁률 및 평균 점수)가 포함되어 있어 약간의 주제 이탈이 발생했습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 경쟁률과 평균 점수에 대한 정보가 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답에서 제공된 경쟁률과 평균 점수는 원본 텍스트에 포함되어 있지 않으므로 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질이 다소 균형을 이루고 있지만, 사실성과 일관성에서의 부족함이 전체 점수에 영향을 미쳤습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가적인 정보가 포함되어 있어 약간의 맥락 이탈이 발생했습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약간 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.5679431469743831</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담 충원 합격 3차에서는 예비 12번을 받았습니다. 이 경우, 경쟁률과 평균 점수를 고려할 때 합격 가능성은 낮지만, 아직 최종 합격자 발표까지 시간이 남아 있습니다.
+현재의 경쟁률과 평균 점수가 다음과 같습니다:
+- 경쟁률: 3.67
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 312.33
+이러한 상황에서 합격 가능성은 낮지만, 최종 합격자 발표까지 시간이 남아 있으므로, 학교 입학관리팀에 문의하거나, 합격자 발표를 기다리는 것이 좋습니다.
+더 자세한 정보는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [온라인 원서접수 사이트](http://www.uwayapply. com)를 참조하시거나, 직접 입학관리팀에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 유아교육학과에 지원할 수 있다고 언급하지만, 원본 텍스트에서는 4.75의 성적으로는 지원하기 어렵다고 명확히 설명하고 있습니다. 이로 인해 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본에서는 지원이 어렵다고 명시했으나, 생성된 응답에서는 가능하다고 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 유아교육학과에 대한 추가적인 정보와 지원 전략을 제시하고 있어 관련성이 높지만, 원본 텍스트의 핵심 내용과는 다소 벗어나 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 특히 지원 가능성에 대한 정보가 잘못 전달되었습니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4  
+   - 전반적으로 이해하기 쉬운 내용이지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7575020305292014</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 성적을 가지고 정시로 유아교육학과에 지원하는 것은 가능하지만, 경쟁률이 매우 높기 때문에 어려울 수 있습니다.
+유아교육학과의 경우, 학생부종합전형에서 공동체역량, 학업역량, 전공적합성 등 다양한 영역을 평가합니다. 따라서 단순히 성적이 높다고 해서 유리한 것은 아닙니다. 성적 외에도 다음과 같은 요소들이 중요하게 작용할 수 있습니다:
+1. **공동체역량**: 학교생활기록부에서의 활동, 동아리 참여, 자원봉사 등.
+2. **학업역량**: 과목별 성적 외에 진로 탐색 활동, 창의적 체험활동 등.
+3. **전공적합성**: 지원하는 전공과 관련된 교내 활동, 특기사항 등.
+따라서 4.75라는 성적을 가지고 유아교육학과에 지원하려면, 학교생활기록부에서의 다양한 활동이 중요하게 작용할 수 있습니다. 특히 공동체역량 영역에서는 활발한 참여와 모범적인 행동이 인정받을 것입니다.
+추가적으로, 정시모집군 변경사항을 확인하여 유아교육학과에 해당하는 정시모집군이 어떤지 파악하고, 그에 따른 지원 전략을 세우는 것이 좋습니다. 필요하다면, 입학처나 학교 관계자에게 상담을 받는 것도 도움이 될 수 있습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보시거나, 직접 입학처에 문의하시면 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 보육가정상담학과의 일반학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 아동학과의 평균 등급과 관련된 정보는 포함되어 있지 않으며, 주어진 질문에 대한 직접적인 답변이 부족하다. 또한, 원본 텍스트의 핵심 정보인 정시 등급 4.16에 대한 해석이 잘못되었거나 누락되었다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 아동학과의 평균 등급에 대한 정보가 누락되어 있어 일관성이 떨어진다. 원본 텍스트의 주제와는 다른 방향으로 정보가 제공되고 있다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 일반학생전형에 대한 정보를 제공하지만, 원본 텍스트의 질문에 대한 직접적인 답변이 부족하다. 따라서 관련성은 어느 정도 있지만, 질문의 핵심에 대한 답변이 부족하다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 주제를 다루고 있지만, 원본 텍스트와의 연결이 약해 논리적인 흐름이 부족하다. 정보가 분산되어 있어 일관된 주제를 유지하지 못하고 있다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 핵심 사실을 정확하게 반영하지 않으며, 특히 정시 등급 4.16에 대한 해석이 부정확하다. 원본 텍스트의 정보와 상충하는 부분이 있다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 원본 텍스트와의 관련성도 부족하다. 따라서 다차원적인 품질이 낮다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과에 대한 정보를 제공하지만, 원본 텍스트의 질문과는 다소 동떨어진 내용이 포함되어 있어 의미적으로 적절하지 않다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 정보의 흐름이 다소 분산되어 있어 일부 독자에게는 혼란을 줄 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5063848142742808</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 일반학생전형에 대한 정보를 제공하겠습니다.
+보육가정상담학과의 일반학생전형은 학생부종합 평가를 통해 선발되며, 주요 평가 영역은 공동체역량, 학업역량, 전공적합성입니다. 또한, 2024학년도에는 학생부 교과성적 반영방법이 변경되었는데, 이는 전반적으로 과목의 석차등급을 더 많이 반영하게 되었습니다.
+현재您的问题似乎是在询问关于东国大学保育·家庭咨询学专业的普通学生录取情况。根据您提供的信息，2024年东国大学保育·家庭咨询学专业采用综合评价的方式进行招生，并且主要评估领域包括：社会贡献能力、学业能力和专业适应性。
+此外，2024年的学生学业成绩评价方式也有所变化，更加注重各科目的等级排名。您目前的换算等第为4.16，这个成绩在一定程度上反映了您的学术水平和学习能力。
+为了更准确地判断您是否能够被录取，建议参考以下几点：
+1. **共同社会贡献能力**：这包括您的社团活动、志愿服务经历等。
+2. **学业能力**：根据您提供的换算等第4.16来看，这个成绩在一定程度上反映了您的学术水平。但具体还需要看各科目的等级排名是否符合学校的要求。
+3. **专业适应性**：这主要考察您对专业的兴趣和适合度。
+综合以上因素，如果您的共同社会贡献能力较强，并且学业能力和专业适应性也较好，那么被录取的可能性较大。但是最终能否被录取还需参考具体的招生标准和流程，请务必关注东国大学的官方通知或咨询相关部门以获取最准确的信息。
+如需更多信息，建议访问东国大学官网（https://ipsi. deu.ac.kr/main.do）查看最新的招生信息和要求。</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문 내용을 완전히 무시하고 있으며, 정시 지원에 대한 잘못된 정보와 세부사항을 제공하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 포함하고 있습니다. 원문은 정시 지원이 불가능하다고 명시하고 있지만, 생성된 응답은 정시 지원을 위한 조건과 세부사항을 설명하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없으며, 정시 지원이 불가능하다는 주제를 벗어나 정시 지원에 대한 잘못된 정보를 제공합니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계가 명확하지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 완전히 상반되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와도 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 내용의 부정확성으로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.4411381005041404</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과를 정시로 지원하려는 경우, 전형 요소 반영 비율을 확인해야 합니다. 2023년도에는 실기/실적(경기실적우수자전형)의 학생부교과(출결포함)가 30%, 서류(실적)가 70%였습니다. 하지만 2024년도에는 실기/실적(경기실적우수자전형)의 학생부교과가 18%, 출결이 12%, 서류(실적)가 70%로 변경되었습니다.
+따라서, 소프트웨어융합학과를 정시로 지원하려면 학생부 교과 성적이 중요해졌습니다. 특히, 학생부 교과성적의 반영 방식이 바뀌었기 때문에, 평균 등급을 확인해야 합니다.
+2024년도에 소프트웨어융합학과를 정시로 지원하려면, 학생부 교과 성적이 중요해졌습니다. 2023년도의 경우, 국어, 수학, 영어교과 중 석차등급 상위 8과목을 반영했지만, 2024년도에는 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목이 반영됩니다.
+따라서, 평균 등급을 확인하기 위해서는 각 과목의 성적을 잘 유지해야 합니다. 특히, 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 등의 석차등급 상위 12과목이 중요합니다.
+상세한 정보는 "https://ipsi.deu.ac.kr/main.do"를 참조하시거나 대구교육대학교 입학처에 문의하시면 도움을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 서류 평가와 면접 평가의 비율에 대한 정보를 추가했지만, 원본 텍스트에서 제공된 정보와는 다소 차이가 있습니다. 원본 텍스트는 서류 평가와 면접 고사에 대한 구체적인 점수 배분을 언급하지 않았습니다. 따라서 일부 사실이 정확하지 않거나 추가된 정보가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하였으나, 서류 평가와 면접 평가의 비율에 대한 정보가 원본과 일치하지 않아 일관성이 떨어집니다. 또한, 서류 제출에 대한 추가적인 세부사항이 포함되어 있지만, 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 서류 평가와 면접 준비에 대한 구체적인 정보를 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 추가되어 있어 전체적인 흐름이 약간 어색할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 서류 평가와 면접 평가의 비율에 대한 정보가 정확하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 사실성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다. 그러나 일부 추가된 정보가 원본의 의미와 다소 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.6304742881172545</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 경우, 서류평가와 면접 평가 비율이 각각 60%와 40%입니다. 따라서 서류평가에서 더 많은 점수를 받기 위해 세특 내용을 잘 준비하는 것이 중요합니다.
+서류평가에서는 학교생활기록부 외에 제출해야 할 주요 서류로는:
+1. 고교 졸업(예정)자: 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급한 학생부 온라인 제공 동의서가 필요하지 않습니다.
+2. 검정고시출신자: 검정고시 합격증서 사본 또는 합격증명서 1부와 검정고시 성적증명서 1부를 제출해야 합니다.
+3. 외국고교 졸업(예정)자: 공증받은 외국고교 졸업(예정)증명서, 공증받은 외국고교 성적증명서, 학교생활기록부 대체 서류를 제출해야 합니다.
+따라서 세특 내용을 준비할 때는 지원하는 전공과 관련된 활동이나 경험을 강조하고, 그 활동에서 얻은 결과와 배운 것을 자세히 기재해야 합니다. 또한 학업역량과 전공적합성에 대한 내용도 함께 포함시켜야 합니다.
+추가적으로 면접에서는 지원동기 및 학업계획, 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답 등을 준비해야 하며, 서류평가 시 작성된 면접질문지를 활용하여 제출서류 진위여부를 검증받을 수 있습니다.
+따라서 세특 내용과 지원동기, 학업계획 등에 대한 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 정보를 바탕으로 하고 있습니다. 또한, 경쟁률과 평균 점수에 대한 언급이 있지만, 원본 텍스트에서 제공된 정보와는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 소프트웨어융합학과에 대한 정보로 전환되면서 일관성이 떨어집니다. 원본 텍스트는 소프트웨어공학부에 대한 정보이므로, 이 점에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어융합학과에 대한 최초합격 가능성을 논의하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 소프트웨어공학부에 대한 정보가 아닌 다른 학과에 대한 정보로 전환되었기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해져서 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 다소 다르게 해석되고 있으며, 소프트웨어융합학과에 대한 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트와의 관계에서 부족한 점이 있습니다. 특히, 정확성과 일관성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 다르게 해석되고 있으며, 소프트웨어융합학과에 대한 정보로 전환되면서 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 그러나 원본 텍스트와의 관계에서 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7943745276450629</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>4.08이라는 수능 점수를 가지고 동의대학교 소프트웨어융합학과에 최초합격이 가능한지 판단하기 위해서는 해당 학과의 경쟁률과 평균 점수 등을 고려해야 합니다.
+현재 제공된 정보에서는 정시 모집단위가 아닌 학생부종합전형 및 조기취업형계약학과전형에 대한 내용만 있습니다. 따라서 정시 성적이 4.08인 경우 동의대학교 소프트웨어융합학과에 최초합격이 가능한지 판단하기 위해서는 다음과 같은 정보가 필요합니다:
+1. 해당 학과의 최소 수능 점수 기준
+2. 경쟁률 및 충원 합격자 수
+3. 평균 수능 점수와 표준 편차
+위에서 제공된 정보만으로는 정확한 판단이 어렵습니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋겠습니다.
+더 궁금하신 사항이 있으시다면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나, 동의대학교 입학처에 직접 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 소프트웨어공학부의 신설에 대한 정보는 사실이지만, 학생부종합 평가영역의 성적 반영 비율에 대한 정보는 출처 텍스트와 일치하지 않습니다. 따라서 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과와 소프트웨어공학부에 대한 정보를 혼합하여 제공하고 있으며, 출처 텍스트와의 일관성이 부족합니다. 특히, 정시모집군 변경사항에 대한 언급이 출처 텍스트와 상충합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문에 대해 소프트웨어공학부의 신설과 관련된 정보를 제공하고 있지만, 질문의 핵심인 합격 등급 정보와는 직접적인 관련이 적습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 주제를 다루고 있지만, 소프트웨어융합학과와 소프트웨어공학부에 대한 정보가 혼합되어 있어 논리적인 흐름이 다소 부족합니다. 따라서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 출처 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 특히 학생부종합 평가영역의 성적 반영 비율에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받고 있으며, 여러 차원에서 부족한 점이 많습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 출처 텍스트와의 맥락이 맞지 않는 부분이 있어 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 혼합으로 인해 일부 혼란스러운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.667256071531216</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)가 신설되었으므로, 정시모집군 변경사항을 확인해야 합니다. 제공된 정보에서 소프트웨어공학부는 정시모집군이 변경되지 않았으며, 학생부종합 평가영역의 진로선택과목 성적반영은 A: 1등급 B: 3등급 C: 5등급으로 반영됩니다.
+따라서, 소프트웨어융합학과에 지원하려면 정시모집군을 확인하고, 학생부종합 평가영역의 진로선택과목 성적반영이 A: 1등급 B: 3등급 C: 5등급으로 반영되는 것을 고려해야 합니다. 따라서, 평균 5등급으로 지원할 수 있습니다.
+만약 추가 정보나 변경 사항이 있다면, "https://ipsi.deu.ac.kr/main.do"를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 성적과 지원자의 성적을 비교하고 있지만, 모집 인원, 지원 인원, 경쟁률 등의 정보는 원본 텍스트에 포함되어 있지 않으며, 이러한 정보는 정확한 판단을 위해 필요하지 않은 세부사항입니다. 따라서 일부 정보는 정확하지만, 원본 텍스트의 핵심적인 사실을 완전히 반영하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가된 정보(모집 인원, 지원 인원 등)는 원본 텍스트와 일관되지 않습니다. 원본 텍스트는 성적에 대한 판단을 중심으로 하고 있으며, 생성된 응답은 불필요한 세부사항을 포함하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 지원자의 성적과 신소재공학과의 평균 성적을 비교하는 데 초점을 맞추고 있어 관련성이 높습니다. 그러나 추가된 정보가 원본 텍스트의 주제와 직접적으로 관련이 없기 때문에 완벽한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 반복되어 표현이 다소 중복되는 경향이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 명확합니다. 그러나 추가된 정보가 원본 텍스트의 주제와 완전히 일치하지 않기 때문에 약간의 일관성 부족이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 지원자의 성적이 신소재공학과의 평균 성적보다 높다는 점에서 정확하지만, 추가된 정보는 원본 텍스트의 사실과 일치하지 않거나 불필요한 세부사항이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심적인 사실을 완전히 반영하지 않기 때문에 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 전달하고 있지만, 추가된 정보가 맥락에 맞지 않게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 중복된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6663298463516409</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과의 지원 자료를 바탕으로 분석해보겠습니다.
+신소재공학과의 경우, 모집 인원이 6명이고 지원 인원이 22명이며 경쟁률은 3.67입니다. 또한, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 309.71이며, 이는 지원자의 성적이 4.28일 때 상대적으로 높은 점수입니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 309.71이고, 이는 지원자의 성적이 4.28일 때 상대적으로 높은 점수입니다. 또한, 영어 등급의 평균이 3.71이며, 이 역시 지원자의 성적이 4.28일 때 상대적으로 높은 점수입니다.
+따라서, 지원자의 성적인 4.28은 신소재공학과의 평균적인 지원자보다 높으므로 합격 가능성은 있습니다. 그러나 경쟁률이 높고 모집 인원이 제한적이기 때문에 확실하지는 않습니다.
+결론적으로, 지원자의 성적 4.28은 신소재공학과의 평균적인 지원자보다 높으므로 합격 가능성은 있지만, 최종 합격 여부는 입시 결과에 따라 결정됩니다. 따라서, 정확한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트나 입시 관련 자료를 확인하는 것이 좋습니다.
+더 궁금하신 점이 있으시면 https://ipsi.deu.ac.kr/main.do 에 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요하지 않다는 사실을 정확하게 반영하고 있습니다. 그러나 추가적인 정보(입학 안내 홈페이지 링크 등)는 원본 텍스트에 포함되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 자기소개서가 필요하지 않다고 언급하고 있습니다. 다만, 서류 제출 대상에 대한 추가 설명이 포함되어 있어 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 다만, 추가 정보가 포함되어 있어 약간의 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하고 있지만, 추가적인 세부사항이 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 부정확성과 일관성 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가적인 정보가 포함되어 있어 약간의 의미적 불일치가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용입니다. 그러나 추가적인 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.6546381768256598</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 일반학생전형에서는 자기소개서가 필요하지 않습니다. 서류 제출 대상이 아닌 경우, 추가로 자기소개서를 작성할 필요가 없습니다. 자세한 내용은 입학 안내 홈페이지 (http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com)에서 확인하실 수 있습니다.
+만약 서류 제출 대상인 경우에는 해당 모집단위의 제출서류를 체크하시고, 필요하다면 자기소개서를 작성해야 합니다. 그러나 현재 제공된 정보로는 수능 일반학생전형에서는 자기소개서가 요구되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 점수에 대한 정보는 포함하고 있지만, 동의대학교의 입학 관련 정보와 관련된 세부 사항이 잘못되거나 누락되었습니다. 예를 들어, 모집 인원 및 지원 인원에 대한 언급이 있지만, 이는 원문과 관련이 없습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일관성이 부족합니다. 원문은 동의대학교의 수능 정시 모집에 대한 구체적인 정보를 제공하는 반면, 생성된 응답은 다른 주제로 전환되어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원문과 관련된 주제를 다루지 않고, 다른 주제에 대한 정보를 포함하고 있어 관련성이 낮습니다. 원문에서 요구하는 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 문장은 불필요하게 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 논리적인 흐름이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 원문과의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 정보와 관련된 정확성이 부족합니다. 원문에서 언급된 수능 점수와 관련된 정보가 잘못 해석되거나 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성, 정확성 모두에서 부족함이 드러났습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서 요구하는 정보와는 다른 주제를 다루고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 일부 부분에서 이해하기 어려운 내용이 포함되어 있지만, 전반적으로는 이해할 수 있는 수준입니다. 그러나 원문과의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.4382645136691654</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 높은 점수입니다. 하지만 실제로 어떤 학과에 들어갈 수 있는지는 여러 요인에 따라 달라질 수 있습니다.
+1. **모집 인원 및 지원 인원**: 각 모집단위별로 모집 인원이和支持政策，旨在促进就业和经济发展。这些措施包括：
+1. **减税降费**：政府通过降低企业税收负担来鼓励投资和创业。
+2. **优化营商环境**：改善商业环境，简化行政程序，提高服务效率。
+3. **支持小微企业**：提供贷款优惠、减免租金等政策帮助小型企业发展。
+4. **促进就业培训**：开展职业培训项目，提升劳动力技能，增加就业机会。
+这些措施有助于减轻企业和个人的负担，激发市场活力，并为经济发展注入新的动力。如果您有具体的问题或需要进一步的信息，请告诉我，我会尽力提供帮助。如果需要更详细的数据或政策内容，您可以访问“https://ipsi.deu.ac.kr/main.do”获取更多信息。
+如果您想了解具体的就业支持措施或者想要咨询某个特定的政策细节，可以告诉我更多背景信息，我将为您提供更加针对性的帮助。</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 제공하지 않고, 잘못된 평균 영어 등급(3.33)을 언급하고 있습니다. 또한, 모집 인원, 지원 인원, 경쟁률 등의 정보는 출처에 명시되어 있지 않으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 출처의 정보와 일치하지 않는 내용을 포함하고 있습니다. 예를 들어, 영어 등급 평균이 3.33이라고 언급했지만, 출처에서는 5.06이라고 명시되어 있습니다. 이러한 불일치는 응답의 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학부의 합격 기준에 대한 정보를 제공하려고 하지만, 출처의 구체적인 데이터와는 관련이 적습니다. 그러나 전반적으로 주제와 관련된 정보를 포함하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되어 있습니다. 그러나 출처의 정보와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 출처의 사실과 여러 가지로 다릅니다. 특히, 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보가 잘못되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 요소를 가지고 있지만, 사실성과 정확성에서 큰 결함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 출처의 정보와 일치하지 않기 때문에 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6919459998825687</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학부에 대한 정확한 합격 기준 등급 정보가 제공되지 않았습니다. 하지만, 일반적으로 신소재공학과와 관련된 전공에서는 국어, 수학, 영어, 과학교육 등의 등급이 중요한 역할을 합니다.
+2024학년도 동의대학교의 경우, 신소재공학과는 다음과 같은 특징을 가집니다:
+- 모집 인원: 6명
+- 지원 인원: 22명
+- 경쟁률: 3.67
+- 충원 합격 (후보순위): 4명
+국어, 수학, 탐구(2개)의 표준 변환 점수 평균은 317.77이며, 영어 등급의 평균은 3.33입니다.
+이러한 정보를 바탕으로 추정해보면, 신소재공학과에 합격하기 위해서는 대체로 국어, 수학, 과학교육 등의 등급이 B등급 이상이어야 할 것으로 예상됩니다. 하지만, 정확한 합격 기준 등급은 해당 대학의 공식 입학 안내서나 홈페이지를 참조하는 것이 가장 정확할 것입니다.
+더 자세한 정보는 https://ipsi.deu.ac.kr/main.do 를 방문하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보를 제공하지만, "447점보다 약간 높았던 것으로 알려져 있습니다"라는 부분은 사실과 다릅니다. 원본 텍스트에서는 평균 점수가 378.15점이라고 명시되어 있으며, 447점은 이보다 훨씬 높은 점수입니다. 따라서, 일부 사실이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, "447점보다 약간 높았던 것으로 알려져 있습니다"라는 주장은 원본 텍스트의 내용과 모순됩니다. 원본 텍스트는 447점이 평균 점수보다 훨씬 높다고 명시하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신소재공학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 설명하고 있습니다. 그러나 일부 문장이 더 명확하게 연결될 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 특히 평균 점수에 대한 정보가 잘못 전달되고 있습니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 문제가 있지만, 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 정보가 왜곡되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7374551829490519</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 신소재공학과의 경우, 작년 최종 평균 점수가 447점보다 약간 높았던 것으로 알려져 있습니다. 하지만 이는 단순히 작년 데이터만을 바탕으로 한 예측일 뿐이며, 실제 모집에서는 다양한 요인들이 고려됩니다.
+1. **경쟁률**: 현재 경쟁률이 작년과 크게 다르지 않다면, 작년보다 약간 낮은 점수가 충원될 가능성은 있습니다.
+2. **지원 인원**: 지원 인원의 수가 작년에 비해 증가하거나 감소한다면, 이에도 따라 최종 평균 점수가 변동될 수 있습니다.
+3. **출제 범위 및 난이도**: 수능 문제의 출제 범위와 난이도가 작년과 달라진다면, 이에 따른 점수 변동이 있을 수 있습니다.
+따라서, 작년보다 약간 높은 점수가 최종 평균으로 반영될 가능성은 있지만, 확실한 것은 아닙니다. 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 공식 안내 자료를 확인하는 것이 가장 좋습니다.
+만약 더 자세한 정보가 필요하다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 합격 가능성에 대한 여러 요인을 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 성적 데이터와 비교하여 다소 일반적인 정보로 대체되었습니다. 원본의 구체적인 성적 평균과 표준 편차에 대한 언급이 부족하여 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 신소재공학부의 합격 여부에 대한 구체적인 성적 기준을 명확히 하지 않고 여러 요인을 언급하여 일관성이 떨어집니다. 원본의 성적 데이터와 비교할 때, 생성된 응답은 다소 모호한 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학부의 합격 가능성에 대한 질문에 적절하게 답변하고 있으며, 관련된 요소들을 언급하고 있습니다. 그러나 원본 텍스트의 구체적인 성적 데이터와 비교할 때, 다소 일반적인 정보로 대체되어 있어 완전한 관련성은 떨어집니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 매끄럽고 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 구체적인 성적 데이터와의 연결이 부족하여 완전한 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 구체적인 성적 데이터를 반영하지 않고, 일반적인 평가 기준을 제시하고 있습니다. 따라서 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 양호한 성과를 보이고 있지만, 사실성과 정확성에서 다소 부족함이 있어 전체적인 품질 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으며, 관련된 정보를 잘 반영하고 있습니다. 그러나 구체적인 성적 데이터와의 연결이 부족하여 완전한 적절성은 떨어집니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5429590756806675</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 정시 성적이 4.1~4.2로 예상된다면, 신소재공학부 일반학생전형에 합격할 수 있을지는 여러 요인에 따라 다릅니다.
+신소재공학부의 경우, 학생부종합 평가를 포함하여 실기/실적과 같은 다양한 요소들이 고려됩니다. 따라서 정시 성적 외에도 다음과 같은 요소들이 중요하게 작용합니다:
+1. **학생부 교과성적**: 반영과목 수와 석차등급이 중요한 역할을 합니다.
+2. **면접 성적**: 면접에서의 발언력, 소통 능력 등도 고려됩니다.
+3. **추천서 및 서류**: 추천서나 자기소개서 등의 서류가 합격에 큰 영향을 줄 수 있습니다.
+현재 상황에서는 정시 성적이 4.1~4.2로 예상되므로, 다음과 같은 조치를 취해보는 것이 좋습니다:
+- **학생부 교과성적 강화**: 반영과목 수와 석차등급을 최대한 높이는 것이 중요합니다.
+- **면접 준비**: 면접에서의 발언력과 소통 능력을 향상시키기 위해 미리 준비해보세요.
+- **추천서 및 서류 작성**: 추천서와 자기소개서를 잘 작성하여 합격 가능성을 높이도록 하세요.
+따라서, 정시 성적만으로는 확실한 합격을 보장할 수 없지만, 위의 조치들을 통해 합격 가능성은 높일 수 있습니다. 자세한 내용은 대학 홈페이지나 입학처에 문의하여 확인하는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do"를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 성적에 대한 구체적인 수치를 제공하지 않고, 필요한 성적 기준을 제시하고 있습니다. 그러나 이 기준이 실제로 정확한지 확인할 수 없으므로, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 성적 기준을 제시하지만, 원본 텍스트의 구체적인 성적 데이터와는 일치하지 않습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 인공지능학과에 지원하기 위한 성적 기준을 제시하고 있어 원본 텍스트와 매우 관련이 높습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장에서 더 명확한 연결이 필요할 수 있어 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 특정 성적 기준을 제시하지만, 원본 텍스트의 구체적인 성적 데이터와는 차이가 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 관련성, 유창성, 일관성에서 좋은 점수를 받았지만, 사실성과 정확성에서 다소 부족하여 종합 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으나, 일부 세부 사항에서 차이가 있어 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있으나, 일부 문장에서 더 명확한 설명이 필요할 수 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.7357890869204036</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과로 지원하려면, 다음과 같은 성적이 필요합니다:
+- **수능 국어**: 104 이상
+- **수능 수학(미적분)**: 108 이상
+- **수능 영어**: 4등급 이상 (영어 등급에 따른 점수는 139 이상)
+이 성적이 기본적인 요구사항이며, 실제 합격을 위해서는 모집단위와 관련된 교과목의 성적도 고려해야 합니다. 예를 들어, 인공지능학과에서는 수학과 영어가 중요하므로, 해당 과목에서 높은 점수를 받는 것이 유리합니다.
+또한, 합격을 위한 최종적인 성적은 동의대학교 입학처 홈페이지나 공식 안내서를 통해 확인하는 것이 가장 정확할 것입니다. 따라서, 2024년 전형일정과 모집요강을 확인하시고, 필요에 따라 추가로 문의해주세요.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조하거나, 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에서 제공된 구체적인 학과와 성적에 대한 정보가 누락되어 있습니다. 예를 들어, 원본 텍스트에서는 5.27 성적으로 충원 합격이 가능한 학과를 명시했으나, 생성된 응답에서는 특정 학과에 대한 정보가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 충원 합격 가능성에 대한 분석이 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 예를 들어, 특정 학과의 경쟁률과 충원 합격 순위에 대한 정보가 다르게 제시되었습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27 성적에 대한 충원 합격 가능성에 대한 질문에 적절하게 응답하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트에서 제시된 구체적인 학과 목록과 성적 정보가 부족하여 완전한 관련성을 제공하지는 못합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과에 대한 분석이 일관되게 이어집니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 구체적인 데이터와 비교했을 때 정확성이 떨어지는 부분이 있습니다. 특히, 충원 합격 가능성에 대한 정보가 원본과 일치하지 않는 경우가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 품질을 보이고 있으나, 원본 텍스트와의 일치성 및 정확성이 부족하여 전반적인 품질이 다소 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 질문에 대한 적절한 답변을 제공합니다. 그러나 원본 텍스트의 구체적인 세부사항이 부족하여 완전한 의미 전달에는 한계가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.7788079084522435</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 추합 가능성은 단과대학과 모집단위, 지원 인원 등 여러 요인에 따라 다릅니다.
+현재 제공된 정보를 바탕으로 분석해보겠습니다:
+1. **상경대학 호텔·컨벤션경영학과**:
+   - 경쟁률: 1.50
+   - 충원 합격 (후보순위): 3
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 257.00
+   이 성적은 평균보다 낮아 경쟁률이 낮고 충원 합격자수가 적은 곳에서는 가능성이 있습니다.
+2. **상경대학 외식경영학과**:
+   - 경쟁률: 4.83
+   - 충원 합격 (후보순위): 12
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 294.29
+   이 성적은 평균보다 낮아 경쟁률이 높고 충원 합격자수가 많은 곳에서는 추합 가능성은 낮습니다.
+3. **의료보건생활대학 간호학과**:
+   - 경쟁률: 6.59
+   - 충원 합격 (후보순위): 37
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 353.48
+   이 성적은 평균보다 낮아 경쟁률이 높고 충원 합격자수가 많은 곳에서는 추합 가능성은 낮습니다.
+4. **의료보건생활대학 임상병리학과**:
+   - 경쟁률: 4.80
+   - 충원 합격 (후보순위): 8
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 329.82
+   이 성적은 평균보다 낮아 경쟁률이 높고 충원 합격자수가 많은 곳에서는 추합 가능성은 낮습니다.
+5. **의료보건생활대학 치위생학과**:
+   - 경쟁률: 5.50
+   - 충원 합격 (후보순위): 10
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 318.80
+   이 성적은 평균보다 낮아 경쟁률이 높고 충원 합격자수가 많은 곳에서는 추합 가능성은 낮습니다.
+6. **의료보건생활대학 방사선학과**:
+   - 경쟁률: 7.20
+   - 충원 합격 (후보순위): 5
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 338.76
+   이 성적은 평균보다 낮아 경쟁률이 높고 충원 합격자수가 적은 곳에서는 추합 가능성은 낮습니다.
+7. **의료보건생활대학 의료경영학과**:
+   - 경쟁률: 2.80
+   - 충원 합격 (후보순위): 9
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 261.30
+   이 성적은 평균보다 낮아 경쟁률이 낮고 충원 합격자수가 적은 곳에서는 추합 가능성은 있습니다.
+8. **의료보건생활대학 물리치료학과**:
+   - 경쟁률: 12.75
+   - 충원 합격 (후보순위): 3
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 348.23
+   이 성적은 평균보다 낮아 경쟁률이 높고 충원 합격자수가 적은 곳에서는 추합 가능성은 낮습니다.
+9. **의료보건생활대학 식품영양학과**:
+   - 경쟁률: 2.17
+   - 충원 합격 (후보순위): 7
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 256.84
+   이 성적은 평균보다 낮아 경쟁률이 낮고 충원 합격자수가 적은 곳에서는 추합 가능성은 있습니다.
+10. **한의과대학 한의예과(수학&lt;미적분/기하&gt;)**:
+    - 경쟁률: 8.00
+    - 충원 합격 (후보순위): 12
+    - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 399.33
+    이 성적은 평균보다 낮아 경쟁률이 높고 충원 합격자수가 많은 곳에서는 추합 가능성은 낮습니다.
+11. **한의과대학 한의예과(수학&lt;확률과통계&gt;)**:
+    - 경쟁률: 7.00
+    - 충원 합격 (후보순위): 0
+    - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 396.29
+    이 성적은 평균보다 낮아 경쟁률이 높고 충원 합격자수가 적은 곳에서는 추합 가능성은 낮습니다.
+12. **공과대학 기계공학과, 로봇자동화공학과, 자동차공학과**:
+    - 경쟁률: 0.87
+    - 충원 합격 (후보순위): 0
+    - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 251.82
+    이 성적은 평균보다 낮아 경쟁률이 낮고 충원 합격자수가 적은 곳에서는 추합 가능성은 있습니다.
+13. **공과대학 조선해양공학과**:
+    - 경쟁률: 0.83
+    - 충원 합격 (후보순위): 0
+    - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 262.88
+    이 성적은 평균보다 낮아 경쟁률이 낮고 충원 합격자수가 적은 곳에서는 추합 가능성은 있습니다.
+따라서, 5.27이라는 성적을 가지고는 대부분의 단과대학 모집단위에서 추합 가능성은 낮습니다. 그러나 경쟁률이 낮고 충원 합격자수가 적은 곳에서는 추합 가능성이 있습니다. 자세한 정보를 얻기 위해서는 해당 대학의 입시 홈페이지나 관계부서에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 관련된 정보를 제공하지만, 정시 성적 4.2가 평균보다 낮다고 언급한 부분은 사실과 다릅니다. 원본 텍스트에 따르면 4.2는 평균보다 높은 성적입니다. 따라서 일부 사실이 잘못 전달되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 정시 성적에 대한 해석에서 불일치가 발생합니다. 원본 텍스트는 4.2가 평균보다 높은 성적이라고 명시하고 있지만, 생성된 응답은 이를 반대로 해석하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부에 대한 지원자들의 성적 분포와 관련된 정보를 제공하고 있으며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 부분이 자연스럽게 연결되어 있습니다. 그러나 정시 성적에 대한 해석에서의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 정시 성적 4.2에 대한 해석에서 오류가 있어 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이상의 성과를 보이지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 정시 성적에 대한 해석에서의 오류로 인해 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6876566012964961</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 지원자들의 성적 분포를 살펴보겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 424.05
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 8.06
+이 데이터를 바탕으로, 정시 성적 4.2는 평균보다 약간 낮은 수치입니다. 그러나 표준 편차가 8.06이라는 것을 고려하면, 이 점수도 합격 가능성에 포함될 수 있습니다.
+**경쟁률**: 5.33으로 높은 경쟁률을 보이고 있으므로, 정시 성적 4.2는 약간 낮은 점수이지만, 여전히 합격 가능성을 가지고 있습니다. 그러나 확실한 합격을 위해서는 추가적인 준비가 필요할 수 있습니다.
+**추천**: 
+1. **추가 과목 공부**: 국어, 수학, 탐구 등 주요 과목의 강화를 통해 성적을 높일 수 있습니다.
+2. **면접 준비**: 소프트웨어공학부는 종종 면접을 포함하여 전형을 진행하므로, 면접 준비도 필요합니다.
+3. **추천서 및 자기소개서 작성**: 이 부분에서도 경쟁력을 높일 수 있습니다.
+결론적으로, 정시 성적 4.2로 소프트웨어공학부에 합격하는 것은 가능하지만, 추가적인 노력이 필요할 것입니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다. [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu. ac. kr/main. do)</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부의 전형과 관련된 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(영어 4.82, 수능 5.73)과 관련된 내용이 누락되어 있습니다. 또한, 3.92라는 점수가 4등급에 해당한다고 언급했으나, 이 부분은 명확한 근거가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 전형의 세부사항과 관련된 내용이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트의 합격 가능성에 대한 언급과는 다소 다른 방향으로 설명하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 전형에 대한 정보를 제공하고 있으며, 질문의 맥락과 관련이 있습니다. 그러나 원본 텍스트의 주요 포인트인 평균 등급에 대한 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 평균 등급과 관련된 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로도 적절합니다. 그러나 원본 텍스트의 특정 세부사항이 누락되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 세부사항이 부족하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.7251595006002922</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92라는 표준점수를 화학환경공학부 일반학생전형에 적용해보겠습니다.
+화학환경공학부의 경우, 정시 모집군은 "가"군이며, 학생부교과 위주 전형입니다. 2024년도 동의대학교의 학생부 교과성적 반영방법을 보면, 반영과목이 전 모집단위(한의예과 제외)에서 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목입니다.
+3.92라는 표준점수는 대략적으로 4등급에 해당합니다. 따라서, 화학환경공학부 일반학생전형에 지원하기 위해서는 다음과 같은 과목에서 4등급 이상을 받은 것이 필요합니다:
+- 국어
+- 수학
+- 영어
+- 한국사
+- 사회(역사/도덕 포함)
+- 과학교과 중 석차등급 상위 7과목
+이 조건을 충족한다면, 화학환경공학부 일반학생전형에 지원할 수 있습니다. 하지만, 정확한 가능성을 판단하기 위해서는 동의대학교 입학처 홈페이지나 전화로 확인하는 것이 가장 확실합니다.
+추가적으로, 동의대학교의 학생부 교과성적 반영방법은 2024년도부터 변경되었으므로, 최신 정보를 확인하시기 바랍니다. 필요하다면, "https://ipsi. deu.ac.kr/main.do" 링크를 통해 입학처 홈페이지를 방문하여 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상반되는 정보를 제공합니다. 원본에서는 4.25의 성적이 합격 가능성이 높다고 판단했으나, 생성된 응답에서는 합격 가능성이 낮다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 포함하고 있습니다. 원본에서 제시된 합격 가능성과 생성된 응답의 내용이 서로 모순되므로 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용과는 관련이 적습니다. 경쟁률, 평균 점수, 표준 편차 등의 정보는 원본에서 다루지 않은 주제입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 이유를 나열하고 있지만, 이들 간의 논리적 연결이 부족하여 일관된 흐름이 떨어집니다. 각 이유가 원본의 주제와 어떻게 연결되는지 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부정적입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본의 맥락과는 다소 동떨어진 내용을 포함하고 있으며, 원본의 의미를 왜곡하고 있습니다. 따라서 의미 적합성 점수는 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 내용의 일관성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6773712355097694</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>4.25라는 성적을 가지고 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능성은 낮습니다.
+이유는 다음과 같습니다:
+1. **경쟁률**: 게임공학과의 경쟁률은 5.33, 영화학과는 2.20, 패션디자인학과는 3.67입니다. 이들 학과와 비교하면 화학환경공학부의 경쟁률이 더 높을 것으로 예상됩니다.
+2. **평균 점수**: 게임공학과의 평균 점수는 303.05, 영화학과는 286.77, 패션디자인학과는 309.71입니다. 이들 학과와 비교하면 화학환경공학부의 평균 점수가 더 높을 것으로 예상됩니다.
+3. **표준 편차**: 표준 편차가 높은 경우, 합격 가능성은 낮아집니다. 게임공학과는 8.27, 영화학과는 17.29, 패션디자인학과는 9.08입니다. 이들 학과와 비교하면 화학환경공학부의 표준 편차가 더 높을 것으로 예상됩니다.
+따라서, 정시 성적이 4.25라면 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능성은 낮습니다. 다른 전형이나 대학을 고려해보는 것이 좋겠습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나, 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 제공된 데이터에 기반하여 합격 가능성을 평가하고 있으며, 평균 성적, 경쟁률, 충원 합격자 수 등의 정보를 정확하게 반영하고 있습니다. 그러나 "지원 인원이 11명"이라는 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 대체로 일관성을 유지하고 있습니다. 그러나 "충원 합격자가 6명"이라는 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 불일치가 발생합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 지원자의 성적과 합격 가능성에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 합격 가능성에 미치는 영향을 명확하게 설명하고 있습니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 정보가 정확하지만, "지원 인원이 11명"이라는 정보는 원본 텍스트에 명시되어 있지 않으므로 이 부분에서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 기록하고 있습니다. 그러나 일부 정보의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 지원자의 성적에 대한 적절한 해석을 제공합니다. 그러나 일부 추가 정보는 원본 텍스트와의 일치성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.5900322229708798</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 제공된 데이터를 바탕으로 평균적인 경쟁률과 충원 합격자를 고려할 때, 영화학과의 경우 지원 인원이 11명이고 충원 합격자가 6명이라는 정보가 있습니다.
+영화학과의 경쟁률은 2.20이며, 평균적인 점수는 286.77입니다. 표준 편차는 17.29로, 이는 지원자의 점수가 평균점수에서 얼마나 퍼져있는지를 나타냅니다.
+4.2라는 점수는 현재 제공된 데이터를 바탕으로 보면 상당히 높은 점수입니다. 그러나 합격 가능성은 여러 요인에 따라 달라질 수 있습니다:
+1. **경쟁률**: 현재의 경쟁률이 2.20이며, 이는 지원자 중 충원 합격자가 나올 확률을 나타냅니다.
+2. **점수 분포**: 표준 편차가 17.29로 높은 점수와 낮은 점수가 많이 분포되어 있다는 것을 의미합니다. 이는 평균점수보다 높은 점수를 받은 지원자가 많을 수 있다는 것을 나타냅니다.
+3. **기타 요인**: 학생부 종합평가, 면접 등 기타 평가 항목도 합격 가능성에 영향을 미칠 수 있습니다.
+따라서 4.2라는 점수는 상대적으로 높은 점수로, 영화학과의 경우 충원 합격자가 6명이라는 점을 고려하면 합격 가능성이 높다고 볼 수 있습니다. 그러나 최종 합격 여부는 입시 결과 발표를 통해 알 수 있습니다.
+만약 더 자세한 정보나 추가 지원 전략이 필요하다면, 해당 대학의 입시 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조하거나 입시 상담을 받는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 내용도 면접 절차와 관련이 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 내용이 원본의 정보와 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.8567769832479299</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 따르며, 면접은 입학사정관 2인이 평가위원이 되어 수험생 1명을 대상으로 개별적 평가를 진행합니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
